--- a/server/src/static/example.xlsx
+++ b/server/src/static/example.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="21600" windowHeight="14205" tabRatio="863" activeTab="5"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="14200" tabRatio="863" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Populations &amp; programs" sheetId="12" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="Transitions" sheetId="10" r:id="rId10"/>
     <sheet name="Constants" sheetId="17" r:id="rId11"/>
     <sheet name="Economics and costs" sheetId="18" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="21" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="130000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -31,178 +32,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="146">
-  <si>
-    <t>Number of people who inject drugs who are on opiate substitution therapy</t>
-  </si>
-  <si>
-    <t>Number of women on PMTCT (Option B/B+)</t>
-  </si>
-  <si>
-    <t>Number of voluntary medical male circumcisions performed</t>
-  </si>
-  <si>
-    <t>Percentage of people covered by pre-exposure prophylaxis</t>
-  </si>
-  <si>
-    <t>Pre-exposure prophylaxis</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>Cost &amp; coverage</t>
-  </si>
-  <si>
-    <t>Assumption</t>
-  </si>
-  <si>
-    <t>Opiate substitution therapy</t>
-  </si>
-  <si>
-    <t>Percentage of people who die from non-HIV-related causes per year</t>
-  </si>
-  <si>
-    <t>Number of HIV tests per year</t>
-  </si>
-  <si>
-    <t>Number of HIV diagnoses per year</t>
-  </si>
-  <si>
-    <t>Coverage</t>
-  </si>
-  <si>
-    <t>Treated HIV</t>
-  </si>
-  <si>
-    <t>Populations</t>
-  </si>
-  <si>
-    <t>HIV prevalence</t>
-  </si>
-  <si>
-    <t>Gross domestic product</t>
-  </si>
-  <si>
-    <t>Government revenue</t>
-  </si>
-  <si>
-    <t>Prevalence of any ulcerative STIs</t>
-  </si>
-  <si>
-    <t>Number of people initiating ART each year</t>
-  </si>
-  <si>
-    <t>Percentage of people who used a condom at last act with commercial partners</t>
-  </si>
-  <si>
-    <t>Percentage of people who receptively shared a needle at last injection</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Average</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Female sex workers</t>
-  </si>
-  <si>
-    <t>Clients</t>
-  </si>
-  <si>
-    <t>Opiate substition therapy</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy</t>
-  </si>
-  <si>
-    <t>Prevention of mother-to-child transmission</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Average</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Percentage of people who used a condom at last act with regular partners</t>
-  </si>
-  <si>
-    <t>Average number of injections per person per year</t>
-  </si>
-  <si>
-    <t>Disease progression rate (% per year)</t>
-  </si>
-  <si>
-    <t>Mother-to-child (breastfeeding)</t>
-  </si>
-  <si>
-    <t>Mother-to-child (non-breastfeeding)</t>
-  </si>
-  <si>
-    <t>Relative disease-related transmissibility</t>
-  </si>
-  <si>
-    <t>Social mitigation costs</t>
-  </si>
-  <si>
-    <t>HIV-related health care costs (excluding treatment)</t>
-  </si>
-  <si>
-    <t>Untreated HIV, acute</t>
-  </si>
-  <si>
-    <t>Disutility weights</t>
-  </si>
-  <si>
-    <t>Interactions between casual partners</t>
-  </si>
-  <si>
-    <t>Interactions between commercial partners</t>
-  </si>
-  <si>
-    <t>Interactions between regular partners</t>
-  </si>
-  <si>
-    <t>Interactions between people who inject drugs</t>
-  </si>
-  <si>
-    <t>Interaction-related transmissibility (% per act)</t>
-  </si>
-  <si>
-    <t>Treatment recovery rate (% per year)</t>
-  </si>
-  <si>
-    <t>Treatment failure rate (% per year)</t>
-  </si>
-  <si>
-    <t>Death rate (% mortality per year)</t>
-  </si>
-  <si>
-    <t>Relative transmissibility</t>
-  </si>
-  <si>
-    <t>Modeled estimate of HIV prevalence</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Injects</t>
-  </si>
-  <si>
-    <t>Men who have sex with men</t>
-  </si>
-  <si>
-    <t>FSW programs</t>
-  </si>
-  <si>
-    <t>Programs for female sex workers and clients</t>
-  </si>
-  <si>
-    <t>Needle-syringe programs</t>
-  </si>
   <si>
     <t>Programs for men who have sex with men</t>
   </si>
@@ -289,6 +118,269 @@
   </si>
   <si>
     <t>Modeled estimate of new HIV infections per year</t>
+  </si>
+  <si>
+    <t>Number of women on PMTCT (Option B/B+)</t>
+  </si>
+  <si>
+    <t>Number of voluntary medical male circumcisions performed</t>
+  </si>
+  <si>
+    <t>Percentage of people covered by pre-exposure prophylaxis</t>
+  </si>
+  <si>
+    <t>Pre-exposure prophylaxis</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Cost &amp; coverage</t>
+  </si>
+  <si>
+    <t>Assumption</t>
+  </si>
+  <si>
+    <t>Opiate substitution therapy</t>
+  </si>
+  <si>
+    <t>Percentage of people who die from non-HIV-related causes per year</t>
+  </si>
+  <si>
+    <t>Number of HIV tests per year</t>
+  </si>
+  <si>
+    <t>Number of HIV diagnoses per year</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>Treated HIV</t>
+  </si>
+  <si>
+    <t>Populations</t>
+  </si>
+  <si>
+    <t>HIV prevalence</t>
+  </si>
+  <si>
+    <t>Gross domestic product</t>
+  </si>
+  <si>
+    <t>Government revenue</t>
+  </si>
+  <si>
+    <t>Prevalence of any ulcerative STIs</t>
+  </si>
+  <si>
+    <t>Number of people initiating ART each year</t>
+  </si>
+  <si>
+    <t>Percentage of people who used a condom at last act with commercial partners</t>
+  </si>
+  <si>
+    <t>Percentage of people who receptively shared a needle at last injection</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Female sex workers</t>
+  </si>
+  <si>
+    <t>Clients</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy</t>
+  </si>
+  <si>
+    <t>Prevention of mother-to-child transmission</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuberculosis cofactor</t>
+  </si>
+  <si>
+    <t>Diagnosis behavior change</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Insertive penile-vaginal intercourse</t>
+  </si>
+  <si>
+    <t>Receptive penile-vaginal intercourse</t>
+  </si>
+  <si>
+    <t>Insertive penile-anal intercourse</t>
+  </si>
+  <si>
+    <t>Receptive penile-anal intercourse</t>
+  </si>
+  <si>
+    <t>Intravenous injection</t>
+  </si>
+  <si>
+    <t>CD4(50-200)</t>
+  </si>
+  <si>
+    <t>CD4(&lt;50)</t>
+  </si>
+  <si>
+    <t>CD4(200-350) to CD4(50-200)</t>
+  </si>
+  <si>
+    <t>CD4(50-200) to CD4(&lt;50)</t>
+  </si>
+  <si>
+    <t>CD4(&lt;50) to CD4(50-200)</t>
+  </si>
+  <si>
+    <t>CD4(50-200) to CD4(200-350)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ulcerative STI cofactor increase </t>
+  </si>
+  <si>
+    <t>Average number of acts with regular partners per person per year</t>
+  </si>
+  <si>
+    <t>Average number of acts with casual partners per person per year</t>
+  </si>
+  <si>
+    <t>Average number of acts with commercial partners per person per year</t>
+  </si>
+  <si>
+    <t>Number of people on subsequent lines of treatment</t>
+  </si>
+  <si>
+    <t>Treatment eligibility criterion</t>
+  </si>
+  <si>
+    <t>Consumer price index</t>
+  </si>
+  <si>
+    <t>Purchasing power parity</t>
+  </si>
+  <si>
+    <t>Untreated HIV, CD4(50-200)</t>
+  </si>
+  <si>
+    <t>Untreated HIV, CD4(&lt;50)</t>
+  </si>
+  <si>
+    <r>
+      <t>Opiate substit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ut</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ion therapy</t>
+    </r>
+  </si>
+  <si>
+    <t>Programs for female sex workers and clients</t>
+  </si>
+  <si>
+    <t>Needle-syringe programs</t>
+  </si>
+  <si>
+    <t>Percentage of people who used a condom at last act with regular partners</t>
+  </si>
+  <si>
+    <t>Average number of injections per person per year</t>
+  </si>
+  <si>
+    <t>Disease progression rate (% per year)</t>
+  </si>
+  <si>
+    <t>Mother-to-child (breastfeeding)</t>
+  </si>
+  <si>
+    <t>Mother-to-child (non-breastfeeding)</t>
+  </si>
+  <si>
+    <t>Relative disease-related transmissibility</t>
+  </si>
+  <si>
+    <t>Social mitigation costs</t>
+  </si>
+  <si>
+    <t>HIV-related health care costs (excluding treatment)</t>
+  </si>
+  <si>
+    <t>Untreated HIV, acute</t>
+  </si>
+  <si>
+    <t>Disutility weights</t>
+  </si>
+  <si>
+    <t>Interactions between casual partners</t>
+  </si>
+  <si>
+    <t>Interactions between commercial partners</t>
+  </si>
+  <si>
+    <t>Interactions between regular partners</t>
+  </si>
+  <si>
+    <t>Interactions between people who inject drugs</t>
+  </si>
+  <si>
+    <t>Interaction-related transmissibility (% per act)</t>
+  </si>
+  <si>
+    <t>Treatment recovery rate (% per year)</t>
+  </si>
+  <si>
+    <t>Treatment failure rate (% per year)</t>
+  </si>
+  <si>
+    <t>Death rate (% mortality per year)</t>
+  </si>
+  <si>
+    <t>Relative transmissibility</t>
+  </si>
+  <si>
+    <t>Modeled estimate of HIV prevalence</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Injects</t>
+  </si>
+  <si>
+    <t>Men who have sex with men</t>
+  </si>
+  <si>
+    <t>FSW programs</t>
   </si>
   <si>
     <t>Probability of a person with CD4 &lt;200 being tested per year</t>
@@ -402,87 +494,19 @@
     <t>Tuberculosis prevalence</t>
   </si>
   <si>
-    <t>Tuberculosis cofactor</t>
-  </si>
-  <si>
-    <t>Diagnosis behavior change</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>Insertive penile-vaginal intercourse</t>
-  </si>
-  <si>
-    <t>Receptive penile-vaginal intercourse</t>
-  </si>
-  <si>
-    <t>Insertive penile-anal intercourse</t>
-  </si>
-  <si>
-    <t>Receptive penile-anal intercourse</t>
-  </si>
-  <si>
-    <t>Intravenous injection</t>
-  </si>
-  <si>
-    <t>CD4(50-200)</t>
-  </si>
-  <si>
-    <t>CD4(&lt;50)</t>
-  </si>
-  <si>
-    <t>CD4(200-350) to CD4(50-200)</t>
-  </si>
-  <si>
-    <t>CD4(50-200) to CD4(&lt;50)</t>
-  </si>
-  <si>
-    <t>CD4(&lt;50) to CD4(50-200)</t>
-  </si>
-  <si>
-    <t>CD4(50-200) to CD4(200-350)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ulcerative STI cofactor increase </t>
-  </si>
-  <si>
-    <t>Average number of acts with regular partners per person per year</t>
-  </si>
-  <si>
-    <t>Average number of acts with casual partners per person per year</t>
-  </si>
-  <si>
-    <t>Average number of acts with commercial partners per person per year</t>
-  </si>
-  <si>
-    <t>Number of people on subsequent lines of treatment</t>
-  </si>
-  <si>
-    <t>Treatment eligibility criterion</t>
-  </si>
-  <si>
-    <t>Consumer price index</t>
-  </si>
-  <si>
-    <t>Purchasing power parity</t>
-  </si>
-  <si>
-    <t>Untreated HIV, CD4(50-200)</t>
-  </si>
-  <si>
-    <t>Untreated HIV, CD4(&lt;50)</t>
+    <t>Number of people who inject drugs who are on opiate substitution therapy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="3" tint="-0.24994659260841701"/>
@@ -658,7 +682,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -1306,7 +1330,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="52">
@@ -1412,7 +1436,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -2399,70 +2423,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="20"/>
+    <col min="1" max="1" width="9.125" style="20"/>
     <col min="2" max="2" width="5" style="20" customWidth="1"/>
     <col min="3" max="3" width="18" style="20" customWidth="1"/>
-    <col min="4" max="4" width="55.42578125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="20" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="20"/>
-    <col min="8" max="9" width="14.140625" style="20" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="20" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="20"/>
+    <col min="4" max="4" width="55.5" style="20" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="20" customWidth="1"/>
+    <col min="6" max="7" width="9.125" style="20"/>
+    <col min="8" max="9" width="14.125" style="20" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="20" customWidth="1"/>
+    <col min="11" max="16384" width="9.125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="C2" s="21" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="E2" s="44" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="B3" s="21">
         <v>1</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="E3" s="41" t="b">
         <v>1</v>
@@ -2486,15 +2510,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="B4" s="21">
         <v>2</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E4" s="41" t="b">
         <v>0</v>
@@ -2518,15 +2542,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="B5" s="21">
         <v>3</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="E5" s="41" t="b">
         <v>1</v>
@@ -2550,15 +2574,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="B6" s="21">
         <v>4</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="E6" s="41" t="b">
         <v>1</v>
@@ -2582,15 +2606,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="B7" s="21">
         <v>5</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="E7" s="41" t="b">
         <v>0</v>
@@ -2614,15 +2638,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="B8" s="21">
         <v>6</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="E8" s="41" t="b">
         <v>1</v>
@@ -2646,108 +2670,109 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="B9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="B10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="B11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="21" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="B12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="B13" s="21"/>
       <c r="C13" s="21" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="B14" s="21">
         <v>1</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="B15" s="21">
         <v>2</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="B16" s="21">
         <v>3</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17" s="21">
         <v>4</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
       <c r="B18" s="21">
         <v>5</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
       <c r="B19" s="21">
         <v>6</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
       <c r="B20" s="21">
         <v>7</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2759,7 +2784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Z19"/>
   <sheetViews>
@@ -2767,15 +2792,15 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="8.5703125" style="6"/>
-    <col min="3" max="8" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="6"/>
+    <col min="3" max="8" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" s="3" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="2"/>
@@ -2785,7 +2810,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="6" customFormat="1">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="4" t="str">
@@ -2813,7 +2838,7 @@
         <v>Clients</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="B3" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -2825,7 +2850,7 @@
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="B4" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -2837,7 +2862,7 @@
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="B5" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
@@ -2849,7 +2874,7 @@
       <c r="G5" s="24"/>
       <c r="H5" s="24"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="B6" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
@@ -2861,7 +2886,7 @@
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="B7" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
@@ -2873,7 +2898,7 @@
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="B8" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
@@ -2885,7 +2910,7 @@
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
     </row>
-    <row r="9" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="18" customFormat="1">
       <c r="A9" s="16"/>
       <c r="B9" s="35"/>
       <c r="C9" s="16"/>
@@ -2913,10 +2938,10 @@
       <c r="Y9" s="16"/>
       <c r="Z9" s="16"/>
     </row>
-    <row r="10" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="18" customFormat="1">
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="A11" s="2"/>
       <c r="B11" s="35"/>
       <c r="C11" s="2"/>
@@ -2926,9 +2951,9 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="A12" s="17" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="B12" s="35"/>
       <c r="C12" s="2"/>
@@ -2938,7 +2963,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="6" customFormat="1">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
       <c r="C13" s="4" t="str">
@@ -2966,7 +2991,7 @@
         <v>Clients</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="B14" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -2978,7 +3003,7 @@
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="B15" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -2990,7 +3015,7 @@
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="B16" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
@@ -3002,7 +3027,7 @@
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8">
       <c r="B17" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
@@ -3014,7 +3039,7 @@
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8">
       <c r="B18" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
@@ -3026,7 +3051,7 @@
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8">
       <c r="B19" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
@@ -3039,6 +3064,7 @@
       <c r="H19" s="24"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3050,35 +3076,35 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="1" max="1" width="9.125" style="18"/>
     <col min="2" max="2" width="36" style="18" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="18"/>
+    <col min="3" max="16384" width="9.125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="6" customFormat="1">
       <c r="C2" s="4" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
@@ -3086,9 +3112,9 @@
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="B3" s="19" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="C3" s="26">
         <v>4.0000000000000002E-4</v>
@@ -3100,9 +3126,9 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="B4" s="19" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="C4" s="26">
         <v>8.0000000000000004E-4</v>
@@ -3114,9 +3140,9 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="B5" s="19" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="C5" s="26">
         <v>1.38E-2</v>
@@ -3128,9 +3154,9 @@
         <v>1.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" s="19" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="C6" s="26">
         <v>1.1000000000000001E-3</v>
@@ -3142,9 +3168,9 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7" s="19" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="C7" s="26">
         <v>8.0000000000000002E-3</v>
@@ -3156,9 +3182,9 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" s="19" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="C8" s="26">
         <v>0.36699999999999999</v>
@@ -3170,9 +3196,9 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9" s="19" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C9" s="26">
         <v>0.20499999999999999</v>
@@ -3184,7 +3210,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -3194,25 +3220,25 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="C14" s="4" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="B15" s="19" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="C15" s="22">
         <v>26.03</v>
@@ -3224,9 +3250,9 @@
         <v>48.02</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="B16" s="19" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="C16" s="22">
         <v>1</v>
@@ -3238,9 +3264,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="B17" s="19" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="C17" s="22">
         <v>1</v>
@@ -3252,9 +3278,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="B18" s="19" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C18" s="22">
         <v>1</v>
@@ -3266,9 +3292,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="B19" s="19" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="C19" s="22">
         <v>3.49</v>
@@ -3280,9 +3306,9 @@
         <v>6.92</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="B20" s="19" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="C20" s="22">
         <v>7.17</v>
@@ -3294,7 +3320,7 @@
         <v>12.08</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -3304,26 +3330,26 @@
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="19" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="B24" s="19"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="C25" s="4" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="B26" s="19" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C26" s="25">
         <v>4.1399999999999997</v>
@@ -3335,9 +3361,9 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="B27" s="19" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="C27" s="25">
         <v>1.05</v>
@@ -3349,9 +3375,9 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="B28" s="19" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="C28" s="25">
         <v>0.33</v>
@@ -3363,9 +3389,9 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="B29" s="19" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="C29" s="25">
         <v>0.27</v>
@@ -3377,9 +3403,9 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="B30" s="19" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="C30" s="25">
         <v>0.67</v>
@@ -3391,7 +3417,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -3401,25 +3427,25 @@
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="C35" s="4" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="B36" s="19" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="C36" s="25">
         <v>0.45</v>
@@ -3431,9 +3457,9 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="B37" s="19" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="C37" s="25">
         <v>0.7</v>
@@ -3445,9 +3471,9 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="B38" s="19" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="C38" s="25">
         <v>0.47</v>
@@ -3459,9 +3485,9 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="B39" s="19" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="C39" s="25">
         <v>1.52</v>
@@ -3473,10 +3499,10 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="B40" s="19"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
@@ -3486,25 +3512,25 @@
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="C44" s="4" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="B45" s="19" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="C45" s="25">
         <v>0.1</v>
@@ -3516,9 +3542,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="B46" s="19" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="C46" s="25">
         <v>0.16</v>
@@ -3530,7 +3556,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -3540,25 +3566,25 @@
       <c r="G49" s="16"/>
       <c r="H49" s="16"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="C51" s="4" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="B52" s="19" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="C52" s="26">
         <v>3.5999999999999999E-3</v>
@@ -3570,9 +3596,9 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="B53" s="19" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="C53" s="26">
         <v>3.5999999999999999E-3</v>
@@ -3584,9 +3610,9 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="B54" s="19" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="C54" s="26">
         <v>5.7999999999999996E-3</v>
@@ -3598,9 +3624,9 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="B55" s="19" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C55" s="26">
         <v>8.8000000000000005E-3</v>
@@ -3612,9 +3638,9 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="B56" s="19" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="C56" s="26">
         <v>5.8999999999999997E-2</v>
@@ -3626,9 +3652,9 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="B57" s="19" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="C57" s="26">
         <v>0.32300000000000001</v>
@@ -3640,9 +3666,9 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="B58" s="19" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="C58" s="26">
         <v>0.23</v>
@@ -3654,9 +3680,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="B59" s="19" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="C59" s="22">
         <v>2.17</v>
@@ -3668,7 +3694,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -3678,25 +3704,25 @@
       <c r="G62" s="16"/>
       <c r="H62" s="16"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="C64" s="4" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="B65" s="19" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="C65" s="26">
         <v>0.05</v>
@@ -3708,9 +3734,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="B66" s="19" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="C66" s="26">
         <v>0.42</v>
@@ -3722,9 +3748,9 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="B67" s="19" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="C67" s="26">
         <v>1</v>
@@ -3736,9 +3762,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="C68" s="26">
         <v>2.65</v>
@@ -3750,9 +3776,9 @@
         <v>5.19</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="B69" s="19" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C69" s="26">
         <v>0.46</v>
@@ -3764,9 +3790,9 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="B70" s="19" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="C70" s="26">
         <v>0.105</v>
@@ -3778,9 +3804,9 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="B71" s="19" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C71" s="26">
         <v>0.3</v>
@@ -3792,9 +3818,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="B72" s="19" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C72" s="26">
         <v>0.27500000000000002</v>
@@ -3806,25 +3832,25 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" s="19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="C77" s="4" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="B78" s="19" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="C78" s="24">
         <v>0.05</v>
@@ -3832,9 +3858,9 @@
       <c r="D78" s="22"/>
       <c r="E78" s="22"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="B79" s="19" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="C79" s="24">
         <v>0.05</v>
@@ -3842,9 +3868,9 @@
       <c r="D79" s="22"/>
       <c r="E79" s="22"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="B80" s="19" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="C80" s="24">
         <v>0.1</v>
@@ -3852,9 +3878,9 @@
       <c r="D80" s="22"/>
       <c r="E80" s="22"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5">
       <c r="B81" s="19" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="C81" s="24">
         <v>0.15</v>
@@ -3862,9 +3888,9 @@
       <c r="D81" s="22"/>
       <c r="E81" s="22"/>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5">
       <c r="B82" s="19" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="C82" s="24">
         <v>0.4</v>
@@ -3872,9 +3898,9 @@
       <c r="D82" s="22"/>
       <c r="E82" s="22"/>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5">
       <c r="B83" s="19" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="C83" s="24">
         <v>0.6</v>
@@ -3882,9 +3908,9 @@
       <c r="D83" s="22"/>
       <c r="E83" s="22"/>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5">
       <c r="B84" s="19" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C84" s="24">
         <v>5.2999999999999999E-2</v>
@@ -3893,9 +3919,9 @@
       <c r="E84" s="22"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3905,33 +3931,35 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AI91"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="13.85546875" style="18" customWidth="1"/>
-    <col min="5" max="11" width="8.5703125" style="18"/>
+    <col min="2" max="2" width="19.5" style="6" customWidth="1"/>
+    <col min="3" max="4" width="13.875" style="18" customWidth="1"/>
+    <col min="5" max="11" width="8.5" style="18"/>
     <col min="12" max="12" width="12" style="18" customWidth="1"/>
-    <col min="13" max="17" width="8.5703125" style="18"/>
-    <col min="18" max="18" width="12.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="8.5" style="18"/>
+    <col min="18" max="18" width="12.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="18" customFormat="1">
       <c r="A1" s="19" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="B1" s="6"/>
       <c r="AI1" s="6"/>
     </row>
-    <row r="2" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" s="18" customFormat="1">
       <c r="B2" s="6"/>
       <c r="C2" s="19">
         <v>2000</v>
@@ -4027,29 +4055,63 @@
         <v>2030</v>
       </c>
       <c r="AI2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" s="18" customFormat="1">
       <c r="B3" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
+        <v>140</v>
+      </c>
+      <c r="C3" s="22">
+        <v>75.018454192929113</v>
+      </c>
+      <c r="D3" s="22">
+        <v>76.070810544531554</v>
+      </c>
+      <c r="E3" s="22">
+        <v>77.902335510111072</v>
+      </c>
+      <c r="F3" s="22">
+        <v>79.45534236885652</v>
+      </c>
+      <c r="G3" s="22">
+        <v>81.068347459232555</v>
+      </c>
+      <c r="H3" s="22">
+        <v>82.769770996223016</v>
+      </c>
+      <c r="I3" s="22">
+        <v>84.249516856345011</v>
+      </c>
+      <c r="J3" s="22">
+        <v>85.442534325304138</v>
+      </c>
+      <c r="K3" s="22">
+        <v>89.999873687933118</v>
+      </c>
+      <c r="L3" s="22">
+        <v>89.504730386893897</v>
+      </c>
+      <c r="M3" s="22">
+        <v>92.521062537104171</v>
+      </c>
+      <c r="N3" s="22">
+        <v>95.719284063206572</v>
+      </c>
+      <c r="O3" s="22">
+        <v>98.951609847288623</v>
+      </c>
+      <c r="P3" s="22">
+        <v>100</v>
+      </c>
+      <c r="Q3" s="22">
+        <f>P3*(1.025)</f>
+        <v>102.49999999999999</v>
+      </c>
+      <c r="R3" s="22">
+        <f>Q3*(1.025)</f>
+        <v>105.06249999999997</v>
+      </c>
       <c r="S3" s="22"/>
       <c r="T3" s="22"/>
       <c r="U3" s="22"/>
@@ -4066,30 +4128,30 @@
       <c r="AF3" s="22"/>
       <c r="AG3" s="22"/>
       <c r="AH3" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="AI3" s="29"/>
     </row>
-    <row r="4" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" s="18" customFormat="1">
       <c r="B4" s="6"/>
       <c r="AI4" s="6"/>
     </row>
-    <row r="5" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" s="18" customFormat="1">
       <c r="B5" s="6"/>
       <c r="AI5" s="6"/>
     </row>
-    <row r="6" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" s="18" customFormat="1">
       <c r="B6" s="6"/>
       <c r="AI6" s="6"/>
     </row>
-    <row r="7" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" s="18" customFormat="1">
       <c r="A7" s="19" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="B7" s="6"/>
       <c r="AI7" s="6"/>
     </row>
-    <row r="8" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" s="18" customFormat="1">
       <c r="B8" s="6"/>
       <c r="C8" s="19">
         <v>2000</v>
@@ -4185,12 +4247,12 @@
         <v>2030</v>
       </c>
       <c r="AI8" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" s="18" customFormat="1">
       <c r="B9" s="4" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
@@ -4224,25 +4286,25 @@
       <c r="AF9" s="40"/>
       <c r="AG9" s="40"/>
       <c r="AH9" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="AI9" s="29"/>
     </row>
-    <row r="10" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" s="18" customFormat="1">
       <c r="B10" s="6"/>
       <c r="AI10" s="6"/>
     </row>
-    <row r="11" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" s="18" customFormat="1">
       <c r="B11" s="6"/>
       <c r="AI11" s="6"/>
     </row>
-    <row r="12" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" s="18" customFormat="1">
       <c r="B12" s="6"/>
       <c r="AI12" s="6"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35">
       <c r="A13" s="19" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
@@ -4261,7 +4323,7 @@
       <c r="AG13" s="18"/>
       <c r="AH13" s="18"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35">
       <c r="A14" s="18"/>
       <c r="C14" s="19">
         <v>2000</v>
@@ -4358,13 +4420,13 @@
       </c>
       <c r="AH14" s="18"/>
       <c r="AI14" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35">
       <c r="A15" s="18"/>
       <c r="B15" s="4" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C15" s="22">
         <f t="shared" ref="C15:R15" si="0">D15/(1.12)</f>
@@ -4490,18 +4552,18 @@
         <v>350405950838.15192</v>
       </c>
       <c r="AH15" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="AI15" s="29"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35">
       <c r="T17" s="18"/>
       <c r="U17" s="18"/>
       <c r="V17" s="18"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35">
       <c r="A19" s="19" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="S19" s="18"/>
       <c r="T19" s="18"/>
@@ -4520,7 +4582,7 @@
       <c r="AG19" s="18"/>
       <c r="AH19" s="18"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35">
       <c r="A20" s="18"/>
       <c r="C20" s="19">
         <v>2000</v>
@@ -4617,13 +4679,13 @@
       </c>
       <c r="AH20" s="18"/>
       <c r="AI20" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35">
       <c r="A21" s="18"/>
       <c r="B21" s="4" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C21" s="40">
         <v>30000000000</v>
@@ -4749,13 +4811,13 @@
         <v>180000000000</v>
       </c>
       <c r="AH21" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="AI21" s="29"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35">
       <c r="A25" s="19" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="S25" s="18"/>
       <c r="T25" s="18"/>
@@ -4774,7 +4836,7 @@
       <c r="AG25" s="18"/>
       <c r="AH25" s="18"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35">
       <c r="A26" s="18"/>
       <c r="C26" s="19">
         <v>2000</v>
@@ -4871,13 +4933,13 @@
       </c>
       <c r="AH26" s="18"/>
       <c r="AI26" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35">
       <c r="A27" s="18"/>
       <c r="B27" s="4" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C27" s="22">
         <v>10000000000</v>
@@ -5003,18 +5065,18 @@
         <v>43219423751.506668</v>
       </c>
       <c r="AH27" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="AI27" s="29"/>
     </row>
-    <row r="31" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" s="18" customFormat="1">
       <c r="A31" s="19" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="B31" s="6"/>
       <c r="AI31" s="6"/>
     </row>
-    <row r="32" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" s="18" customFormat="1">
       <c r="B32" s="6"/>
       <c r="C32" s="19">
         <v>2000</v>
@@ -5110,12 +5172,12 @@
         <v>2030</v>
       </c>
       <c r="AI32" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" s="18" customFormat="1">
       <c r="B33" s="4" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
@@ -5149,30 +5211,30 @@
       <c r="AF33" s="22"/>
       <c r="AG33" s="22"/>
       <c r="AH33" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="AI33" s="29"/>
     </row>
-    <row r="34" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" s="18" customFormat="1">
       <c r="B34" s="6"/>
       <c r="AI34" s="6"/>
     </row>
-    <row r="35" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" s="18" customFormat="1">
       <c r="B35" s="6"/>
       <c r="AI35" s="6"/>
     </row>
-    <row r="36" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" s="18" customFormat="1">
       <c r="B36" s="6"/>
       <c r="AI36" s="6"/>
     </row>
-    <row r="37" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" s="18" customFormat="1">
       <c r="A37" s="19" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B37" s="6"/>
       <c r="AI37" s="6"/>
     </row>
-    <row r="38" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" s="18" customFormat="1">
       <c r="B38" s="6"/>
       <c r="C38" s="19">
         <v>2000</v>
@@ -5268,12 +5330,12 @@
         <v>2030</v>
       </c>
       <c r="AI38" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" s="18" customFormat="1">
       <c r="B39" s="4" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C39" s="22">
         <f>12%*C27</f>
@@ -5400,18 +5462,18 @@
         <v>5186330850.1808004</v>
       </c>
       <c r="AH39" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="AI39" s="29"/>
     </row>
-    <row r="43" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" s="18" customFormat="1">
       <c r="A43" s="19" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="B43" s="6"/>
       <c r="AI43" s="6"/>
     </row>
-    <row r="44" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" s="18" customFormat="1">
       <c r="B44" s="6"/>
       <c r="C44" s="19">
         <v>2000</v>
@@ -5507,12 +5569,12 @@
         <v>2030</v>
       </c>
       <c r="AI44" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" s="18" customFormat="1">
       <c r="B45" s="4" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C45" s="22">
         <v>15000000</v>
@@ -5608,30 +5670,30 @@
         <v>18000000</v>
       </c>
       <c r="AH45" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="AI45" s="29"/>
     </row>
-    <row r="46" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" s="18" customFormat="1">
       <c r="B46" s="6"/>
       <c r="AI46" s="6"/>
     </row>
-    <row r="47" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" s="18" customFormat="1">
       <c r="B47" s="6"/>
       <c r="AI47" s="6"/>
     </row>
-    <row r="48" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" s="18" customFormat="1">
       <c r="B48" s="6"/>
       <c r="AI48" s="6"/>
     </row>
-    <row r="49" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" s="18" customFormat="1">
       <c r="A49" s="19" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="B49" s="6"/>
       <c r="AI49" s="6"/>
     </row>
-    <row r="50" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" s="18" customFormat="1">
       <c r="B50" s="6"/>
       <c r="C50" s="19">
         <v>2000</v>
@@ -5727,12 +5789,12 @@
         <v>2030</v>
       </c>
       <c r="AI50" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35" s="18" customFormat="1">
       <c r="B51" s="4" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
@@ -5766,30 +5828,30 @@
       <c r="AF51" s="22"/>
       <c r="AG51" s="22"/>
       <c r="AH51" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="AI51" s="29"/>
     </row>
-    <row r="52" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" s="18" customFormat="1">
       <c r="B52" s="6"/>
       <c r="AI52" s="6"/>
     </row>
-    <row r="53" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" s="18" customFormat="1">
       <c r="B53" s="6"/>
       <c r="AI53" s="6"/>
     </row>
-    <row r="54" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" s="18" customFormat="1">
       <c r="B54" s="6"/>
       <c r="AI54" s="6"/>
     </row>
-    <row r="55" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" s="18" customFormat="1">
       <c r="A55" s="19" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="B55" s="6"/>
       <c r="AI55" s="6"/>
     </row>
-    <row r="56" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" s="18" customFormat="1">
       <c r="B56" s="6"/>
       <c r="C56" s="19">
         <v>2000</v>
@@ -5885,12 +5947,12 @@
         <v>2030</v>
       </c>
       <c r="AI56" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35" s="18" customFormat="1">
       <c r="B57" s="4" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C57" s="22"/>
       <c r="D57" s="22"/>
@@ -5924,18 +5986,18 @@
       <c r="AF57" s="22"/>
       <c r="AG57" s="22"/>
       <c r="AH57" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="AI57" s="29"/>
     </row>
-    <row r="61" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" s="18" customFormat="1">
       <c r="A61" s="19" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="B61" s="6"/>
       <c r="AI61" s="6"/>
     </row>
-    <row r="62" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" s="18" customFormat="1">
       <c r="B62" s="6"/>
       <c r="C62" s="19">
         <v>2000</v>
@@ -6031,12 +6093,12 @@
         <v>2030</v>
       </c>
       <c r="AI62" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35" s="18" customFormat="1">
       <c r="B63" s="4" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C63" s="22"/>
       <c r="D63" s="22"/>
@@ -6070,30 +6132,30 @@
       <c r="AF63" s="22"/>
       <c r="AG63" s="22"/>
       <c r="AH63" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="AI63" s="29"/>
     </row>
-    <row r="64" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" s="18" customFormat="1">
       <c r="B64" s="6"/>
       <c r="AI64" s="6"/>
     </row>
-    <row r="65" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35" s="18" customFormat="1">
       <c r="B65" s="6"/>
       <c r="AI65" s="6"/>
     </row>
-    <row r="66" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" s="18" customFormat="1">
       <c r="B66" s="6"/>
       <c r="AI66" s="6"/>
     </row>
-    <row r="67" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35" s="18" customFormat="1">
       <c r="A67" s="19" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="B67" s="6"/>
       <c r="AI67" s="6"/>
     </row>
-    <row r="68" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35" s="18" customFormat="1">
       <c r="B68" s="6"/>
       <c r="C68" s="19">
         <v>2000</v>
@@ -6189,12 +6251,12 @@
         <v>2030</v>
       </c>
       <c r="AI68" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" s="18" customFormat="1">
       <c r="B69" s="4" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C69" s="22"/>
       <c r="D69" s="22"/>
@@ -6228,17 +6290,17 @@
       <c r="AF69" s="22"/>
       <c r="AG69" s="22"/>
       <c r="AH69" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="AI69" s="29"/>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35">
       <c r="A73" s="19" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="B73" s="18"/>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35">
       <c r="A74" s="18"/>
       <c r="B74" s="18"/>
       <c r="C74" s="19">
@@ -6336,32 +6398,77 @@
       </c>
       <c r="AH74" s="18"/>
       <c r="AI74" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:35">
       <c r="A75" s="18"/>
       <c r="B75" s="19" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="C75" s="22">
         <v>0</v>
       </c>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="22"/>
-      <c r="J75" s="22"/>
-      <c r="K75" s="22"/>
-      <c r="L75" s="22"/>
-      <c r="M75" s="22"/>
-      <c r="N75" s="22"/>
-      <c r="O75" s="22"/>
-      <c r="P75" s="22"/>
-      <c r="Q75" s="22"/>
-      <c r="R75" s="22"/>
+      <c r="D75" s="22">
+        <f t="shared" ref="D75:R75" si="5">C75</f>
+        <v>0</v>
+      </c>
+      <c r="E75" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F75" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H75" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I75" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K75" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L75" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M75" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N75" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O75" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P75" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q75" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R75" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S75" s="22"/>
       <c r="T75" s="22"/>
       <c r="U75" s="22"/>
@@ -6378,33 +6485,78 @@
       <c r="AF75" s="22"/>
       <c r="AG75" s="22"/>
       <c r="AH75" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="AI75" s="29"/>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35">
       <c r="A76" s="18"/>
       <c r="B76" s="19" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="C76" s="22">
         <v>100</v>
       </c>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="22"/>
-      <c r="J76" s="22"/>
-      <c r="K76" s="22"/>
-      <c r="L76" s="22"/>
-      <c r="M76" s="22"/>
-      <c r="N76" s="22"/>
-      <c r="O76" s="22"/>
-      <c r="P76" s="22"/>
-      <c r="Q76" s="22"/>
-      <c r="R76" s="22"/>
+      <c r="D76" s="22">
+        <f t="shared" ref="D76:R76" si="6">C76</f>
+        <v>100</v>
+      </c>
+      <c r="E76" s="22">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="F76" s="22">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="G76" s="22">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="H76" s="22">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="I76" s="22">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="J76" s="22">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="K76" s="22">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="L76" s="22">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="M76" s="22">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="N76" s="22">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="O76" s="22">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="P76" s="22">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="Q76" s="22">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="R76" s="22">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
       <c r="S76" s="22"/>
       <c r="T76" s="22"/>
       <c r="U76" s="22"/>
@@ -6421,33 +6573,78 @@
       <c r="AF76" s="22"/>
       <c r="AG76" s="22"/>
       <c r="AH76" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="AI76" s="29"/>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35">
       <c r="A77" s="18"/>
       <c r="B77" s="19" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="C77" s="22">
         <v>100</v>
       </c>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="22"/>
-      <c r="L77" s="22"/>
-      <c r="M77" s="22"/>
-      <c r="N77" s="22"/>
-      <c r="O77" s="22"/>
-      <c r="P77" s="22"/>
-      <c r="Q77" s="22"/>
-      <c r="R77" s="22"/>
+      <c r="D77" s="22">
+        <f t="shared" ref="D77:R77" si="7">C77</f>
+        <v>100</v>
+      </c>
+      <c r="E77" s="22">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="F77" s="22">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="G77" s="22">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="H77" s="22">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="I77" s="22">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="J77" s="22">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="K77" s="22">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="L77" s="22">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="M77" s="22">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="N77" s="22">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="O77" s="22">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="P77" s="22">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="Q77" s="22">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="R77" s="22">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
       <c r="S77" s="22"/>
       <c r="T77" s="22"/>
       <c r="U77" s="22"/>
@@ -6464,30 +6661,77 @@
       <c r="AF77" s="22"/>
       <c r="AG77" s="22"/>
       <c r="AH77" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="AI77" s="29"/>
     </row>
-    <row r="78" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35" s="18" customFormat="1">
       <c r="B78" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="22"/>
-      <c r="K78" s="22"/>
-      <c r="L78" s="22"/>
-      <c r="M78" s="22"/>
-      <c r="N78" s="22"/>
-      <c r="O78" s="22"/>
-      <c r="P78" s="22"/>
-      <c r="Q78" s="22"/>
-      <c r="R78" s="22"/>
+        <v>112</v>
+      </c>
+      <c r="C78" s="22">
+        <v>150</v>
+      </c>
+      <c r="D78" s="22">
+        <f t="shared" ref="D78:R78" si="8">C78</f>
+        <v>150</v>
+      </c>
+      <c r="E78" s="22">
+        <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="F78" s="22">
+        <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="G78" s="22">
+        <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="H78" s="22">
+        <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="I78" s="22">
+        <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="J78" s="22">
+        <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="K78" s="22">
+        <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="L78" s="22">
+        <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="M78" s="22">
+        <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="N78" s="22">
+        <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="O78" s="22">
+        <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="P78" s="22">
+        <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="Q78" s="22">
+        <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="R78" s="22">
+        <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
       <c r="S78" s="22"/>
       <c r="T78" s="22"/>
       <c r="U78" s="22"/>
@@ -6504,33 +6748,78 @@
       <c r="AF78" s="22"/>
       <c r="AG78" s="22"/>
       <c r="AH78" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="AI78" s="29"/>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35">
       <c r="A79" s="18"/>
       <c r="B79" s="19" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="C79" s="22">
         <v>200</v>
       </c>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
-      <c r="K79" s="22"/>
-      <c r="L79" s="22"/>
-      <c r="M79" s="22"/>
-      <c r="N79" s="22"/>
-      <c r="O79" s="22"/>
-      <c r="P79" s="22"/>
-      <c r="Q79" s="22"/>
-      <c r="R79" s="22"/>
+      <c r="D79" s="22">
+        <f t="shared" ref="D79:R79" si="9">C79</f>
+        <v>200</v>
+      </c>
+      <c r="E79" s="22">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="F79" s="22">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="G79" s="22">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="H79" s="22">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="I79" s="22">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="J79" s="22">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="K79" s="22">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="L79" s="22">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="M79" s="22">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="N79" s="22">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="O79" s="22">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="P79" s="22">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="Q79" s="22">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="R79" s="22">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
       <c r="S79" s="22"/>
       <c r="T79" s="22"/>
       <c r="U79" s="22"/>
@@ -6547,33 +6836,78 @@
       <c r="AF79" s="22"/>
       <c r="AG79" s="22"/>
       <c r="AH79" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="AI79" s="29"/>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35">
       <c r="A80" s="18"/>
       <c r="B80" s="19" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="C80" s="22">
         <v>450</v>
       </c>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="22"/>
-      <c r="J80" s="22"/>
-      <c r="K80" s="22"/>
-      <c r="L80" s="22"/>
-      <c r="M80" s="22"/>
-      <c r="N80" s="22"/>
-      <c r="O80" s="22"/>
-      <c r="P80" s="22"/>
-      <c r="Q80" s="22"/>
-      <c r="R80" s="22"/>
+      <c r="D80" s="22">
+        <f t="shared" ref="D80:R80" si="10">C80</f>
+        <v>450</v>
+      </c>
+      <c r="E80" s="22">
+        <f t="shared" si="10"/>
+        <v>450</v>
+      </c>
+      <c r="F80" s="22">
+        <f t="shared" si="10"/>
+        <v>450</v>
+      </c>
+      <c r="G80" s="22">
+        <f t="shared" si="10"/>
+        <v>450</v>
+      </c>
+      <c r="H80" s="22">
+        <f t="shared" si="10"/>
+        <v>450</v>
+      </c>
+      <c r="I80" s="22">
+        <f t="shared" si="10"/>
+        <v>450</v>
+      </c>
+      <c r="J80" s="22">
+        <f t="shared" si="10"/>
+        <v>450</v>
+      </c>
+      <c r="K80" s="22">
+        <f t="shared" si="10"/>
+        <v>450</v>
+      </c>
+      <c r="L80" s="22">
+        <f t="shared" si="10"/>
+        <v>450</v>
+      </c>
+      <c r="M80" s="22">
+        <f t="shared" si="10"/>
+        <v>450</v>
+      </c>
+      <c r="N80" s="22">
+        <f t="shared" si="10"/>
+        <v>450</v>
+      </c>
+      <c r="O80" s="22">
+        <f t="shared" si="10"/>
+        <v>450</v>
+      </c>
+      <c r="P80" s="22">
+        <f t="shared" si="10"/>
+        <v>450</v>
+      </c>
+      <c r="Q80" s="22">
+        <f t="shared" si="10"/>
+        <v>450</v>
+      </c>
+      <c r="R80" s="22">
+        <f t="shared" si="10"/>
+        <v>450</v>
+      </c>
       <c r="S80" s="22"/>
       <c r="T80" s="22"/>
       <c r="U80" s="22"/>
@@ -6590,29 +6924,29 @@
       <c r="AF80" s="22"/>
       <c r="AG80" s="22"/>
       <c r="AH80" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="AI80" s="29"/>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35">
       <c r="A81" s="18"/>
       <c r="B81" s="18"/>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35">
       <c r="A82" s="18"/>
       <c r="B82" s="18"/>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35">
       <c r="A83" s="18"/>
       <c r="B83" s="18"/>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35">
       <c r="A84" s="19" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="B84" s="18"/>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35">
       <c r="A85" s="18"/>
       <c r="B85" s="18"/>
       <c r="C85" s="19">
@@ -6710,32 +7044,77 @@
       </c>
       <c r="AH85" s="18"/>
       <c r="AI85" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" spans="1:35">
       <c r="A86" s="18"/>
       <c r="B86" s="19" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="C86" s="22">
         <v>0</v>
       </c>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="22"/>
-      <c r="I86" s="22"/>
-      <c r="J86" s="22"/>
-      <c r="K86" s="22"/>
-      <c r="L86" s="22"/>
-      <c r="M86" s="22"/>
-      <c r="N86" s="22"/>
-      <c r="O86" s="22"/>
-      <c r="P86" s="22"/>
-      <c r="Q86" s="22"/>
-      <c r="R86" s="22"/>
+      <c r="D86" s="22">
+        <f t="shared" ref="D86:R86" si="11">C86</f>
+        <v>0</v>
+      </c>
+      <c r="E86" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F86" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G86" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H86" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I86" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K86" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L86" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M86" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N86" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O86" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P86" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q86" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R86" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S86" s="22"/>
       <c r="T86" s="22"/>
       <c r="U86" s="22"/>
@@ -6752,33 +7131,78 @@
       <c r="AF86" s="22"/>
       <c r="AG86" s="22"/>
       <c r="AH86" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="AI86" s="29"/>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:35">
       <c r="A87" s="18"/>
       <c r="B87" s="19" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="C87" s="22">
         <v>100</v>
       </c>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="22"/>
-      <c r="I87" s="22"/>
-      <c r="J87" s="22"/>
-      <c r="K87" s="22"/>
-      <c r="L87" s="22"/>
-      <c r="M87" s="22"/>
-      <c r="N87" s="22"/>
-      <c r="O87" s="22"/>
-      <c r="P87" s="22"/>
-      <c r="Q87" s="22"/>
-      <c r="R87" s="22"/>
+      <c r="D87" s="22">
+        <f t="shared" ref="D87:R87" si="12">C87</f>
+        <v>100</v>
+      </c>
+      <c r="E87" s="22">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="F87" s="22">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="G87" s="22">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="H87" s="22">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="I87" s="22">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="J87" s="22">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="K87" s="22">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="L87" s="22">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="M87" s="22">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="N87" s="22">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="O87" s="22">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="P87" s="22">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="Q87" s="22">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="R87" s="22">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
       <c r="S87" s="22"/>
       <c r="T87" s="22"/>
       <c r="U87" s="22"/>
@@ -6795,30 +7219,77 @@
       <c r="AF87" s="22"/>
       <c r="AG87" s="22"/>
       <c r="AH87" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="AI87" s="29"/>
     </row>
-    <row r="88" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:35" s="18" customFormat="1">
       <c r="B88" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="22"/>
-      <c r="J88" s="22"/>
-      <c r="K88" s="22"/>
-      <c r="L88" s="22"/>
-      <c r="M88" s="22"/>
-      <c r="N88" s="22"/>
-      <c r="O88" s="22"/>
-      <c r="P88" s="22"/>
-      <c r="Q88" s="22"/>
-      <c r="R88" s="22"/>
+        <v>120</v>
+      </c>
+      <c r="C88" s="22">
+        <v>100</v>
+      </c>
+      <c r="D88" s="22">
+        <f t="shared" ref="D88:R88" si="13">C88</f>
+        <v>100</v>
+      </c>
+      <c r="E88" s="22">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="F88" s="22">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="G88" s="22">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="H88" s="22">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="I88" s="22">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="J88" s="22">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="K88" s="22">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="L88" s="22">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="M88" s="22">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="N88" s="22">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="O88" s="22">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="P88" s="22">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="Q88" s="22">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="R88" s="22">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
       <c r="S88" s="22"/>
       <c r="T88" s="22"/>
       <c r="U88" s="22"/>
@@ -6835,33 +7306,78 @@
       <c r="AF88" s="22"/>
       <c r="AG88" s="22"/>
       <c r="AH88" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="AI88" s="29"/>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:35">
       <c r="A89" s="18"/>
       <c r="B89" s="19" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C89" s="22">
-        <v>100</v>
-      </c>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="22"/>
-      <c r="I89" s="22"/>
-      <c r="J89" s="22"/>
-      <c r="K89" s="22"/>
-      <c r="L89" s="22"/>
-      <c r="M89" s="22"/>
-      <c r="N89" s="22"/>
-      <c r="O89" s="22"/>
-      <c r="P89" s="22"/>
-      <c r="Q89" s="22"/>
-      <c r="R89" s="22"/>
+        <v>1000</v>
+      </c>
+      <c r="D89" s="22">
+        <f t="shared" ref="D89:R89" si="14">C89</f>
+        <v>1000</v>
+      </c>
+      <c r="E89" s="22">
+        <f t="shared" si="14"/>
+        <v>1000</v>
+      </c>
+      <c r="F89" s="22">
+        <f t="shared" si="14"/>
+        <v>1000</v>
+      </c>
+      <c r="G89" s="22">
+        <f t="shared" si="14"/>
+        <v>1000</v>
+      </c>
+      <c r="H89" s="22">
+        <f t="shared" si="14"/>
+        <v>1000</v>
+      </c>
+      <c r="I89" s="22">
+        <f t="shared" si="14"/>
+        <v>1000</v>
+      </c>
+      <c r="J89" s="22">
+        <f t="shared" si="14"/>
+        <v>1000</v>
+      </c>
+      <c r="K89" s="22">
+        <f t="shared" si="14"/>
+        <v>1000</v>
+      </c>
+      <c r="L89" s="22">
+        <f t="shared" si="14"/>
+        <v>1000</v>
+      </c>
+      <c r="M89" s="22">
+        <f t="shared" si="14"/>
+        <v>1000</v>
+      </c>
+      <c r="N89" s="22">
+        <f t="shared" si="14"/>
+        <v>1000</v>
+      </c>
+      <c r="O89" s="22">
+        <f t="shared" si="14"/>
+        <v>1000</v>
+      </c>
+      <c r="P89" s="22">
+        <f t="shared" si="14"/>
+        <v>1000</v>
+      </c>
+      <c r="Q89" s="22">
+        <f t="shared" si="14"/>
+        <v>1000</v>
+      </c>
+      <c r="R89" s="22">
+        <f t="shared" si="14"/>
+        <v>1000</v>
+      </c>
       <c r="S89" s="22"/>
       <c r="T89" s="22"/>
       <c r="U89" s="22"/>
@@ -6878,33 +7394,78 @@
       <c r="AF89" s="22"/>
       <c r="AG89" s="22"/>
       <c r="AH89" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="AI89" s="29"/>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:35">
       <c r="A90" s="18"/>
       <c r="B90" s="19" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="C90" s="22">
-        <v>1000</v>
-      </c>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="22"/>
-      <c r="I90" s="22"/>
-      <c r="J90" s="22"/>
-      <c r="K90" s="22"/>
-      <c r="L90" s="22"/>
-      <c r="M90" s="22"/>
-      <c r="N90" s="22"/>
-      <c r="O90" s="22"/>
-      <c r="P90" s="22"/>
-      <c r="Q90" s="22"/>
-      <c r="R90" s="22"/>
+        <v>10000</v>
+      </c>
+      <c r="D90" s="22">
+        <f t="shared" ref="D90:R90" si="15">C90</f>
+        <v>10000</v>
+      </c>
+      <c r="E90" s="22">
+        <f t="shared" si="15"/>
+        <v>10000</v>
+      </c>
+      <c r="F90" s="22">
+        <f t="shared" si="15"/>
+        <v>10000</v>
+      </c>
+      <c r="G90" s="22">
+        <f t="shared" si="15"/>
+        <v>10000</v>
+      </c>
+      <c r="H90" s="22">
+        <f t="shared" si="15"/>
+        <v>10000</v>
+      </c>
+      <c r="I90" s="22">
+        <f t="shared" si="15"/>
+        <v>10000</v>
+      </c>
+      <c r="J90" s="22">
+        <f t="shared" si="15"/>
+        <v>10000</v>
+      </c>
+      <c r="K90" s="22">
+        <f t="shared" si="15"/>
+        <v>10000</v>
+      </c>
+      <c r="L90" s="22">
+        <f t="shared" si="15"/>
+        <v>10000</v>
+      </c>
+      <c r="M90" s="22">
+        <f t="shared" si="15"/>
+        <v>10000</v>
+      </c>
+      <c r="N90" s="22">
+        <f t="shared" si="15"/>
+        <v>10000</v>
+      </c>
+      <c r="O90" s="22">
+        <f t="shared" si="15"/>
+        <v>10000</v>
+      </c>
+      <c r="P90" s="22">
+        <f t="shared" si="15"/>
+        <v>10000</v>
+      </c>
+      <c r="Q90" s="22">
+        <f t="shared" si="15"/>
+        <v>10000</v>
+      </c>
+      <c r="R90" s="22">
+        <f t="shared" si="15"/>
+        <v>10000</v>
+      </c>
       <c r="S90" s="22"/>
       <c r="T90" s="22"/>
       <c r="U90" s="22"/>
@@ -6921,33 +7482,78 @@
       <c r="AF90" s="22"/>
       <c r="AG90" s="22"/>
       <c r="AH90" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="AI90" s="29"/>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:35">
       <c r="A91" s="18"/>
       <c r="B91" s="19" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="C91" s="22">
         <v>10000</v>
       </c>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="22"/>
-      <c r="I91" s="22"/>
-      <c r="J91" s="22"/>
-      <c r="K91" s="22"/>
-      <c r="L91" s="22"/>
-      <c r="M91" s="22"/>
-      <c r="N91" s="22"/>
-      <c r="O91" s="22"/>
-      <c r="P91" s="22"/>
-      <c r="Q91" s="22"/>
-      <c r="R91" s="22"/>
+      <c r="D91" s="22">
+        <f t="shared" ref="D91:R91" si="16">C91</f>
+        <v>10000</v>
+      </c>
+      <c r="E91" s="22">
+        <f t="shared" si="16"/>
+        <v>10000</v>
+      </c>
+      <c r="F91" s="22">
+        <f t="shared" si="16"/>
+        <v>10000</v>
+      </c>
+      <c r="G91" s="22">
+        <f t="shared" si="16"/>
+        <v>10000</v>
+      </c>
+      <c r="H91" s="22">
+        <f t="shared" si="16"/>
+        <v>10000</v>
+      </c>
+      <c r="I91" s="22">
+        <f t="shared" si="16"/>
+        <v>10000</v>
+      </c>
+      <c r="J91" s="22">
+        <f t="shared" si="16"/>
+        <v>10000</v>
+      </c>
+      <c r="K91" s="22">
+        <f t="shared" si="16"/>
+        <v>10000</v>
+      </c>
+      <c r="L91" s="22">
+        <f t="shared" si="16"/>
+        <v>10000</v>
+      </c>
+      <c r="M91" s="22">
+        <f t="shared" si="16"/>
+        <v>10000</v>
+      </c>
+      <c r="N91" s="22">
+        <f t="shared" si="16"/>
+        <v>10000</v>
+      </c>
+      <c r="O91" s="22">
+        <f t="shared" si="16"/>
+        <v>10000</v>
+      </c>
+      <c r="P91" s="22">
+        <f t="shared" si="16"/>
+        <v>10000</v>
+      </c>
+      <c r="Q91" s="22">
+        <f t="shared" si="16"/>
+        <v>10000</v>
+      </c>
+      <c r="R91" s="22">
+        <f t="shared" si="16"/>
+        <v>10000</v>
+      </c>
       <c r="S91" s="22"/>
       <c r="T91" s="22"/>
       <c r="U91" s="22"/>
@@ -6964,11 +7570,12 @@
       <c r="AF91" s="22"/>
       <c r="AG91" s="22"/>
       <c r="AH91" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="AI91" s="29"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -6979,8 +7586,27 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:V22"/>
   <sheetViews>
@@ -6988,23 +7614,23 @@
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="18"/>
+    <col min="1" max="2" width="9.125" style="18"/>
     <col min="3" max="3" width="11" style="18" customWidth="1"/>
-    <col min="4" max="13" width="9.140625" style="18"/>
-    <col min="14" max="14" width="9.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="9.140625" style="18"/>
-    <col min="21" max="21" width="15.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="18"/>
+    <col min="4" max="13" width="9.125" style="18"/>
+    <col min="14" max="14" width="9.875" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="9.125" style="18"/>
+    <col min="21" max="21" width="15.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" s="19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="D2" s="19">
         <v>2000</v>
       </c>
@@ -7054,16 +7680,16 @@
         <v>2015</v>
       </c>
       <c r="U2" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="B3" s="4" t="str">
         <f>'Populations &amp; programs'!$C$14</f>
         <v>SBCC</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="25">
@@ -7096,17 +7722,17 @@
       <c r="R3" s="22"/>
       <c r="S3" s="22"/>
       <c r="T3" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U3" s="25"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="B4" s="4" t="str">
         <f>'Populations &amp; programs'!$C$14</f>
         <v>SBCC</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="27">
@@ -7146,20 +7772,20 @@
       <c r="R4" s="24"/>
       <c r="S4" s="24"/>
       <c r="T4" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U4" s="37"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="B6" s="4" t="str">
         <f>'Populations &amp; programs'!$C$15</f>
         <v>NSP</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="25"/>
@@ -7178,19 +7804,19 @@
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
       <c r="T6" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U6" s="25">
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="B7" s="4" t="str">
         <f>'Populations &amp; programs'!$C$15</f>
         <v>NSP</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="23"/>
@@ -7209,22 +7835,22 @@
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
       <c r="T7" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U7" s="47">
         <v>25000</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="B9" s="4" t="str">
         <f>'Populations &amp; programs'!$C$16</f>
         <v>OST</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="25"/>
@@ -7245,18 +7871,18 @@
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
       <c r="T9" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U9" s="25"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" s="6"/>
       <c r="B10" s="4" t="str">
         <f>'Populations &amp; programs'!$C$16</f>
         <v>OST</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="23"/>
@@ -7278,22 +7904,22 @@
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
       <c r="T10" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U10" s="37"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" s="6"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="6"/>
       <c r="B12" s="4" t="str">
         <f>'Populations &amp; programs'!$C$17</f>
         <v>MSM programs</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="25"/>
@@ -7314,18 +7940,18 @@
       <c r="R12" s="22"/>
       <c r="S12" s="22"/>
       <c r="T12" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U12" s="25"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="B13" s="4" t="str">
         <f>'Populations &amp; programs'!$C$17</f>
         <v>MSM programs</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="23"/>
@@ -7346,17 +7972,17 @@
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
       <c r="T13" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U13" s="37"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="B15" s="4" t="str">
         <f>'Populations &amp; programs'!$C$18</f>
         <v>FSW programs</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="25"/>
@@ -7377,17 +8003,17 @@
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
       <c r="T15" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U15" s="25"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="B16" s="4" t="str">
         <f>'Populations &amp; programs'!$C$18</f>
         <v>FSW programs</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
@@ -7408,17 +8034,17 @@
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
       <c r="T16" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U16" s="37"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21">
       <c r="B18" s="4" t="str">
         <f>'Populations &amp; programs'!$C$19</f>
         <v>ART</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="25"/>
@@ -7439,17 +8065,17 @@
       <c r="R18" s="22"/>
       <c r="S18" s="22"/>
       <c r="T18" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U18" s="25"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21">
       <c r="B19" s="4" t="str">
         <f>'Populations &amp; programs'!$C$19</f>
         <v>ART</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="23"/>
@@ -7471,17 +8097,17 @@
       <c r="R19" s="22"/>
       <c r="S19" s="22"/>
       <c r="T19" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U19" s="37"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21">
       <c r="B21" s="4" t="str">
         <f>'Populations &amp; programs'!$C$20</f>
         <v>PMTCT</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="25"/>
@@ -7502,17 +8128,17 @@
       <c r="R21" s="22"/>
       <c r="S21" s="22"/>
       <c r="T21" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U21" s="25"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21">
       <c r="B22" s="4" t="str">
         <f>'Populations &amp; programs'!$C$20</f>
         <v>PMTCT</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
@@ -7534,14 +8160,14 @@
       <c r="R22" s="22"/>
       <c r="S22" s="22"/>
       <c r="T22" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U22" s="37"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7551,7 +8177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:U53"/>
   <sheetViews>
@@ -7559,22 +8185,22 @@
       <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="18"/>
-    <col min="4" max="4" width="9.42578125" style="18" customWidth="1"/>
-    <col min="5" max="20" width="9.140625" style="18"/>
-    <col min="21" max="21" width="15.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.85546875" style="18" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="3" width="9.125" style="18"/>
+    <col min="4" max="4" width="9.5" style="18" customWidth="1"/>
+    <col min="5" max="20" width="9.125" style="18"/>
+    <col min="21" max="21" width="15.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.875" style="18" customWidth="1"/>
+    <col min="23" max="16384" width="9.125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="D2" s="19">
         <v>2000</v>
       </c>
@@ -7624,16 +8250,16 @@
         <v>2015</v>
       </c>
       <c r="U2" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="B3" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
@@ -7652,19 +8278,19 @@
       <c r="R3" s="27"/>
       <c r="S3" s="27"/>
       <c r="T3" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U3" s="27">
         <v>37500</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="B4" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
@@ -7683,19 +8309,19 @@
       <c r="R4" s="27"/>
       <c r="S4" s="27"/>
       <c r="T4" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U4" s="27">
         <v>21000</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="B5" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -7714,24 +8340,24 @@
       <c r="R5" s="27"/>
       <c r="S5" s="27"/>
       <c r="T5" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U5" s="27">
         <v>11000</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="U6" s="28"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="B7" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -7750,17 +8376,17 @@
       <c r="R7" s="27"/>
       <c r="S7" s="27"/>
       <c r="T7" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U7" s="27"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="B8" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
@@ -7779,19 +8405,19 @@
       <c r="R8" s="27"/>
       <c r="S8" s="27"/>
       <c r="T8" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U8" s="27">
         <v>15000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="B9" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
@@ -7810,11 +8436,11 @@
       <c r="R9" s="27"/>
       <c r="S9" s="27"/>
       <c r="T9" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U9" s="27"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="28"/>
@@ -7835,13 +8461,13 @@
       <c r="S10" s="28"/>
       <c r="U10" s="28"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="B11" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
@@ -7870,17 +8496,17 @@
       <c r="R11" s="27"/>
       <c r="S11" s="27"/>
       <c r="T11" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U11" s="27"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="B12" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
@@ -7909,17 +8535,17 @@
       <c r="R12" s="27"/>
       <c r="S12" s="27"/>
       <c r="T12" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U12" s="27"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="B13" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
@@ -7948,11 +8574,11 @@
       <c r="R13" s="27"/>
       <c r="S13" s="27"/>
       <c r="T13" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U13" s="27"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="28"/>
@@ -7973,13 +8599,13 @@
       <c r="S14" s="28"/>
       <c r="U14" s="28"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21">
       <c r="B15" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
@@ -7998,17 +8624,17 @@
       <c r="R15" s="27"/>
       <c r="S15" s="27"/>
       <c r="T15" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U15" s="27"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21">
       <c r="B16" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D16" s="22">
         <v>4227500</v>
@@ -8059,17 +8685,17 @@
         <v>6118320.6906761518</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U16" s="27"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21">
       <c r="B17" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
@@ -8088,11 +8714,11 @@
       <c r="R17" s="27"/>
       <c r="S17" s="27"/>
       <c r="T17" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U17" s="27"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="28"/>
@@ -8113,13 +8739,13 @@
       <c r="S18" s="28"/>
       <c r="U18" s="28"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21">
       <c r="B19" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
@@ -8138,17 +8764,17 @@
       <c r="R19" s="27"/>
       <c r="S19" s="27"/>
       <c r="T19" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U19" s="27"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21">
       <c r="B20" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D20" s="22">
         <v>4759641.7668505535</v>
@@ -8199,17 +8825,17 @@
         <v>7061706.1901886221</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U20" s="27"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21">
       <c r="B21" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
@@ -8228,11 +8854,11 @@
       <c r="R21" s="27"/>
       <c r="S21" s="27"/>
       <c r="T21" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U21" s="27"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="28"/>
@@ -8253,13 +8879,13 @@
       <c r="S22" s="28"/>
       <c r="U22" s="28"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21">
       <c r="B23" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
@@ -8278,17 +8904,17 @@
       <c r="R23" s="27"/>
       <c r="S23" s="27"/>
       <c r="T23" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U23" s="27"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21">
       <c r="B24" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D24" s="22">
         <v>522500</v>
@@ -8339,17 +8965,17 @@
         <v>756196.93929705245</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U24" s="27"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21">
       <c r="B25" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
@@ -8368,16 +8994,16 @@
       <c r="R25" s="27"/>
       <c r="S25" s="27"/>
       <c r="T25" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U25" s="27"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21">
       <c r="A29" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="D30" s="19">
         <v>2000</v>
       </c>
@@ -8427,16 +9053,16 @@
         <v>2015</v>
       </c>
       <c r="U30" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="B31" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
@@ -8457,17 +9083,17 @@
       <c r="R31" s="22"/>
       <c r="S31" s="22"/>
       <c r="T31" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U31" s="26"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21">
       <c r="B32" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
@@ -8488,17 +9114,17 @@
       <c r="R32" s="22"/>
       <c r="S32" s="22"/>
       <c r="T32" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U32" s="26"/>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:21">
       <c r="B33" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -8519,21 +9145,21 @@
       <c r="R33" s="22"/>
       <c r="S33" s="22"/>
       <c r="T33" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U33" s="26"/>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:21">
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:21">
       <c r="B35" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -8558,17 +9184,17 @@
       <c r="R35" s="22"/>
       <c r="S35" s="22"/>
       <c r="T35" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U35" s="26"/>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:21">
       <c r="B36" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
@@ -8593,17 +9219,17 @@
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
       <c r="T36" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U36" s="26"/>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:21">
       <c r="B37" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
@@ -8628,21 +9254,21 @@
       <c r="R37" s="22"/>
       <c r="S37" s="22"/>
       <c r="T37" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U37" s="26"/>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:21">
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:21">
       <c r="B39" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
@@ -8667,17 +9293,17 @@
       <c r="R39" s="22"/>
       <c r="S39" s="22"/>
       <c r="T39" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U39" s="26"/>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:21">
       <c r="B40" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
@@ -8702,17 +9328,17 @@
       <c r="R40" s="22"/>
       <c r="S40" s="22"/>
       <c r="T40" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U40" s="26"/>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:21">
       <c r="B41" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
@@ -8737,21 +9363,21 @@
       <c r="R41" s="22"/>
       <c r="S41" s="22"/>
       <c r="T41" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U41" s="26"/>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:21">
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:21">
       <c r="B43" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
@@ -8770,17 +9396,17 @@
       <c r="R43" s="22"/>
       <c r="S43" s="22"/>
       <c r="T43" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U43" s="26"/>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:21">
       <c r="B44" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
@@ -8799,19 +9425,19 @@
       <c r="R44" s="22"/>
       <c r="S44" s="22"/>
       <c r="T44" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U44" s="26">
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:21">
       <c r="B45" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
@@ -8830,21 +9456,21 @@
       <c r="R45" s="22"/>
       <c r="S45" s="22"/>
       <c r="T45" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U45" s="26"/>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:21">
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:21">
       <c r="B47" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="D47" s="22"/>
       <c r="E47" s="22"/>
@@ -8863,17 +9489,17 @@
       <c r="R47" s="22"/>
       <c r="S47" s="22"/>
       <c r="T47" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U47" s="26"/>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:21">
       <c r="B48" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
@@ -8900,17 +9526,17 @@
       <c r="R48" s="22"/>
       <c r="S48" s="22"/>
       <c r="T48" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U48" s="26"/>
     </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:21">
       <c r="B49" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
@@ -8929,21 +9555,21 @@
       <c r="R49" s="22"/>
       <c r="S49" s="22"/>
       <c r="T49" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U49" s="26"/>
     </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:21">
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
     </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:21">
       <c r="B51" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
@@ -8962,17 +9588,17 @@
       <c r="R51" s="22"/>
       <c r="S51" s="22"/>
       <c r="T51" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U51" s="26"/>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:21">
       <c r="B52" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
@@ -8991,19 +9617,19 @@
       <c r="R52" s="22"/>
       <c r="S52" s="22"/>
       <c r="T52" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U52" s="26">
         <v>0.01</v>
       </c>
     </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:21">
       <c r="B53" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
@@ -9022,11 +9648,12 @@
       <c r="R53" s="22"/>
       <c r="S53" s="22"/>
       <c r="T53" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="U53" s="26"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -9038,21 +9665,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="8.5703125" style="6"/>
-    <col min="20" max="20" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="6"/>
+    <col min="20" max="20" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -9073,7 +9700,7 @@
       <c r="S1" s="9"/>
       <c r="T1" s="9"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="9"/>
       <c r="C2" s="10">
         <v>2000</v>
@@ -9125,13 +9752,13 @@
       </c>
       <c r="S2" s="9"/>
       <c r="T2" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="9"/>
       <c r="B3" s="4" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
@@ -9150,19 +9777,19 @@
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
       <c r="S3" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T3" s="22"/>
     </row>
-    <row r="5" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="18" customFormat="1">
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="18" customFormat="1">
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" s="10" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -9183,7 +9810,7 @@
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" s="9"/>
       <c r="C8" s="10">
         <v>2000</v>
@@ -9235,13 +9862,13 @@
       </c>
       <c r="S8" s="9"/>
       <c r="T8" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="9"/>
       <c r="B9" s="4" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -9284,19 +9911,19 @@
       <c r="Q9" s="22"/>
       <c r="R9" s="22"/>
       <c r="S9" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T9" s="22"/>
     </row>
-    <row r="11" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="18" customFormat="1">
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="18" customFormat="1">
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="10" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -9317,7 +9944,7 @@
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14" s="9"/>
       <c r="C14" s="10">
         <v>2000</v>
@@ -9369,13 +9996,13 @@
       </c>
       <c r="S14" s="9"/>
       <c r="T14" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="9"/>
       <c r="B15" s="4" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
@@ -9394,23 +10021,23 @@
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
       <c r="S15" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T15" s="22"/>
     </row>
-    <row r="17" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="18" customFormat="1">
       <c r="B17" s="6"/>
     </row>
-    <row r="18" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="18" customFormat="1">
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="18" customFormat="1">
       <c r="A19" s="19" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="B19" s="6"/>
     </row>
-    <row r="20" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="18" customFormat="1">
       <c r="B20" s="6"/>
       <c r="C20" s="19">
         <v>2000</v>
@@ -9461,12 +10088,12 @@
         <v>2015</v>
       </c>
       <c r="T20" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="18" customFormat="1">
       <c r="B21" s="4" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -9485,22 +10112,22 @@
       <c r="Q21" s="22"/>
       <c r="R21" s="22"/>
       <c r="S21" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T21" s="22"/>
     </row>
-    <row r="22" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="18" customFormat="1">
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="18" customFormat="1">
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" s="18" customFormat="1">
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25" s="10" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -9521,7 +10148,7 @@
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20">
       <c r="A26" s="9"/>
       <c r="C26" s="10">
         <v>2000</v>
@@ -9573,13 +10200,13 @@
       </c>
       <c r="S26" s="9"/>
       <c r="T26" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="9"/>
       <c r="B27" s="4" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -9598,17 +10225,17 @@
       <c r="Q27" s="22"/>
       <c r="R27" s="22"/>
       <c r="S27" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T27" s="22"/>
     </row>
-    <row r="31" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" s="18" customFormat="1">
       <c r="A31" s="19" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B31" s="6"/>
     </row>
-    <row r="32" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" s="18" customFormat="1">
       <c r="B32" s="6"/>
       <c r="C32" s="19">
         <v>2000</v>
@@ -9659,12 +10286,12 @@
         <v>2015</v>
       </c>
       <c r="T32" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" s="18" customFormat="1">
       <c r="B33" s="4" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
@@ -9683,11 +10310,12 @@
       <c r="Q33" s="22"/>
       <c r="R33" s="22"/>
       <c r="S33" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T33" s="22"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -9699,24 +10327,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="8.5703125" style="6"/>
+    <col min="2" max="2" width="8.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="18" customFormat="1">
       <c r="A1" s="19" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="18" customFormat="1">
       <c r="B2" s="6"/>
       <c r="C2" s="19">
         <v>2000</v>
@@ -9767,10 +10395,10 @@
         <v>2015</v>
       </c>
       <c r="T2" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="18" customFormat="1">
       <c r="B3" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -9792,13 +10420,13 @@
       <c r="Q3" s="25"/>
       <c r="R3" s="25"/>
       <c r="S3" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T3" s="25">
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="18" customFormat="1">
       <c r="B4" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -9820,13 +10448,13 @@
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
       <c r="S4" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T4" s="25">
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="18" customFormat="1">
       <c r="B5" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
@@ -9848,13 +10476,13 @@
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
       <c r="S5" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T5" s="25">
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="18" customFormat="1">
       <c r="B6" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
@@ -9876,13 +10504,13 @@
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
       <c r="S6" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T6" s="25">
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="18" customFormat="1">
       <c r="B7" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
@@ -9904,13 +10532,13 @@
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="S7" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T7" s="25">
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="18" customFormat="1">
       <c r="B8" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
@@ -9932,24 +10560,24 @@
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T8" s="25">
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="18" customFormat="1">
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="18" customFormat="1">
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="18" customFormat="1">
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" s="8" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -9970,7 +10598,7 @@
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="7"/>
       <c r="C13" s="8">
         <v>2000</v>
@@ -10022,10 +10650,10 @@
       </c>
       <c r="S13" s="7"/>
       <c r="T13" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="7"/>
       <c r="B14" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -10048,13 +10676,13 @@
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
       <c r="S14" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T14" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" s="7"/>
       <c r="B15" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -10077,13 +10705,13 @@
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
       <c r="S15" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T15" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16" s="7"/>
       <c r="B16" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -10106,13 +10734,13 @@
       <c r="Q16" s="22"/>
       <c r="R16" s="22"/>
       <c r="S16" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T16" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20">
       <c r="A17" s="7"/>
       <c r="B17" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -10135,13 +10763,13 @@
       <c r="Q17" s="22"/>
       <c r="R17" s="22"/>
       <c r="S17" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T17" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18" s="7"/>
       <c r="B18" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -10164,13 +10792,13 @@
       <c r="Q18" s="22"/>
       <c r="R18" s="22"/>
       <c r="S18" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T18" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -10193,26 +10821,26 @@
       <c r="Q19" s="22"/>
       <c r="R19" s="22"/>
       <c r="S19" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T19" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20">
       <c r="S20" s="5"/>
     </row>
-    <row r="21" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="18" customFormat="1">
       <c r="B21" s="6"/>
       <c r="S21" s="5"/>
     </row>
-    <row r="22" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="18" customFormat="1">
       <c r="B22" s="6"/>
       <c r="S22" s="5"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20">
       <c r="A23" s="8" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -10233,7 +10861,7 @@
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="A24" s="7"/>
       <c r="C24" s="8">
         <v>2000</v>
@@ -10285,10 +10913,10 @@
       </c>
       <c r="S24" s="7"/>
       <c r="T24" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="7"/>
       <c r="B25" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -10311,13 +10939,13 @@
       <c r="Q25" s="22"/>
       <c r="R25" s="22"/>
       <c r="S25" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T25" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20">
       <c r="B26" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -10339,13 +10967,13 @@
       <c r="Q26" s="22"/>
       <c r="R26" s="22"/>
       <c r="S26" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T26" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20">
       <c r="B27" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
@@ -10367,13 +10995,13 @@
       <c r="Q27" s="22"/>
       <c r="R27" s="22"/>
       <c r="S27" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T27" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20">
       <c r="B28" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
@@ -10395,13 +11023,13 @@
       <c r="Q28" s="22"/>
       <c r="R28" s="22"/>
       <c r="S28" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T28" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20">
       <c r="B29" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
@@ -10423,13 +11051,13 @@
       <c r="Q29" s="22"/>
       <c r="R29" s="22"/>
       <c r="S29" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T29" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20">
       <c r="B30" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
@@ -10451,16 +11079,17 @@
       <c r="Q30" s="22"/>
       <c r="R30" s="22"/>
       <c r="S30" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T30" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20">
       <c r="S31" s="5"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -10472,21 +11101,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="8.5703125" style="6"/>
-    <col min="20" max="20" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="6"/>
+    <col min="20" max="20" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="10" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -10507,7 +11136,7 @@
       <c r="S1" s="9"/>
       <c r="T1" s="9"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="9"/>
       <c r="C2" s="10">
         <v>2000</v>
@@ -10559,10 +11188,10 @@
       </c>
       <c r="S2" s="9"/>
       <c r="T2" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="9"/>
       <c r="B3" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -10585,13 +11214,13 @@
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
       <c r="S3" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T3" s="25">
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" s="9"/>
       <c r="B4" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -10618,11 +11247,11 @@
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
       <c r="S4" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T4" s="25"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" s="9"/>
       <c r="B5" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -10651,11 +11280,11 @@
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
       <c r="S5" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T5" s="22"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" s="9"/>
       <c r="B6" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -10678,13 +11307,13 @@
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
       <c r="S6" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T6" s="25">
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" s="9"/>
       <c r="B7" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -10707,13 +11336,13 @@
       <c r="Q7" s="25"/>
       <c r="R7" s="22"/>
       <c r="S7" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T7" s="25">
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" s="9"/>
       <c r="B8" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -10736,21 +11365,21 @@
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T8" s="25">
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="18" customFormat="1">
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="18" customFormat="1">
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" s="10" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -10771,7 +11400,7 @@
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="9"/>
       <c r="C13" s="10">
         <v>2000</v>
@@ -10823,13 +11452,13 @@
       </c>
       <c r="S13" s="9"/>
       <c r="T13" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="9"/>
       <c r="B14" s="4" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
@@ -10848,21 +11477,21 @@
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
       <c r="S14" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T14" s="25">
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="18" customFormat="1">
       <c r="B16" s="6"/>
     </row>
-    <row r="17" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="18" customFormat="1">
       <c r="B17" s="6"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18" s="10" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -10883,7 +11512,7 @@
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" s="9"/>
       <c r="C19" s="10">
         <v>2000</v>
@@ -10935,13 +11564,13 @@
       </c>
       <c r="S19" s="9"/>
       <c r="T19" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="9"/>
       <c r="B20" s="4" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C20" s="22">
         <v>0</v>
@@ -10988,19 +11617,19 @@
       <c r="Q20" s="22"/>
       <c r="R20" s="22"/>
       <c r="S20" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T20" s="22"/>
     </row>
-    <row r="21" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="18" customFormat="1">
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="18" customFormat="1">
       <c r="B22" s="6"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="A24" s="10" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -11021,7 +11650,7 @@
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25" s="9"/>
       <c r="C25" s="10">
         <v>2000</v>
@@ -11073,13 +11702,13 @@
       </c>
       <c r="S25" s="9"/>
       <c r="T25" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="9"/>
       <c r="B26" s="4" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C26" s="22">
         <v>0</v>
@@ -11126,26 +11755,26 @@
       <c r="Q26" s="22"/>
       <c r="R26" s="22"/>
       <c r="S26" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T26" s="22"/>
     </row>
-    <row r="27" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" s="18" customFormat="1">
       <c r="B27" s="6"/>
     </row>
-    <row r="28" spans="1:20" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" s="18" customFormat="1" ht="14.25" customHeight="1">
       <c r="B28" s="6"/>
     </row>
-    <row r="29" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" s="18" customFormat="1">
       <c r="B29" s="6"/>
     </row>
-    <row r="30" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" s="18" customFormat="1">
       <c r="A30" s="19" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="B30" s="6"/>
     </row>
-    <row r="31" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" s="18" customFormat="1">
       <c r="B31" s="6"/>
       <c r="C31" s="19">
         <v>2000</v>
@@ -11196,12 +11825,12 @@
         <v>2015</v>
       </c>
       <c r="T31" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="18" customFormat="1">
       <c r="B32" s="4" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C32" s="22">
         <v>350</v>
@@ -11248,26 +11877,26 @@
       <c r="Q32" s="22"/>
       <c r="R32" s="22"/>
       <c r="S32" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T32" s="22"/>
     </row>
-    <row r="33" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" s="18" customFormat="1">
       <c r="B33" s="6"/>
     </row>
-    <row r="34" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" s="18" customFormat="1">
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" s="18" customFormat="1">
       <c r="B35" s="6"/>
     </row>
-    <row r="36" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" s="18" customFormat="1">
       <c r="A36" s="19" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B36" s="6"/>
     </row>
-    <row r="37" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" s="18" customFormat="1">
       <c r="B37" s="6"/>
       <c r="C37" s="19">
         <v>2000</v>
@@ -11318,10 +11947,10 @@
         <v>2015</v>
       </c>
       <c r="T37" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" s="18" customFormat="1">
       <c r="B38" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -11343,13 +11972,13 @@
       <c r="Q38" s="22"/>
       <c r="R38" s="22"/>
       <c r="S38" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T38" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" s="18" customFormat="1">
       <c r="B39" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -11371,13 +12000,13 @@
       <c r="Q39" s="22"/>
       <c r="R39" s="22"/>
       <c r="S39" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T39" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" s="18" customFormat="1">
       <c r="B40" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
@@ -11399,13 +12028,13 @@
       <c r="Q40" s="22"/>
       <c r="R40" s="22"/>
       <c r="S40" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T40" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" s="18" customFormat="1">
       <c r="B41" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
@@ -11427,13 +12056,13 @@
       <c r="Q41" s="22"/>
       <c r="R41" s="22"/>
       <c r="S41" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T41" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" s="18" customFormat="1">
       <c r="B42" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
@@ -11455,14 +12084,14 @@
       <c r="Q42" s="25"/>
       <c r="R42" s="22"/>
       <c r="S42" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T42" s="24">
         <f>2/50</f>
         <v>0.04</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" s="18" customFormat="1">
       <c r="B43" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
@@ -11484,24 +12113,24 @@
       <c r="Q43" s="22"/>
       <c r="R43" s="22"/>
       <c r="S43" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T43" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" s="18" customFormat="1">
       <c r="B44" s="6"/>
     </row>
-    <row r="45" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" s="18" customFormat="1">
       <c r="B45" s="6"/>
     </row>
-    <row r="46" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" s="18" customFormat="1">
       <c r="B46" s="6"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20">
       <c r="A47" s="10" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -11522,7 +12151,7 @@
       <c r="S47" s="9"/>
       <c r="T47" s="9"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20">
       <c r="A48" s="9"/>
       <c r="C48" s="10">
         <v>2000</v>
@@ -11574,13 +12203,13 @@
       </c>
       <c r="S48" s="9"/>
       <c r="T48" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" s="9"/>
       <c r="B49" s="4" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
@@ -11609,26 +12238,26 @@
       <c r="Q49" s="27"/>
       <c r="R49" s="27"/>
       <c r="S49" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T49" s="22"/>
     </row>
-    <row r="50" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" s="18" customFormat="1">
       <c r="B50" s="6"/>
     </row>
-    <row r="51" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" s="18" customFormat="1">
       <c r="B51" s="6"/>
     </row>
-    <row r="52" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" s="18" customFormat="1">
       <c r="B52" s="6"/>
     </row>
-    <row r="53" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" s="18" customFormat="1">
       <c r="A53" s="19" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="B53" s="6"/>
     </row>
-    <row r="54" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" s="18" customFormat="1">
       <c r="B54" s="6"/>
       <c r="C54" s="19">
         <v>2000</v>
@@ -11679,10 +12308,10 @@
         <v>2015</v>
       </c>
       <c r="T54" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" s="18" customFormat="1">
       <c r="B55" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -11704,13 +12333,13 @@
       <c r="Q55" s="22"/>
       <c r="R55" s="22"/>
       <c r="S55" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T55" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" s="18" customFormat="1">
       <c r="B56" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
@@ -11732,20 +12361,20 @@
       <c r="Q56" s="25"/>
       <c r="R56" s="22"/>
       <c r="S56" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T56" s="24">
         <f>2/50</f>
         <v>0.04</v>
       </c>
     </row>
-    <row r="60" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" s="18" customFormat="1">
       <c r="A60" s="19" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="B60" s="6"/>
     </row>
-    <row r="61" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" s="18" customFormat="1">
       <c r="B61" s="6"/>
       <c r="C61" s="19">
         <v>2000</v>
@@ -11796,12 +12425,12 @@
         <v>2015</v>
       </c>
       <c r="T61" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" s="18" customFormat="1">
       <c r="B62" s="4" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C62" s="22"/>
       <c r="D62" s="22"/>
@@ -11820,13 +12449,14 @@
       <c r="Q62" s="22"/>
       <c r="R62" s="22"/>
       <c r="S62" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T62" s="25">
         <v>0.3</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -11838,21 +12468,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:T83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="8.5703125" style="6"/>
-    <col min="20" max="20" width="14.42578125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="6"/>
+    <col min="20" max="20" width="14.5" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="12" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -11872,7 +12502,7 @@
       <c r="R1" s="11"/>
       <c r="S1" s="11"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="11"/>
       <c r="C2" s="12">
         <v>2000</v>
@@ -11924,10 +12554,10 @@
       </c>
       <c r="S2" s="11"/>
       <c r="T2" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="11"/>
       <c r="B3" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -11950,13 +12580,13 @@
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
       <c r="S3" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T3" s="33">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" s="11"/>
       <c r="B4" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -11979,13 +12609,13 @@
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
       <c r="S4" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T4" s="33">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" s="11"/>
       <c r="B5" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -12008,13 +12638,13 @@
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
       <c r="S5" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T5" s="33">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" s="11"/>
       <c r="B6" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -12037,13 +12667,13 @@
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
       <c r="S6" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T6" s="33">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" s="11"/>
       <c r="B7" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -12066,13 +12696,13 @@
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="S7" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T7" s="33">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" s="11"/>
       <c r="B8" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -12095,23 +12725,23 @@
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T8" s="33">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="18" customFormat="1">
       <c r="B10" s="6"/>
       <c r="T10" s="31"/>
     </row>
-    <row r="11" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="18" customFormat="1">
       <c r="B11" s="6"/>
       <c r="T11" s="31"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" s="12" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -12131,7 +12761,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="11"/>
       <c r="C13" s="12">
         <v>2000</v>
@@ -12183,10 +12813,10 @@
       </c>
       <c r="S13" s="11"/>
       <c r="T13" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="11"/>
       <c r="B14" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -12209,13 +12839,13 @@
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
       <c r="S14" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T14" s="29">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" s="11"/>
       <c r="B15" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -12238,13 +12868,13 @@
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
       <c r="S15" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T15" s="29">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16" s="11"/>
       <c r="B16" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -12267,13 +12897,13 @@
       <c r="Q16" s="22"/>
       <c r="R16" s="22"/>
       <c r="S16" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T16" s="29">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20">
       <c r="A17" s="11"/>
       <c r="B17" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -12296,13 +12926,13 @@
       <c r="Q17" s="22"/>
       <c r="R17" s="22"/>
       <c r="S17" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T17" s="29">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18" s="11"/>
       <c r="B18" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -12325,13 +12955,13 @@
       <c r="Q18" s="22"/>
       <c r="R18" s="22"/>
       <c r="S18" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T18" s="29">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" s="11"/>
       <c r="B19" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -12354,23 +12984,23 @@
       <c r="Q19" s="22"/>
       <c r="R19" s="22"/>
       <c r="S19" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T19" s="29">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="18" customFormat="1">
       <c r="B21" s="6"/>
       <c r="T21" s="31"/>
     </row>
-    <row r="22" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="18" customFormat="1">
       <c r="B22" s="6"/>
       <c r="T22" s="31"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20">
       <c r="A23" s="12" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -12390,7 +13020,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="A24" s="11"/>
       <c r="C24" s="12">
         <v>2000</v>
@@ -12442,10 +13072,10 @@
       </c>
       <c r="S24" s="11"/>
       <c r="T24" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="11"/>
       <c r="B25" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -12468,13 +13098,13 @@
       <c r="Q25" s="22"/>
       <c r="R25" s="22"/>
       <c r="S25" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T25" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20">
       <c r="A26" s="11"/>
       <c r="B26" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -12497,13 +13127,13 @@
       <c r="Q26" s="22"/>
       <c r="R26" s="22"/>
       <c r="S26" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T26" s="29">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20">
       <c r="A27" s="11"/>
       <c r="B27" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -12526,13 +13156,13 @@
       <c r="Q27" s="22"/>
       <c r="R27" s="22"/>
       <c r="S27" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T27" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20">
       <c r="A28" s="11"/>
       <c r="B28" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -12555,13 +13185,13 @@
       <c r="Q28" s="22"/>
       <c r="R28" s="22"/>
       <c r="S28" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T28" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20">
       <c r="A29" s="11"/>
       <c r="B29" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -12584,13 +13214,13 @@
       <c r="Q29" s="22"/>
       <c r="R29" s="22"/>
       <c r="S29" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T29" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20">
       <c r="A30" s="11"/>
       <c r="B30" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -12613,13 +13243,13 @@
       <c r="Q30" s="22"/>
       <c r="R30" s="22"/>
       <c r="S30" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T30" s="29">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20">
       <c r="C31" s="22"/>
       <c r="D31" s="25">
         <v>0.02</v>
@@ -12651,7 +13281,7 @@
       <c r="Q31" s="22"/>
       <c r="R31" s="22"/>
     </row>
-    <row r="32" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" s="18" customFormat="1">
       <c r="B32" s="6"/>
       <c r="C32" s="24"/>
       <c r="D32" s="27">
@@ -12692,19 +13322,19 @@
       <c r="R32" s="24"/>
       <c r="T32" s="31"/>
     </row>
-    <row r="33" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" s="18" customFormat="1">
       <c r="T33" s="31"/>
     </row>
-    <row r="34" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" s="18" customFormat="1">
       <c r="T34" s="31"/>
     </row>
-    <row r="35" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" s="18" customFormat="1">
       <c r="B35" s="6"/>
       <c r="T35" s="31"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20">
       <c r="A36" s="12" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -12724,7 +13354,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20">
       <c r="A37" s="11"/>
       <c r="C37" s="12">
         <v>2000</v>
@@ -12776,10 +13406,10 @@
       </c>
       <c r="S37" s="11"/>
       <c r="T37" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" s="11"/>
       <c r="B38" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -12802,13 +13432,13 @@
       <c r="Q38" s="22"/>
       <c r="R38" s="22"/>
       <c r="S38" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T38" s="30">
         <v>0.4</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20">
       <c r="A39" s="11"/>
       <c r="B39" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -12841,11 +13471,11 @@
       <c r="Q39" s="22"/>
       <c r="R39" s="22"/>
       <c r="S39" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T39" s="30"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20">
       <c r="A40" s="11"/>
       <c r="B40" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -12868,13 +13498,13 @@
       <c r="Q40" s="22"/>
       <c r="R40" s="22"/>
       <c r="S40" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T40" s="30">
         <v>0.05</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20">
       <c r="A41" s="11"/>
       <c r="B41" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -12897,13 +13527,13 @@
       <c r="Q41" s="22"/>
       <c r="R41" s="22"/>
       <c r="S41" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T41" s="30">
         <v>0.05</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20">
       <c r="A42" s="11"/>
       <c r="B42" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -12926,13 +13556,13 @@
       <c r="Q42" s="22"/>
       <c r="R42" s="22"/>
       <c r="S42" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T42" s="30">
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20">
       <c r="A43" s="11"/>
       <c r="B43" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -12955,23 +13585,23 @@
       <c r="Q43" s="22"/>
       <c r="R43" s="22"/>
       <c r="S43" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T43" s="30">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" s="18" customFormat="1">
       <c r="B45" s="6"/>
       <c r="T45" s="31"/>
     </row>
-    <row r="46" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" s="18" customFormat="1">
       <c r="B46" s="6"/>
       <c r="T46" s="31"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20">
       <c r="A47" s="19" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
@@ -12991,7 +13621,7 @@
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20">
       <c r="A48" s="11"/>
       <c r="C48" s="12">
         <v>2000</v>
@@ -13043,10 +13673,10 @@
       </c>
       <c r="S48" s="11"/>
       <c r="T48" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" s="11"/>
       <c r="B49" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -13069,13 +13699,13 @@
       <c r="Q49" s="22"/>
       <c r="R49" s="22"/>
       <c r="S49" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T49" s="30">
         <v>0.6</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20">
       <c r="A50" s="11"/>
       <c r="B50" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -13108,11 +13738,11 @@
       <c r="Q50" s="22"/>
       <c r="R50" s="22"/>
       <c r="S50" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T50" s="30"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20">
       <c r="A51" s="11"/>
       <c r="B51" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -13135,13 +13765,13 @@
       <c r="Q51" s="22"/>
       <c r="R51" s="22"/>
       <c r="S51" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T51" s="30">
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20">
       <c r="A52" s="11"/>
       <c r="B52" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -13170,11 +13800,11 @@
       <c r="Q52" s="22"/>
       <c r="R52" s="22"/>
       <c r="S52" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T52" s="30"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20">
       <c r="A53" s="11"/>
       <c r="B53" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -13203,11 +13833,11 @@
       <c r="Q53" s="22"/>
       <c r="R53" s="22"/>
       <c r="S53" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T53" s="30"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20">
       <c r="A54" s="11"/>
       <c r="B54" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -13230,23 +13860,23 @@
       <c r="Q54" s="22"/>
       <c r="R54" s="22"/>
       <c r="S54" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T54" s="30">
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" s="18" customFormat="1">
       <c r="B56" s="6"/>
       <c r="T56" s="31"/>
     </row>
-    <row r="57" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" s="18" customFormat="1">
       <c r="B57" s="6"/>
       <c r="T57" s="31"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20">
       <c r="A58" s="19" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -13266,7 +13896,7 @@
       <c r="R58" s="11"/>
       <c r="S58" s="11"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20">
       <c r="A59" s="11"/>
       <c r="C59" s="12">
         <v>2000</v>
@@ -13318,10 +13948,10 @@
       </c>
       <c r="S59" s="11"/>
       <c r="T59" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60" s="11"/>
       <c r="B60" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -13344,13 +13974,13 @@
       <c r="Q60" s="22"/>
       <c r="R60" s="22"/>
       <c r="S60" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T60" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20">
       <c r="A61" s="11"/>
       <c r="B61" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -13383,11 +14013,11 @@
       <c r="Q61" s="22"/>
       <c r="R61" s="22"/>
       <c r="S61" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T61" s="38"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20">
       <c r="A62" s="11"/>
       <c r="B62" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -13410,13 +14040,13 @@
       <c r="Q62" s="22"/>
       <c r="R62" s="22"/>
       <c r="S62" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T62" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20">
       <c r="A63" s="11"/>
       <c r="B63" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -13439,13 +14069,13 @@
       <c r="Q63" s="22"/>
       <c r="R63" s="22"/>
       <c r="S63" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T63" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20">
       <c r="A64" s="11"/>
       <c r="B64" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -13468,13 +14098,13 @@
       <c r="Q64" s="22"/>
       <c r="R64" s="22"/>
       <c r="S64" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T64" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20">
       <c r="A65" s="11"/>
       <c r="B65" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -13507,21 +14137,21 @@
       <c r="Q65" s="22"/>
       <c r="R65" s="22"/>
       <c r="S65" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T65" s="39"/>
     </row>
-    <row r="67" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" s="18" customFormat="1">
       <c r="B67" s="6"/>
       <c r="T67" s="31"/>
     </row>
-    <row r="68" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" s="18" customFormat="1">
       <c r="B68" s="6"/>
       <c r="T68" s="31"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20">
       <c r="A69" s="12" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
@@ -13541,7 +14171,7 @@
       <c r="R69" s="11"/>
       <c r="S69" s="11"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20">
       <c r="A70" s="11"/>
       <c r="C70" s="12">
         <v>2000</v>
@@ -13593,10 +14223,10 @@
       </c>
       <c r="S70" s="11"/>
       <c r="T70" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
       <c r="A71" s="11"/>
       <c r="B71" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -13619,13 +14249,13 @@
       <c r="Q71" s="22"/>
       <c r="R71" s="22"/>
       <c r="S71" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T71" s="50">
         <v>0.03</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20">
       <c r="A72" s="11"/>
       <c r="B72" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -13648,13 +14278,13 @@
       <c r="Q72" s="22"/>
       <c r="R72" s="22"/>
       <c r="S72" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T72" s="50">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20">
       <c r="A73" s="11"/>
       <c r="B73" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -13677,13 +14307,13 @@
       <c r="Q73" s="22"/>
       <c r="R73" s="22"/>
       <c r="S73" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T73" s="50">
         <v>0.03</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20">
       <c r="A74" s="11"/>
       <c r="B74" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -13706,32 +14336,32 @@
       <c r="Q74" s="22"/>
       <c r="R74" s="22"/>
       <c r="S74" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T74" s="50">
         <v>0.03</v>
       </c>
     </row>
-    <row r="75" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" s="18" customFormat="1">
       <c r="B75" s="6"/>
       <c r="T75" s="31"/>
     </row>
-    <row r="76" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" s="18" customFormat="1">
       <c r="B76" s="6"/>
       <c r="T76" s="31"/>
     </row>
-    <row r="77" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" s="18" customFormat="1">
       <c r="B77" s="6"/>
       <c r="T77" s="31"/>
     </row>
-    <row r="78" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" s="18" customFormat="1">
       <c r="A78" s="19" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B78" s="6"/>
       <c r="T78" s="31"/>
     </row>
-    <row r="79" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" s="18" customFormat="1">
       <c r="B79" s="6"/>
       <c r="C79" s="19">
         <v>2000</v>
@@ -13782,10 +14412,10 @@
         <v>2015</v>
       </c>
       <c r="T79" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" s="18" customFormat="1">
       <c r="B80" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -13807,13 +14437,13 @@
       <c r="Q80" s="22"/>
       <c r="R80" s="22"/>
       <c r="S80" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T80" s="51">
         <v>450</v>
       </c>
     </row>
-    <row r="81" spans="2:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:20" s="18" customFormat="1">
       <c r="B81" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
@@ -13835,13 +14465,13 @@
       <c r="Q81" s="22"/>
       <c r="R81" s="22"/>
       <c r="S81" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T81" s="51">
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="2:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:20" s="18" customFormat="1">
       <c r="B82" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
@@ -13863,13 +14493,13 @@
       <c r="Q82" s="22"/>
       <c r="R82" s="22"/>
       <c r="S82" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T82" s="51">
         <v>5000</v>
       </c>
     </row>
-    <row r="83" spans="2:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:20" s="18" customFormat="1">
       <c r="B83" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
@@ -13891,16 +14521,16 @@
       <c r="Q83" s="22"/>
       <c r="R83" s="22"/>
       <c r="S83" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T83" s="51">
         <v>500</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -13910,7 +14540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:T20"/>
   <sheetViews>
@@ -13918,15 +14548,15 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="14" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -13946,7 +14576,7 @@
       <c r="R1" s="13"/>
       <c r="S1" s="13"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="13"/>
       <c r="C2" s="14">
         <v>2000</v>
@@ -13998,10 +14628,10 @@
       </c>
       <c r="S2" s="13"/>
       <c r="T2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="13"/>
       <c r="B3" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -14024,13 +14654,13 @@
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
       <c r="S3" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T3" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" s="13"/>
       <c r="B4" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -14053,13 +14683,13 @@
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
       <c r="S4" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T4" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" s="13"/>
       <c r="B5" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -14082,13 +14712,13 @@
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
       <c r="S5" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T5" s="29">
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" s="13"/>
       <c r="B6" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -14111,13 +14741,13 @@
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
       <c r="S6" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T6" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" s="13"/>
       <c r="B7" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -14140,13 +14770,13 @@
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="S7" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T7" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" s="13"/>
       <c r="B8" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -14169,23 +14799,23 @@
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T8" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="18" customFormat="1">
       <c r="B10" s="6"/>
       <c r="T10" s="31"/>
     </row>
-    <row r="11" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="18" customFormat="1">
       <c r="B11" s="6"/>
       <c r="T11" s="31"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" s="19" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -14205,7 +14835,7 @@
       <c r="R12" s="13"/>
       <c r="S12" s="13"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="13"/>
       <c r="C13" s="14">
         <v>2000</v>
@@ -14257,13 +14887,13 @@
       </c>
       <c r="S13" s="13"/>
       <c r="T13" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="13"/>
       <c r="B14" s="43" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="25">
@@ -14290,21 +14920,21 @@
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
       <c r="S14" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T14" s="38"/>
     </row>
-    <row r="16" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="18" customFormat="1">
       <c r="B16" s="6"/>
       <c r="T16" s="31"/>
     </row>
-    <row r="17" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="18" customFormat="1">
       <c r="B17" s="6"/>
       <c r="T17" s="31"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18" s="14" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -14324,7 +14954,7 @@
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" s="13"/>
       <c r="C19" s="14">
         <v>2000</v>
@@ -14376,13 +15006,13 @@
       </c>
       <c r="S19" s="13"/>
       <c r="T19" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="13"/>
       <c r="B20" s="43" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="38">
@@ -14407,11 +15037,12 @@
       <c r="Q20" s="38"/>
       <c r="R20" s="38"/>
       <c r="S20" s="5" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="T20" s="38"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -14423,22 +15054,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="6.5703125" customWidth="1"/>
-    <col min="3" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="15" width="6.5703125" customWidth="1"/>
+    <col min="1" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="15" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -14465,7 +15096,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="A2" s="16"/>
       <c r="B2" s="35"/>
       <c r="C2" s="4" t="str">
@@ -14511,7 +15142,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="A3" s="15"/>
       <c r="B3" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -14544,7 +15175,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="A4" s="15"/>
       <c r="B4" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -14575,7 +15206,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="A5" s="15"/>
       <c r="B5" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -14610,7 +15241,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="A6" s="15"/>
       <c r="B6" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -14644,7 +15275,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="A7" s="15"/>
       <c r="B7" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -14675,7 +15306,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="A8" s="15"/>
       <c r="B8" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -14710,7 +15341,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -14738,11 +15369,11 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="18" customFormat="1"/>
+    <row r="11" spans="1:26" s="18" customFormat="1"/>
+    <row r="12" spans="1:26">
       <c r="A12" s="17" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -14770,7 +15401,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="A13" s="16"/>
       <c r="B13" s="35"/>
       <c r="C13" s="4" t="str">
@@ -14816,7 +15447,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="A14" s="15"/>
       <c r="B14" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -14849,7 +15480,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="A15" s="15"/>
       <c r="B15" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -14880,7 +15511,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="A16" s="15"/>
       <c r="B16" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -14915,7 +15546,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26">
       <c r="A17" s="15"/>
       <c r="B17" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -14950,7 +15581,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26">
       <c r="A18" s="15"/>
       <c r="B18" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -14981,7 +15612,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26">
       <c r="A19" s="15"/>
       <c r="B19" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -14998,7 +15629,7 @@
       </c>
       <c r="H19" s="34"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -15008,7 +15639,7 @@
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
     </row>
-    <row r="21" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" s="18" customFormat="1">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -15036,10 +15667,10 @@
       <c r="Y21" s="16"/>
       <c r="Z21" s="16"/>
     </row>
-    <row r="22" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" s="18" customFormat="1"/>
+    <row r="23" spans="1:26">
       <c r="A23" s="17" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -15049,7 +15680,7 @@
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26">
       <c r="A24" s="16"/>
       <c r="B24" s="35"/>
       <c r="C24" s="4" t="str">
@@ -15077,7 +15708,7 @@
         <v>Clients</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26">
       <c r="A25" s="15"/>
       <c r="B25" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -15090,7 +15721,7 @@
       <c r="G25" s="34"/>
       <c r="H25" s="34"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26">
       <c r="A26" s="15"/>
       <c r="B26" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -15103,7 +15734,7 @@
       <c r="G26" s="34"/>
       <c r="H26" s="34"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26">
       <c r="A27" s="15"/>
       <c r="B27" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -15116,7 +15747,7 @@
       <c r="G27" s="34"/>
       <c r="H27" s="34"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26">
       <c r="A28" s="15"/>
       <c r="B28" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -15129,7 +15760,7 @@
       <c r="G28" s="34"/>
       <c r="H28" s="34"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26">
       <c r="A29" s="15"/>
       <c r="B29" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -15142,7 +15773,7 @@
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26">
       <c r="A30" s="15"/>
       <c r="B30" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -15157,7 +15788,7 @@
       <c r="G30" s="34"/>
       <c r="H30" s="34"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -15167,7 +15798,7 @@
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
     </row>
-    <row r="32" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" s="18" customFormat="1">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -15195,10 +15826,10 @@
       <c r="Y32" s="16"/>
       <c r="Z32" s="16"/>
     </row>
-    <row r="33" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="18" customFormat="1"/>
+    <row r="34" spans="1:8">
       <c r="A34" s="17" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -15208,7 +15839,7 @@
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="16"/>
       <c r="B35" s="35"/>
       <c r="C35" s="4" t="str">
@@ -15236,7 +15867,7 @@
         <v>Clients</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="15"/>
       <c r="B36" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -15249,7 +15880,7 @@
       <c r="G36" s="34"/>
       <c r="H36" s="34"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="15"/>
       <c r="B37" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -15262,7 +15893,7 @@
       <c r="G37" s="34"/>
       <c r="H37" s="34"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="15"/>
       <c r="B38" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -15277,7 +15908,7 @@
       <c r="G38" s="34"/>
       <c r="H38" s="34"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="15"/>
       <c r="B39" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -15290,7 +15921,7 @@
       <c r="G39" s="34"/>
       <c r="H39" s="34"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="15"/>
       <c r="B40" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -15303,7 +15934,7 @@
       <c r="G40" s="34"/>
       <c r="H40" s="34"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="15"/>
       <c r="B41" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -15317,6 +15948,7 @@
       <c r="H41" s="34"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/server/src/static/example.xlsx
+++ b/server/src/static/example.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="14200" tabRatio="863" firstSheet="4" activeTab="11"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="21600" windowHeight="14205" tabRatio="863" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Populations &amp; programs" sheetId="12" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Economics and costs" sheetId="18" r:id="rId12"/>
     <sheet name="Sheet1" sheetId="21" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="130000" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -181,11 +181,11 @@
   </si>
   <si>
     <t>Percentage of people who receptively shared a needle at last injection</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Average</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Female sex workers</t>
@@ -198,11 +198,11 @@
   </si>
   <si>
     <t>Prevention of mother-to-child transmission</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Average</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Tuberculosis cofactor</t>
@@ -500,16 +500,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="3" tint="-0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -670,786 +676,786 @@
   </borders>
   <cellStyleXfs count="663">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="655" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="655" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="655"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="655" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="655"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="655" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="655"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="655" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="655"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="655" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="11" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="11" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="10" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="655" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="655" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -2423,7 +2429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K20"/>
   <sheetViews>
@@ -2431,25 +2437,25 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="20"/>
+    <col min="1" max="1" width="9.140625" style="20"/>
     <col min="2" max="2" width="5" style="20" customWidth="1"/>
     <col min="3" max="3" width="18" style="20" customWidth="1"/>
-    <col min="4" max="4" width="55.5" style="20" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="20" customWidth="1"/>
-    <col min="6" max="7" width="9.125" style="20"/>
-    <col min="8" max="9" width="14.125" style="20" customWidth="1"/>
-    <col min="10" max="10" width="12.125" style="20" customWidth="1"/>
-    <col min="11" max="16384" width="9.125" style="20"/>
+    <col min="4" max="4" width="55.42578125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="20" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="20"/>
+    <col min="8" max="9" width="14.140625" style="20" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="20" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C2" s="21" t="s">
         <v>142</v>
       </c>
@@ -2478,7 +2484,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="21">
         <v>1</v>
       </c>
@@ -2510,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="21">
         <v>2</v>
       </c>
@@ -2542,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="21">
         <v>3</v>
       </c>
@@ -2574,7 +2580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="21">
         <v>4</v>
       </c>
@@ -2606,7 +2612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="21">
         <v>5</v>
       </c>
@@ -2638,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="21">
         <v>6</v>
       </c>
@@ -2670,22 +2676,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="21"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="21"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>138</v>
       </c>
       <c r="B12" s="21"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="21"/>
       <c r="C13" s="21" t="s">
         <v>142</v>
@@ -2694,7 +2700,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="21">
         <v>1</v>
       </c>
@@ -2705,7 +2711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="21">
         <v>2</v>
       </c>
@@ -2716,7 +2722,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="21">
         <v>3</v>
       </c>
@@ -2727,7 +2733,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="21">
         <v>4</v>
       </c>
@@ -2738,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="21">
         <v>5</v>
       </c>
@@ -2749,7 +2755,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="21">
         <v>6</v>
       </c>
@@ -2760,7 +2766,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="21">
         <v>7</v>
       </c>
@@ -2772,8 +2778,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -2784,7 +2789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Z19"/>
   <sheetViews>
@@ -2792,13 +2797,13 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.5" style="6"/>
-    <col min="3" max="8" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="6"/>
+    <col min="3" max="8" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -2810,7 +2815,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:26" s="6" customFormat="1">
+    <row r="2" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="4" t="str">
@@ -2838,7 +2843,7 @@
         <v>Clients</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -2850,7 +2855,7 @@
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -2862,7 +2867,7 @@
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
@@ -2874,7 +2879,7 @@
       <c r="G5" s="24"/>
       <c r="H5" s="24"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
@@ -2886,7 +2891,7 @@
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
@@ -2898,7 +2903,7 @@
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
@@ -2910,7 +2915,7 @@
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
     </row>
-    <row r="9" spans="1:26" s="18" customFormat="1">
+    <row r="9" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="35"/>
       <c r="C9" s="16"/>
@@ -2938,10 +2943,10 @@
       <c r="Y9" s="16"/>
       <c r="Z9" s="16"/>
     </row>
-    <row r="10" spans="1:26" s="18" customFormat="1">
+    <row r="10" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="35"/>
       <c r="C11" s="2"/>
@@ -2951,7 +2956,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>110</v>
       </c>
@@ -2963,7 +2968,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:26" s="6" customFormat="1">
+    <row r="13" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
       <c r="C13" s="4" t="str">
@@ -2991,7 +2996,7 @@
         <v>Clients</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -3003,7 +3008,7 @@
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -3015,7 +3020,7 @@
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
@@ -3027,7 +3032,7 @@
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
@@ -3039,7 +3044,7 @@
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
@@ -3051,7 +3056,7 @@
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
@@ -3064,8 +3069,7 @@
       <c r="H19" s="24"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -3076,27 +3080,27 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="18"/>
+    <col min="1" max="1" width="9.140625" style="18"/>
     <col min="2" max="2" width="36" style="18" customWidth="1"/>
-    <col min="3" max="16384" width="9.125" style="18"/>
+    <col min="3" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="6" customFormat="1">
+    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>131</v>
       </c>
@@ -3112,7 +3116,7 @@
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
         <v>59</v>
       </c>
@@ -3126,7 +3130,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>60</v>
       </c>
@@ -3140,7 +3144,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
         <v>61</v>
       </c>
@@ -3154,7 +3158,7 @@
         <v>1.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
         <v>62</v>
       </c>
@@ -3168,7 +3172,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>63</v>
       </c>
@@ -3182,7 +3186,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
         <v>86</v>
       </c>
@@ -3196,7 +3200,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>87</v>
       </c>
@@ -3210,7 +3214,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -3220,12 +3224,12 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="6" customFormat="1">
+    <row r="14" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C14" s="4" t="s">
         <v>131</v>
       </c>
@@ -3236,7 +3240,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
         <v>134</v>
       </c>
@@ -3250,7 +3254,7 @@
         <v>48.02</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
         <v>119</v>
       </c>
@@ -3264,7 +3268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
         <v>111</v>
       </c>
@@ -3278,7 +3282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
         <v>112</v>
       </c>
@@ -3292,7 +3296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="19" t="s">
         <v>64</v>
       </c>
@@ -3306,7 +3310,7 @@
         <v>6.92</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="s">
         <v>65</v>
       </c>
@@ -3320,7 +3324,7 @@
         <v>12.08</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -3330,13 +3334,13 @@
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B24" s="19"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C25" s="4" t="s">
         <v>131</v>
       </c>
@@ -3347,7 +3351,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="19" t="s">
         <v>113</v>
       </c>
@@ -3361,7 +3365,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="19" t="s">
         <v>111</v>
       </c>
@@ -3375,7 +3379,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="19" t="s">
         <v>114</v>
       </c>
@@ -3389,7 +3393,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="19" t="s">
         <v>66</v>
       </c>
@@ -3403,7 +3407,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="19" t="s">
         <v>67</v>
       </c>
@@ -3417,7 +3421,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -3427,12 +3431,12 @@
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C35" s="4" t="s">
         <v>131</v>
       </c>
@@ -3443,7 +3447,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="19" t="s">
         <v>115</v>
       </c>
@@ -3457,7 +3461,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="19" t="s">
         <v>116</v>
       </c>
@@ -3471,7 +3475,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="19" t="s">
         <v>69</v>
       </c>
@@ -3485,7 +3489,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="19" t="s">
         <v>68</v>
       </c>
@@ -3499,10 +3503,10 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="19"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
@@ -3512,12 +3516,12 @@
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C44" s="4" t="s">
         <v>131</v>
       </c>
@@ -3528,7 +3532,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="19" t="s">
         <v>117</v>
       </c>
@@ -3542,7 +3546,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="19" t="s">
         <v>118</v>
       </c>
@@ -3556,7 +3560,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -3566,12 +3570,12 @@
       <c r="G49" s="16"/>
       <c r="H49" s="16"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C51" s="4" t="s">
         <v>131</v>
       </c>
@@ -3582,7 +3586,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B52" s="19" t="s">
         <v>134</v>
       </c>
@@ -3596,7 +3600,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
         <v>119</v>
       </c>
@@ -3610,7 +3614,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B54" s="19" t="s">
         <v>120</v>
       </c>
@@ -3624,7 +3628,7 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
         <v>112</v>
       </c>
@@ -3638,7 +3642,7 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B56" s="19" t="s">
         <v>64</v>
       </c>
@@ -3652,7 +3656,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B57" s="19" t="s">
         <v>65</v>
       </c>
@@ -3666,7 +3670,7 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B58" s="19" t="s">
         <v>135</v>
       </c>
@@ -3680,7 +3684,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B59" s="19" t="s">
         <v>56</v>
       </c>
@@ -3694,7 +3698,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -3704,12 +3708,12 @@
       <c r="G62" s="16"/>
       <c r="H62" s="16"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C64" s="4" t="s">
         <v>131</v>
       </c>
@@ -3720,7 +3724,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B65" s="19" t="s">
         <v>20</v>
       </c>
@@ -3734,7 +3738,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B66" s="19" t="s">
         <v>136</v>
       </c>
@@ -3748,7 +3752,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B67" s="19" t="s">
         <v>57</v>
       </c>
@@ -3762,7 +3766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B68" s="19" t="s">
         <v>70</v>
       </c>
@@ -3776,7 +3780,7 @@
         <v>5.19</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B69" s="19" t="s">
         <v>36</v>
       </c>
@@ -3790,7 +3794,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B70" s="19" t="s">
         <v>137</v>
       </c>
@@ -3804,7 +3808,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B71" s="19" t="s">
         <v>53</v>
       </c>
@@ -3818,7 +3822,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B72" s="19" t="s">
         <v>32</v>
       </c>
@@ -3832,12 +3836,12 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C77" s="4" t="s">
         <v>131</v>
       </c>
@@ -3848,79 +3852,106 @@
         <v>133</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B78" s="19" t="s">
         <v>91</v>
       </c>
       <c r="C78" s="24">
-        <v>0.05</v>
-      </c>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="D78" s="22">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E78" s="22">
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B79" s="19" t="s">
         <v>121</v>
       </c>
       <c r="C79" s="24">
-        <v>0.05</v>
-      </c>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-    </row>
-    <row r="80" spans="1:5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D79" s="22">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E79" s="22">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B80" s="19" t="s">
         <v>122</v>
       </c>
       <c r="C80" s="24">
-        <v>0.1</v>
-      </c>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-    </row>
-    <row r="81" spans="2:5">
+        <v>0.02</v>
+      </c>
+      <c r="D80" s="22">
+        <v>0.13</v>
+      </c>
+      <c r="E80" s="22">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="19" t="s">
         <v>123</v>
       </c>
       <c r="C81" s="24">
-        <v>0.15</v>
-      </c>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-    </row>
-    <row r="82" spans="2:5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D81" s="22">
+        <v>0.48</v>
+      </c>
+      <c r="E81" s="22">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="19" t="s">
         <v>78</v>
       </c>
       <c r="C82" s="24">
-        <v>0.4</v>
-      </c>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-    </row>
-    <row r="83" spans="2:5">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="D82" s="22">
+        <v>0.114</v>
+      </c>
+      <c r="E82" s="22">
+        <v>0.47399999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="19" t="s">
         <v>79</v>
       </c>
       <c r="C83" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-    </row>
-    <row r="84" spans="2:5">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="D83" s="22">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="E83" s="22">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="19" t="s">
         <v>41</v>
       </c>
       <c r="C84" s="24">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
+      <c r="D84" s="22">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E84" s="22">
+        <v>7.9000000000000001E-2</v>
+      </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -3931,35 +3962,35 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AI91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.5" style="6" customWidth="1"/>
-    <col min="3" max="4" width="13.875" style="18" customWidth="1"/>
-    <col min="5" max="11" width="8.5" style="18"/>
+    <col min="2" max="2" width="19.42578125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="13.85546875" style="18" customWidth="1"/>
+    <col min="5" max="11" width="8.42578125" style="18"/>
     <col min="12" max="12" width="12" style="18" customWidth="1"/>
-    <col min="13" max="17" width="8.5" style="18"/>
-    <col min="18" max="18" width="12.125" style="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="8.42578125" style="18"/>
+    <col min="18" max="18" width="12.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.140625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="18" customFormat="1">
+    <row r="1" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>76</v>
       </c>
       <c r="B1" s="6"/>
       <c r="AI1" s="6"/>
     </row>
-    <row r="2" spans="1:35" s="18" customFormat="1">
+    <row r="2" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
       <c r="C2" s="19">
         <v>2000</v>
@@ -4058,7 +4089,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:35" s="18" customFormat="1">
+    <row r="3" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>140</v>
       </c>
@@ -4132,26 +4163,26 @@
       </c>
       <c r="AI3" s="29"/>
     </row>
-    <row r="4" spans="1:35" s="18" customFormat="1">
+    <row r="4" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
       <c r="AI4" s="6"/>
     </row>
-    <row r="5" spans="1:35" s="18" customFormat="1">
+    <row r="5" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
       <c r="AI5" s="6"/>
     </row>
-    <row r="6" spans="1:35" s="18" customFormat="1">
+    <row r="6" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="AI6" s="6"/>
     </row>
-    <row r="7" spans="1:35" s="18" customFormat="1">
+    <row r="7" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>77</v>
       </c>
       <c r="B7" s="6"/>
       <c r="AI7" s="6"/>
     </row>
-    <row r="8" spans="1:35" s="18" customFormat="1">
+    <row r="8" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="19">
         <v>2000</v>
@@ -4250,7 +4281,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:35" s="18" customFormat="1">
+    <row r="9" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>140</v>
       </c>
@@ -4290,19 +4321,19 @@
       </c>
       <c r="AI9" s="29"/>
     </row>
-    <row r="10" spans="1:35" s="18" customFormat="1">
+    <row r="10" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="AI10" s="6"/>
     </row>
-    <row r="11" spans="1:35" s="18" customFormat="1">
+    <row r="11" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="AI11" s="6"/>
     </row>
-    <row r="12" spans="1:35" s="18" customFormat="1">
+    <row r="12" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="AI12" s="6"/>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>44</v>
       </c>
@@ -4323,7 +4354,7 @@
       <c r="AG13" s="18"/>
       <c r="AH13" s="18"/>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="C14" s="19">
         <v>2000</v>
@@ -4423,7 +4454,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="4" t="s">
         <v>140</v>
@@ -4556,12 +4587,12 @@
       </c>
       <c r="AI15" s="29"/>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="T17" s="18"/>
       <c r="U17" s="18"/>
       <c r="V17" s="18"/>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>45</v>
       </c>
@@ -4582,7 +4613,7 @@
       <c r="AG19" s="18"/>
       <c r="AH19" s="18"/>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="C20" s="19">
         <v>2000</v>
@@ -4682,7 +4713,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="4" t="s">
         <v>140</v>
@@ -4815,7 +4846,7 @@
       </c>
       <c r="AI21" s="29"/>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>7</v>
       </c>
@@ -4836,7 +4867,7 @@
       <c r="AG25" s="18"/>
       <c r="AH25" s="18"/>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="C26" s="19">
         <v>2000</v>
@@ -4936,7 +4967,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="4" t="s">
         <v>140</v>
@@ -5069,14 +5100,14 @@
       </c>
       <c r="AI27" s="29"/>
     </row>
-    <row r="31" spans="1:35" s="18" customFormat="1">
+    <row r="31" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="6"/>
       <c r="AI31" s="6"/>
     </row>
-    <row r="32" spans="1:35" s="18" customFormat="1">
+    <row r="32" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="19">
         <v>2000</v>
@@ -5175,7 +5206,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:35" s="18" customFormat="1">
+    <row r="33" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>140</v>
       </c>
@@ -5215,26 +5246,26 @@
       </c>
       <c r="AI33" s="29"/>
     </row>
-    <row r="34" spans="1:35" s="18" customFormat="1">
+    <row r="34" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="AI34" s="6"/>
     </row>
-    <row r="35" spans="1:35" s="18" customFormat="1">
+    <row r="35" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
       <c r="AI35" s="6"/>
     </row>
-    <row r="36" spans="1:35" s="18" customFormat="1">
+    <row r="36" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
       <c r="AI36" s="6"/>
     </row>
-    <row r="37" spans="1:35" s="18" customFormat="1">
+    <row r="37" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="6"/>
       <c r="AI37" s="6"/>
     </row>
-    <row r="38" spans="1:35" s="18" customFormat="1">
+    <row r="38" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="C38" s="19">
         <v>2000</v>
@@ -5333,7 +5364,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:35" s="18" customFormat="1">
+    <row r="39" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>140</v>
       </c>
@@ -5466,14 +5497,14 @@
       </c>
       <c r="AI39" s="29"/>
     </row>
-    <row r="43" spans="1:35" s="18" customFormat="1">
+    <row r="43" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B43" s="6"/>
       <c r="AI43" s="6"/>
     </row>
-    <row r="44" spans="1:35" s="18" customFormat="1">
+    <row r="44" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
       <c r="C44" s="19">
         <v>2000</v>
@@ -5572,7 +5603,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:35" s="18" customFormat="1">
+    <row r="45" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>140</v>
       </c>
@@ -5674,26 +5705,26 @@
       </c>
       <c r="AI45" s="29"/>
     </row>
-    <row r="46" spans="1:35" s="18" customFormat="1">
+    <row r="46" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
       <c r="AI46" s="6"/>
     </row>
-    <row r="47" spans="1:35" s="18" customFormat="1">
+    <row r="47" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
       <c r="AI47" s="6"/>
     </row>
-    <row r="48" spans="1:35" s="18" customFormat="1">
+    <row r="48" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
       <c r="AI48" s="6"/>
     </row>
-    <row r="49" spans="1:35" s="18" customFormat="1">
+    <row r="49" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B49" s="6"/>
       <c r="AI49" s="6"/>
     </row>
-    <row r="50" spans="1:35" s="18" customFormat="1">
+    <row r="50" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
       <c r="C50" s="19">
         <v>2000</v>
@@ -5792,7 +5823,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:35" s="18" customFormat="1">
+    <row r="51" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
         <v>140</v>
       </c>
@@ -5832,26 +5863,26 @@
       </c>
       <c r="AI51" s="29"/>
     </row>
-    <row r="52" spans="1:35" s="18" customFormat="1">
+    <row r="52" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
       <c r="AI52" s="6"/>
     </row>
-    <row r="53" spans="1:35" s="18" customFormat="1">
+    <row r="53" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
       <c r="AI53" s="6"/>
     </row>
-    <row r="54" spans="1:35" s="18" customFormat="1">
+    <row r="54" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
       <c r="AI54" s="6"/>
     </row>
-    <row r="55" spans="1:35" s="18" customFormat="1">
+    <row r="55" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B55" s="6"/>
       <c r="AI55" s="6"/>
     </row>
-    <row r="56" spans="1:35" s="18" customFormat="1">
+    <row r="56" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="C56" s="19">
         <v>2000</v>
@@ -5950,7 +5981,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:35" s="18" customFormat="1">
+    <row r="57" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
         <v>140</v>
       </c>
@@ -5990,14 +6021,14 @@
       </c>
       <c r="AI57" s="29"/>
     </row>
-    <row r="61" spans="1:35" s="18" customFormat="1">
+    <row r="61" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B61" s="6"/>
       <c r="AI61" s="6"/>
     </row>
-    <row r="62" spans="1:35" s="18" customFormat="1">
+    <row r="62" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="6"/>
       <c r="C62" s="19">
         <v>2000</v>
@@ -6096,7 +6127,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:35" s="18" customFormat="1">
+    <row r="63" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>140</v>
       </c>
@@ -6136,26 +6167,26 @@
       </c>
       <c r="AI63" s="29"/>
     </row>
-    <row r="64" spans="1:35" s="18" customFormat="1">
+    <row r="64" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="6"/>
       <c r="AI64" s="6"/>
     </row>
-    <row r="65" spans="1:35" s="18" customFormat="1">
+    <row r="65" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="6"/>
       <c r="AI65" s="6"/>
     </row>
-    <row r="66" spans="1:35" s="18" customFormat="1">
+    <row r="66" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="6"/>
       <c r="AI66" s="6"/>
     </row>
-    <row r="67" spans="1:35" s="18" customFormat="1">
+    <row r="67" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B67" s="6"/>
       <c r="AI67" s="6"/>
     </row>
-    <row r="68" spans="1:35" s="18" customFormat="1">
+    <row r="68" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
       <c r="C68" s="19">
         <v>2000</v>
@@ -6254,7 +6285,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:35" s="18" customFormat="1">
+    <row r="69" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
         <v>140</v>
       </c>
@@ -6294,13 +6325,13 @@
       </c>
       <c r="AI69" s="29"/>
     </row>
-    <row r="73" spans="1:35">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73" s="19" t="s">
         <v>90</v>
       </c>
       <c r="B73" s="18"/>
     </row>
-    <row r="74" spans="1:35">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74" s="18"/>
       <c r="B74" s="18"/>
       <c r="C74" s="19">
@@ -6401,7 +6432,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:35">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75" s="18"/>
       <c r="B75" s="19" t="s">
         <v>134</v>
@@ -6489,7 +6520,7 @@
       </c>
       <c r="AI75" s="29"/>
     </row>
-    <row r="76" spans="1:35">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76" s="18"/>
       <c r="B76" s="19" t="s">
         <v>119</v>
@@ -6577,7 +6608,7 @@
       </c>
       <c r="AI76" s="29"/>
     </row>
-    <row r="77" spans="1:35">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77" s="18"/>
       <c r="B77" s="19" t="s">
         <v>120</v>
@@ -6665,7 +6696,7 @@
       </c>
       <c r="AI77" s="29"/>
     </row>
-    <row r="78" spans="1:35" s="18" customFormat="1">
+    <row r="78" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="19" t="s">
         <v>112</v>
       </c>
@@ -6752,7 +6783,7 @@
       </c>
       <c r="AI78" s="29"/>
     </row>
-    <row r="79" spans="1:35">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79" s="18"/>
       <c r="B79" s="19" t="s">
         <v>64</v>
@@ -6840,7 +6871,7 @@
       </c>
       <c r="AI79" s="29"/>
     </row>
-    <row r="80" spans="1:35">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80" s="18"/>
       <c r="B80" s="19" t="s">
         <v>65</v>
@@ -6928,25 +6959,25 @@
       </c>
       <c r="AI80" s="29"/>
     </row>
-    <row r="81" spans="1:35">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A81" s="18"/>
       <c r="B81" s="18"/>
     </row>
-    <row r="82" spans="1:35">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A82" s="18"/>
       <c r="B82" s="18"/>
     </row>
-    <row r="83" spans="1:35">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A83" s="18"/>
       <c r="B83" s="18"/>
     </row>
-    <row r="84" spans="1:35">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B84" s="18"/>
     </row>
-    <row r="85" spans="1:35">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A85" s="18"/>
       <c r="B85" s="18"/>
       <c r="C85" s="19">
@@ -7047,7 +7078,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:35">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A86" s="18"/>
       <c r="B86" s="19" t="s">
         <v>134</v>
@@ -7135,7 +7166,7 @@
       </c>
       <c r="AI86" s="29"/>
     </row>
-    <row r="87" spans="1:35">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A87" s="18"/>
       <c r="B87" s="19" t="s">
         <v>119</v>
@@ -7223,7 +7254,7 @@
       </c>
       <c r="AI87" s="29"/>
     </row>
-    <row r="88" spans="1:35" s="18" customFormat="1">
+    <row r="88" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="19" t="s">
         <v>120</v>
       </c>
@@ -7310,7 +7341,7 @@
       </c>
       <c r="AI88" s="29"/>
     </row>
-    <row r="89" spans="1:35">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A89" s="18"/>
       <c r="B89" s="19" t="s">
         <v>112</v>
@@ -7398,7 +7429,7 @@
       </c>
       <c r="AI89" s="29"/>
     </row>
-    <row r="90" spans="1:35">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A90" s="18"/>
       <c r="B90" s="19" t="s">
         <v>64</v>
@@ -7486,7 +7517,7 @@
       </c>
       <c r="AI90" s="29"/>
     </row>
-    <row r="91" spans="1:35">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A91" s="18"/>
       <c r="B91" s="19" t="s">
         <v>65</v>
@@ -7575,8 +7606,7 @@
       <c r="AI91" s="29"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -7587,15 +7617,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -7606,7 +7635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:V22"/>
   <sheetViews>
@@ -7614,23 +7643,23 @@
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.125" style="18"/>
+    <col min="1" max="2" width="9.140625" style="18"/>
     <col min="3" max="3" width="11" style="18" customWidth="1"/>
-    <col min="4" max="13" width="9.125" style="18"/>
-    <col min="14" max="14" width="9.875" style="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="9.125" style="18"/>
-    <col min="21" max="21" width="15.125" style="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.125" style="18"/>
+    <col min="4" max="13" width="9.140625" style="18"/>
+    <col min="14" max="14" width="9.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="9.140625" style="18"/>
+    <col min="21" max="21" width="15.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D2" s="19">
         <v>2000</v>
       </c>
@@ -7683,7 +7712,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="str">
         <f>'Populations &amp; programs'!$C$14</f>
         <v>SBCC</v>
@@ -7726,7 +7755,7 @@
       </c>
       <c r="U3" s="25"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="str">
         <f>'Populations &amp; programs'!$C$14</f>
         <v>SBCC</v>
@@ -7776,10 +7805,10 @@
       </c>
       <c r="U4" s="37"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="str">
         <f>'Populations &amp; programs'!$C$15</f>
         <v>NSP</v>
@@ -7810,7 +7839,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="str">
         <f>'Populations &amp; programs'!$C$15</f>
         <v>NSP</v>
@@ -7841,10 +7870,10 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="str">
         <f>'Populations &amp; programs'!$C$16</f>
         <v>OST</v>
@@ -7875,7 +7904,7 @@
       </c>
       <c r="U9" s="25"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="4" t="str">
         <f>'Populations &amp; programs'!$C$16</f>
@@ -7908,11 +7937,11 @@
       </c>
       <c r="U10" s="37"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="4" t="str">
         <f>'Populations &amp; programs'!$C$17</f>
@@ -7945,7 +7974,7 @@
       <c r="U12" s="25"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="str">
         <f>'Populations &amp; programs'!$C$17</f>
         <v>MSM programs</v>
@@ -7976,7 +8005,7 @@
       </c>
       <c r="U13" s="37"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="str">
         <f>'Populations &amp; programs'!$C$18</f>
         <v>FSW programs</v>
@@ -8007,7 +8036,7 @@
       </c>
       <c r="U15" s="25"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="str">
         <f>'Populations &amp; programs'!$C$18</f>
         <v>FSW programs</v>
@@ -8038,7 +8067,7 @@
       </c>
       <c r="U16" s="37"/>
     </row>
-    <row r="18" spans="2:21">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="str">
         <f>'Populations &amp; programs'!$C$19</f>
         <v>ART</v>
@@ -8069,7 +8098,7 @@
       </c>
       <c r="U18" s="25"/>
     </row>
-    <row r="19" spans="2:21">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="str">
         <f>'Populations &amp; programs'!$C$19</f>
         <v>ART</v>
@@ -8101,7 +8130,7 @@
       </c>
       <c r="U19" s="37"/>
     </row>
-    <row r="21" spans="2:21">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="str">
         <f>'Populations &amp; programs'!$C$20</f>
         <v>PMTCT</v>
@@ -8132,7 +8161,7 @@
       </c>
       <c r="U21" s="25"/>
     </row>
-    <row r="22" spans="2:21">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="str">
         <f>'Populations &amp; programs'!$C$20</f>
         <v>PMTCT</v>
@@ -8165,8 +8194,7 @@
       <c r="U22" s="37"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -8177,7 +8205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:U53"/>
   <sheetViews>
@@ -8185,22 +8213,22 @@
       <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.125" style="18"/>
-    <col min="4" max="4" width="9.5" style="18" customWidth="1"/>
-    <col min="5" max="20" width="9.125" style="18"/>
-    <col min="21" max="21" width="15.125" style="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.875" style="18" customWidth="1"/>
-    <col min="23" max="16384" width="9.125" style="18"/>
+    <col min="1" max="3" width="9.140625" style="18"/>
+    <col min="4" max="4" width="9.42578125" style="18" customWidth="1"/>
+    <col min="5" max="20" width="9.140625" style="18"/>
+    <col min="21" max="21" width="15.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" style="18" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D2" s="19">
         <v>2000</v>
       </c>
@@ -8253,7 +8281,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -8284,7 +8312,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -8315,7 +8343,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -8346,12 +8374,12 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="U6" s="28"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -8380,7 +8408,7 @@
       </c>
       <c r="U7" s="27"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -8411,7 +8439,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -8440,7 +8468,7 @@
       </c>
       <c r="U9" s="27"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="28"/>
@@ -8461,7 +8489,7 @@
       <c r="S10" s="28"/>
       <c r="U10" s="28"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
@@ -8500,7 +8528,7 @@
       </c>
       <c r="U11" s="27"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
@@ -8539,7 +8567,7 @@
       </c>
       <c r="U12" s="27"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
@@ -8578,7 +8606,7 @@
       </c>
       <c r="U13" s="27"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="28"/>
@@ -8599,7 +8627,7 @@
       <c r="S14" s="28"/>
       <c r="U14" s="28"/>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
@@ -8628,7 +8656,7 @@
       </c>
       <c r="U15" s="27"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
@@ -8689,7 +8717,7 @@
       </c>
       <c r="U16" s="27"/>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
@@ -8718,7 +8746,7 @@
       </c>
       <c r="U17" s="27"/>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="28"/>
@@ -8739,7 +8767,7 @@
       <c r="S18" s="28"/>
       <c r="U18" s="28"/>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
@@ -8768,7 +8796,7 @@
       </c>
       <c r="U19" s="27"/>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
@@ -8829,7 +8857,7 @@
       </c>
       <c r="U20" s="27"/>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
@@ -8858,7 +8886,7 @@
       </c>
       <c r="U21" s="27"/>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="28"/>
@@ -8879,7 +8907,7 @@
       <c r="S22" s="28"/>
       <c r="U22" s="28"/>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
@@ -8908,7 +8936,7 @@
       </c>
       <c r="U23" s="27"/>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
@@ -8969,7 +8997,7 @@
       </c>
       <c r="U24" s="27"/>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
@@ -8998,12 +9026,12 @@
       </c>
       <c r="U25" s="27"/>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D30" s="19">
         <v>2000</v>
       </c>
@@ -9056,7 +9084,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -9087,7 +9115,7 @@
       </c>
       <c r="U31" s="26"/>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -9118,7 +9146,7 @@
       </c>
       <c r="U32" s="26"/>
     </row>
-    <row r="33" spans="2:21">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -9149,11 +9177,11 @@
       </c>
       <c r="U33" s="26"/>
     </row>
-    <row r="34" spans="2:21">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="2:21">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -9188,7 +9216,7 @@
       </c>
       <c r="U35" s="26"/>
     </row>
-    <row r="36" spans="2:21">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -9223,7 +9251,7 @@
       </c>
       <c r="U36" s="26"/>
     </row>
-    <row r="37" spans="2:21">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -9258,11 +9286,11 @@
       </c>
       <c r="U37" s="26"/>
     </row>
-    <row r="38" spans="2:21">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="2:21">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
@@ -9297,7 +9325,7 @@
       </c>
       <c r="U39" s="26"/>
     </row>
-    <row r="40" spans="2:21">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
@@ -9332,7 +9360,7 @@
       </c>
       <c r="U40" s="26"/>
     </row>
-    <row r="41" spans="2:21">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
@@ -9367,11 +9395,11 @@
       </c>
       <c r="U41" s="26"/>
     </row>
-    <row r="42" spans="2:21">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="2:21">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
@@ -9400,7 +9428,7 @@
       </c>
       <c r="U43" s="26"/>
     </row>
-    <row r="44" spans="2:21">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
@@ -9431,7 +9459,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="45" spans="2:21">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
@@ -9460,11 +9488,11 @@
       </c>
       <c r="U45" s="26"/>
     </row>
-    <row r="46" spans="2:21">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
     </row>
-    <row r="47" spans="2:21">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
@@ -9493,7 +9521,7 @@
       </c>
       <c r="U47" s="26"/>
     </row>
-    <row r="48" spans="2:21">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
@@ -9530,7 +9558,7 @@
       </c>
       <c r="U48" s="26"/>
     </row>
-    <row r="49" spans="2:21">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
@@ -9559,11 +9587,11 @@
       </c>
       <c r="U49" s="26"/>
     </row>
-    <row r="50" spans="2:21">
+    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
     </row>
-    <row r="51" spans="2:21">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
@@ -9592,7 +9620,7 @@
       </c>
       <c r="U51" s="26"/>
     </row>
-    <row r="52" spans="2:21">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
@@ -9623,7 +9651,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="53" spans="2:21">
+    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
@@ -9653,8 +9681,7 @@
       <c r="U53" s="26"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -9665,19 +9692,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.5" style="6"/>
-    <col min="20" max="20" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="6"/>
+    <col min="20" max="20" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>38</v>
       </c>
@@ -9700,7 +9727,7 @@
       <c r="S1" s="9"/>
       <c r="T1" s="9"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="C2" s="10">
         <v>2000</v>
@@ -9755,7 +9782,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="4" t="s">
         <v>140</v>
@@ -9781,13 +9808,13 @@
       </c>
       <c r="T3" s="22"/>
     </row>
-    <row r="5" spans="1:20" s="18" customFormat="1">
+    <row r="5" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:20" s="18" customFormat="1">
+    <row r="6" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>39</v>
       </c>
@@ -9810,7 +9837,7 @@
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="C8" s="10">
         <v>2000</v>
@@ -9865,7 +9892,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="4" t="s">
         <v>140</v>
@@ -9915,13 +9942,13 @@
       </c>
       <c r="T9" s="22"/>
     </row>
-    <row r="11" spans="1:20" s="18" customFormat="1">
+    <row r="11" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:20" s="18" customFormat="1">
+    <row r="12" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>28</v>
       </c>
@@ -9944,7 +9971,7 @@
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="C14" s="10">
         <v>2000</v>
@@ -9999,7 +10026,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="4" t="s">
         <v>140</v>
@@ -10025,19 +10052,19 @@
       </c>
       <c r="T15" s="22"/>
     </row>
-    <row r="17" spans="1:20" s="18" customFormat="1">
+    <row r="17" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
     </row>
-    <row r="18" spans="1:20" s="18" customFormat="1">
+    <row r="18" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="1:20" s="18" customFormat="1">
+    <row r="19" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>102</v>
       </c>
       <c r="B19" s="6"/>
     </row>
-    <row r="20" spans="1:20" s="18" customFormat="1">
+    <row r="20" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="C20" s="19">
         <v>2000</v>
@@ -10091,7 +10118,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="18" customFormat="1">
+    <row r="21" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>140</v>
       </c>
@@ -10116,16 +10143,16 @@
       </c>
       <c r="T21" s="22"/>
     </row>
-    <row r="22" spans="1:20" s="18" customFormat="1">
+    <row r="22" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:20" s="18" customFormat="1">
+    <row r="23" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="1:20" s="18" customFormat="1">
+    <row r="24" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>16</v>
       </c>
@@ -10148,7 +10175,7 @@
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="C26" s="10">
         <v>2000</v>
@@ -10203,7 +10230,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="4" t="s">
         <v>140</v>
@@ -10229,13 +10256,13 @@
       </c>
       <c r="T27" s="22"/>
     </row>
-    <row r="31" spans="1:20" s="18" customFormat="1">
+    <row r="31" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="6"/>
     </row>
-    <row r="32" spans="1:20" s="18" customFormat="1">
+    <row r="32" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="19">
         <v>2000</v>
@@ -10289,7 +10316,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="2:20" s="18" customFormat="1">
+    <row r="33" spans="2:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>140</v>
       </c>
@@ -10315,8 +10342,7 @@
       <c r="T33" s="22"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -10327,24 +10353,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.5" style="6"/>
+    <col min="2" max="2" width="8.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="18" customFormat="1">
+    <row r="1" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:20" s="18" customFormat="1">
+    <row r="2" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
       <c r="C2" s="19">
         <v>2000</v>
@@ -10398,7 +10424,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="18" customFormat="1">
+    <row r="3" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -10426,7 +10452,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="18" customFormat="1">
+    <row r="4" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -10454,7 +10480,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="18" customFormat="1">
+    <row r="5" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
@@ -10482,7 +10508,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="18" customFormat="1">
+    <row r="6" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
@@ -10510,7 +10536,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="18" customFormat="1">
+    <row r="7" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
@@ -10538,7 +10564,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="18" customFormat="1">
+    <row r="8" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
@@ -10566,16 +10592,16 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="18" customFormat="1">
+    <row r="9" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:20" s="18" customFormat="1">
+    <row r="10" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:20" s="18" customFormat="1">
+    <row r="11" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>46</v>
       </c>
@@ -10598,7 +10624,7 @@
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="C13" s="8">
         <v>2000</v>
@@ -10653,7 +10679,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -10682,7 +10708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -10711,7 +10737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -10740,7 +10766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -10769,7 +10795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -10798,7 +10824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -10827,18 +10853,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S20" s="5"/>
     </row>
-    <row r="21" spans="1:20" s="18" customFormat="1">
+    <row r="21" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="S21" s="5"/>
     </row>
-    <row r="22" spans="1:20" s="18" customFormat="1">
+    <row r="22" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="S22" s="5"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>144</v>
       </c>
@@ -10861,7 +10887,7 @@
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="C24" s="8">
         <v>2000</v>
@@ -10916,7 +10942,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -10945,7 +10971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -10973,7 +10999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
@@ -11001,7 +11027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
@@ -11029,7 +11055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
@@ -11057,7 +11083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
@@ -11085,12 +11111,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S31" s="5"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -11101,19 +11126,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:T62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.5" style="6"/>
-    <col min="20" max="20" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="6"/>
+    <col min="20" max="20" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
@@ -11136,7 +11161,7 @@
       <c r="S1" s="9"/>
       <c r="T1" s="9"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="C2" s="10">
         <v>2000</v>
@@ -11191,7 +11216,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -11220,7 +11245,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -11251,7 +11276,7 @@
       </c>
       <c r="T4" s="25"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -11284,7 +11309,7 @@
       </c>
       <c r="T5" s="22"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -11313,7 +11338,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -11342,7 +11367,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -11371,13 +11396,13 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="18" customFormat="1">
+    <row r="10" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:20" s="18" customFormat="1">
+    <row r="11" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>108</v>
       </c>
@@ -11400,7 +11425,7 @@
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="C13" s="10">
         <v>2000</v>
@@ -11455,7 +11480,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="4" t="s">
         <v>141</v>
@@ -11483,13 +11508,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="18" customFormat="1">
+    <row r="16" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
     </row>
-    <row r="17" spans="1:20" s="18" customFormat="1">
+    <row r="17" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>15</v>
       </c>
@@ -11512,7 +11537,7 @@
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="C19" s="10">
         <v>2000</v>
@@ -11567,7 +11592,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="4" t="s">
         <v>140</v>
@@ -11621,13 +11646,13 @@
       </c>
       <c r="T20" s="22"/>
     </row>
-    <row r="21" spans="1:20" s="18" customFormat="1">
+    <row r="21" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="1:20" s="18" customFormat="1">
+    <row r="22" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>74</v>
       </c>
@@ -11650,7 +11675,7 @@
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="C25" s="10">
         <v>2000</v>
@@ -11705,7 +11730,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="4" t="s">
         <v>140</v>
@@ -11759,22 +11784,22 @@
       </c>
       <c r="T26" s="22"/>
     </row>
-    <row r="27" spans="1:20" s="18" customFormat="1">
+    <row r="27" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
     </row>
-    <row r="28" spans="1:20" s="18" customFormat="1" ht="14.25" customHeight="1">
+    <row r="28" spans="1:20" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
     </row>
-    <row r="29" spans="1:20" s="18" customFormat="1">
+    <row r="29" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
     </row>
-    <row r="30" spans="1:20" s="18" customFormat="1">
+    <row r="30" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>75</v>
       </c>
       <c r="B30" s="6"/>
     </row>
-    <row r="31" spans="1:20" s="18" customFormat="1">
+    <row r="31" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="C31" s="19">
         <v>2000</v>
@@ -11828,7 +11853,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="18" customFormat="1">
+    <row r="32" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>140</v>
       </c>
@@ -11881,22 +11906,22 @@
       </c>
       <c r="T32" s="22"/>
     </row>
-    <row r="33" spans="1:20" s="18" customFormat="1">
+    <row r="33" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
     </row>
-    <row r="34" spans="1:20" s="18" customFormat="1">
+    <row r="34" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="1:20" s="18" customFormat="1">
+    <row r="35" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
     </row>
-    <row r="36" spans="1:20" s="18" customFormat="1">
+    <row r="36" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>31</v>
       </c>
       <c r="B36" s="6"/>
     </row>
-    <row r="37" spans="1:20" s="18" customFormat="1">
+    <row r="37" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
       <c r="C37" s="19">
         <v>2000</v>
@@ -11950,7 +11975,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:20" s="18" customFormat="1">
+    <row r="38" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -11978,7 +12003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="18" customFormat="1">
+    <row r="39" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -12006,7 +12031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="18" customFormat="1">
+    <row r="40" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
@@ -12034,7 +12059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="18" customFormat="1">
+    <row r="41" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
@@ -12062,7 +12087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="18" customFormat="1">
+    <row r="42" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
@@ -12091,7 +12116,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="18" customFormat="1">
+    <row r="43" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
@@ -12119,16 +12144,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="18" customFormat="1">
+    <row r="44" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
     </row>
-    <row r="45" spans="1:20" s="18" customFormat="1">
+    <row r="45" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
     </row>
-    <row r="46" spans="1:20" s="18" customFormat="1">
+    <row r="46" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>29</v>
       </c>
@@ -12151,7 +12176,7 @@
       <c r="S47" s="9"/>
       <c r="T47" s="9"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="C48" s="10">
         <v>2000</v>
@@ -12206,7 +12231,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="4" t="s">
         <v>140</v>
@@ -12242,22 +12267,22 @@
       </c>
       <c r="T49" s="22"/>
     </row>
-    <row r="50" spans="1:20" s="18" customFormat="1">
+    <row r="50" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
     </row>
-    <row r="51" spans="1:20" s="18" customFormat="1">
+    <row r="51" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
     </row>
-    <row r="52" spans="1:20" s="18" customFormat="1">
+    <row r="52" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
     </row>
-    <row r="53" spans="1:20" s="18" customFormat="1">
+    <row r="53" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B53" s="6"/>
     </row>
-    <row r="54" spans="1:20" s="18" customFormat="1">
+    <row r="54" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
       <c r="C54" s="19">
         <v>2000</v>
@@ -12311,7 +12336,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:20" s="18" customFormat="1">
+    <row r="55" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -12339,7 +12364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20" s="18" customFormat="1">
+    <row r="56" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
@@ -12368,13 +12393,13 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="60" spans="1:20" s="18" customFormat="1">
+    <row r="60" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B60" s="6"/>
     </row>
-    <row r="61" spans="1:20" s="18" customFormat="1">
+    <row r="61" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="6"/>
       <c r="C61" s="19">
         <v>2000</v>
@@ -12428,7 +12453,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:20" s="18" customFormat="1">
+    <row r="62" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
         <v>140</v>
       </c>
@@ -12456,8 +12481,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -12468,19 +12492,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:T83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.5" style="6"/>
-    <col min="20" max="20" width="14.5" style="31" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="6"/>
+    <col min="20" max="20" width="14.42578125" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>71</v>
       </c>
@@ -12502,7 +12526,7 @@
       <c r="R1" s="11"/>
       <c r="S1" s="11"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="C2" s="12">
         <v>2000</v>
@@ -12557,7 +12581,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -12586,7 +12610,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -12615,7 +12639,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -12644,7 +12668,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -12673,7 +12697,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -12702,7 +12726,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -12731,15 +12755,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="18" customFormat="1">
+    <row r="10" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="T10" s="31"/>
     </row>
-    <row r="11" spans="1:20" s="18" customFormat="1">
+    <row r="11" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="T11" s="31"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>72</v>
       </c>
@@ -12761,7 +12785,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="C13" s="12">
         <v>2000</v>
@@ -12816,7 +12840,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -12845,7 +12869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -12874,7 +12898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -12903,7 +12927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -12932,7 +12956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -12961,7 +12985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -12990,15 +13014,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="18" customFormat="1">
+    <row r="21" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="T21" s="31"/>
     </row>
-    <row r="22" spans="1:20" s="18" customFormat="1">
+    <row r="22" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="T22" s="31"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>73</v>
       </c>
@@ -13020,7 +13044,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="C24" s="12">
         <v>2000</v>
@@ -13075,7 +13099,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -13104,7 +13128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -13133,7 +13157,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -13162,7 +13186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -13191,7 +13215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -13220,7 +13244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -13249,7 +13273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C31" s="22"/>
       <c r="D31" s="25">
         <v>0.02</v>
@@ -13281,7 +13305,7 @@
       <c r="Q31" s="22"/>
       <c r="R31" s="22"/>
     </row>
-    <row r="32" spans="1:20" s="18" customFormat="1">
+    <row r="32" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="24"/>
       <c r="D32" s="27">
@@ -13322,17 +13346,17 @@
       <c r="R32" s="24"/>
       <c r="T32" s="31"/>
     </row>
-    <row r="33" spans="1:20" s="18" customFormat="1">
+    <row r="33" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="T33" s="31"/>
     </row>
-    <row r="34" spans="1:20" s="18" customFormat="1">
+    <row r="34" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="T34" s="31"/>
     </row>
-    <row r="35" spans="1:20" s="18" customFormat="1">
+    <row r="35" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
       <c r="T35" s="31"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>83</v>
       </c>
@@ -13354,7 +13378,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="C37" s="12">
         <v>2000</v>
@@ -13409,7 +13433,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -13438,7 +13462,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -13475,7 +13499,7 @@
       </c>
       <c r="T39" s="30"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -13504,7 +13528,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -13533,7 +13557,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -13562,7 +13586,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -13591,15 +13615,15 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="18" customFormat="1">
+    <row r="45" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
       <c r="T45" s="31"/>
     </row>
-    <row r="46" spans="1:20" s="18" customFormat="1">
+    <row r="46" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
       <c r="T46" s="31"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
         <v>130</v>
       </c>
@@ -13621,7 +13645,7 @@
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="C48" s="12">
         <v>2000</v>
@@ -13676,7 +13700,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -13705,7 +13729,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -13742,7 +13766,7 @@
       </c>
       <c r="T50" s="30"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -13771,7 +13795,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -13804,7 +13828,7 @@
       </c>
       <c r="T52" s="30"/>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -13837,7 +13861,7 @@
       </c>
       <c r="T53" s="30"/>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -13866,15 +13890,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:20" s="18" customFormat="1">
+    <row r="56" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="T56" s="31"/>
     </row>
-    <row r="57" spans="1:20" s="18" customFormat="1">
+    <row r="57" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="6"/>
       <c r="T57" s="31"/>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
         <v>48</v>
       </c>
@@ -13896,7 +13920,7 @@
       <c r="R58" s="11"/>
       <c r="S58" s="11"/>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="C59" s="12">
         <v>2000</v>
@@ -13951,7 +13975,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -13980,7 +14004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -14017,7 +14041,7 @@
       </c>
       <c r="T61" s="38"/>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -14046,7 +14070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -14075,7 +14099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -14104,7 +14128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -14141,15 +14165,15 @@
       </c>
       <c r="T65" s="39"/>
     </row>
-    <row r="67" spans="1:20" s="18" customFormat="1">
+    <row r="67" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="6"/>
       <c r="T67" s="31"/>
     </row>
-    <row r="68" spans="1:20" s="18" customFormat="1">
+    <row r="68" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
       <c r="T68" s="31"/>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>109</v>
       </c>
@@ -14171,7 +14195,7 @@
       <c r="R69" s="11"/>
       <c r="S69" s="11"/>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="C70" s="12">
         <v>2000</v>
@@ -14226,7 +14250,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -14255,7 +14279,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -14284,7 +14308,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -14313,7 +14337,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -14342,26 +14366,26 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="75" spans="1:20" s="18" customFormat="1">
+    <row r="75" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="6"/>
       <c r="T75" s="31"/>
     </row>
-    <row r="76" spans="1:20" s="18" customFormat="1">
+    <row r="76" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="6"/>
       <c r="T76" s="31"/>
     </row>
-    <row r="77" spans="1:20" s="18" customFormat="1">
+    <row r="77" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="6"/>
       <c r="T77" s="31"/>
     </row>
-    <row r="78" spans="1:20" s="18" customFormat="1">
+    <row r="78" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B78" s="6"/>
       <c r="T78" s="31"/>
     </row>
-    <row r="79" spans="1:20" s="18" customFormat="1">
+    <row r="79" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="6"/>
       <c r="C79" s="19">
         <v>2000</v>
@@ -14415,7 +14439,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:20" s="18" customFormat="1">
+    <row r="80" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -14443,7 +14467,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="81" spans="2:20" s="18" customFormat="1">
+    <row r="81" spans="2:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
@@ -14471,7 +14495,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="2:20" s="18" customFormat="1">
+    <row r="82" spans="2:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
@@ -14499,7 +14523,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="83" spans="2:20" s="18" customFormat="1">
+    <row r="83" spans="2:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
@@ -14528,8 +14552,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -14540,7 +14563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:T20"/>
   <sheetViews>
@@ -14548,13 +14571,13 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5" style="31" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>84</v>
       </c>
@@ -14576,7 +14599,7 @@
       <c r="R1" s="13"/>
       <c r="S1" s="13"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="C2" s="14">
         <v>2000</v>
@@ -14631,7 +14654,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -14660,7 +14683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -14689,7 +14712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -14718,7 +14741,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -14747,7 +14770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -14776,7 +14799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -14805,15 +14828,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="18" customFormat="1">
+    <row r="10" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="T10" s="31"/>
     </row>
-    <row r="11" spans="1:20" s="18" customFormat="1">
+    <row r="11" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="T11" s="31"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>49</v>
       </c>
@@ -14835,7 +14858,7 @@
       <c r="R12" s="13"/>
       <c r="S12" s="13"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="C13" s="14">
         <v>2000</v>
@@ -14890,7 +14913,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="43" t="s">
         <v>50</v>
@@ -14924,15 +14947,15 @@
       </c>
       <c r="T14" s="38"/>
     </row>
-    <row r="16" spans="1:20" s="18" customFormat="1">
+    <row r="16" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="T16" s="31"/>
     </row>
-    <row r="17" spans="1:20" s="18" customFormat="1">
+    <row r="17" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
       <c r="T17" s="31"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>145</v>
       </c>
@@ -14954,7 +14977,7 @@
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="C19" s="14">
         <v>2000</v>
@@ -15009,7 +15032,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="43" t="s">
         <v>55</v>
@@ -15042,8 +15065,7 @@
       <c r="T20" s="38"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -15054,20 +15076,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="15" width="6.5" customWidth="1"/>
+    <col min="1" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="15" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" customHeight="1">
+    <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>95</v>
       </c>
@@ -15096,7 +15118,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="35"/>
       <c r="C2" s="4" t="str">
@@ -15142,7 +15164,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -15175,7 +15197,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -15206,7 +15228,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -15241,7 +15263,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -15275,7 +15297,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -15306,7 +15328,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -15341,7 +15363,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -15369,9 +15391,9 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" s="18" customFormat="1"/>
-    <row r="11" spans="1:26" s="18" customFormat="1"/>
-    <row r="12" spans="1:26">
+    <row r="10" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>93</v>
       </c>
@@ -15401,7 +15423,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="35"/>
       <c r="C13" s="4" t="str">
@@ -15447,7 +15469,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -15480,7 +15502,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -15511,7 +15533,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -15546,7 +15568,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -15581,7 +15603,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -15612,7 +15634,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -15629,7 +15651,7 @@
       </c>
       <c r="H19" s="34"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -15639,7 +15661,7 @@
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
     </row>
-    <row r="21" spans="1:26" s="18" customFormat="1">
+    <row r="21" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -15667,8 +15689,8 @@
       <c r="Y21" s="16"/>
       <c r="Z21" s="16"/>
     </row>
-    <row r="22" spans="1:26" s="18" customFormat="1"/>
-    <row r="23" spans="1:26">
+    <row r="22" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>94</v>
       </c>
@@ -15680,7 +15702,7 @@
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="35"/>
       <c r="C24" s="4" t="str">
@@ -15708,7 +15730,7 @@
         <v>Clients</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -15721,7 +15743,7 @@
       <c r="G25" s="34"/>
       <c r="H25" s="34"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -15734,7 +15756,7 @@
       <c r="G26" s="34"/>
       <c r="H26" s="34"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -15747,7 +15769,7 @@
       <c r="G27" s="34"/>
       <c r="H27" s="34"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -15760,7 +15782,7 @@
       <c r="G28" s="34"/>
       <c r="H28" s="34"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -15773,7 +15795,7 @@
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -15788,7 +15810,7 @@
       <c r="G30" s="34"/>
       <c r="H30" s="34"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -15798,7 +15820,7 @@
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
     </row>
-    <row r="32" spans="1:26" s="18" customFormat="1">
+    <row r="32" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -15826,8 +15848,8 @@
       <c r="Y32" s="16"/>
       <c r="Z32" s="16"/>
     </row>
-    <row r="33" spans="1:8" s="18" customFormat="1"/>
-    <row r="34" spans="1:8">
+    <row r="33" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>96</v>
       </c>
@@ -15839,7 +15861,7 @@
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="35"/>
       <c r="C35" s="4" t="str">
@@ -15867,7 +15889,7 @@
         <v>Clients</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -15880,7 +15902,7 @@
       <c r="G36" s="34"/>
       <c r="H36" s="34"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -15893,7 +15915,7 @@
       <c r="G37" s="34"/>
       <c r="H37" s="34"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -15908,7 +15930,7 @@
       <c r="G38" s="34"/>
       <c r="H38" s="34"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -15921,7 +15943,7 @@
       <c r="G39" s="34"/>
       <c r="H39" s="34"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -15934,7 +15956,7 @@
       <c r="G40" s="34"/>
       <c r="H40" s="34"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -15948,8 +15970,7 @@
       <c r="H41" s="34"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">

--- a/server/src/static/example.xlsx
+++ b/server/src/static/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="2240" windowWidth="23360" windowHeight="13820" tabRatio="863" firstSheet="5" activeTab="12"/>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="23360" windowHeight="13820" tabRatio="863" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="22" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="166">
   <si>
     <t>Programs for men who have sex with men</t>
   </si>
@@ -564,7 +564,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="3" tint="-0.24994659260841701"/>
@@ -687,8 +687,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF16365C"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -719,8 +741,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CCFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -758,6 +786,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="664">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1425,7 +1481,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="655" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1552,6 +1608,26 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="663" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="664">
@@ -4785,8 +4861,8 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:V91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10547,7 +10623,7 @@
   <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -11558,7 +11634,7 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
@@ -14812,10 +14888,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -15161,285 +15237,155 @@
       </c>
     </row>
     <row r="14" spans="1:20" s="18" customFormat="1">
-      <c r="B14" s="4" t="str">
-        <f>'Populations &amp; programs'!$C$3</f>
-        <v>MSM</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="5" t="s">
+      <c r="A14" s="57"/>
+      <c r="B14" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60">
+        <v>0.3</v>
+      </c>
+      <c r="E14" s="61"/>
+      <c r="F14" s="60">
+        <v>0.25</v>
+      </c>
+      <c r="G14" s="61"/>
+      <c r="H14" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="T14" s="29"/>
-    </row>
-    <row r="15" spans="1:20" s="18" customFormat="1">
-      <c r="B15" s="4" t="str">
-        <f>'Populations &amp; programs'!$C$4</f>
-        <v>FSW</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="5" t="s">
+      <c r="T14" s="63"/>
+    </row>
+    <row r="16" spans="1:20" s="18" customFormat="1">
+      <c r="B16" s="6"/>
+      <c r="T16" s="31"/>
+    </row>
+    <row r="17" spans="1:20" s="18" customFormat="1">
+      <c r="B17" s="6"/>
+      <c r="T17" s="31"/>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="13"/>
+      <c r="C19" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D19" s="14">
+        <v>2001</v>
+      </c>
+      <c r="E19" s="14">
+        <v>2002</v>
+      </c>
+      <c r="F19" s="14">
+        <v>2003</v>
+      </c>
+      <c r="G19" s="14">
+        <v>2004</v>
+      </c>
+      <c r="H19" s="14">
+        <v>2005</v>
+      </c>
+      <c r="I19" s="14">
+        <v>2006</v>
+      </c>
+      <c r="J19" s="14">
+        <v>2007</v>
+      </c>
+      <c r="K19" s="14">
+        <v>2008</v>
+      </c>
+      <c r="L19" s="14">
+        <v>2009</v>
+      </c>
+      <c r="M19" s="14">
+        <v>2010</v>
+      </c>
+      <c r="N19" s="14">
+        <v>2011</v>
+      </c>
+      <c r="O19" s="14">
+        <v>2012</v>
+      </c>
+      <c r="P19" s="14">
+        <v>2013</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>2014</v>
+      </c>
+      <c r="R19" s="14">
+        <v>2015</v>
+      </c>
+      <c r="S19" s="13"/>
+      <c r="T19" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="13"/>
+      <c r="B20" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38">
+        <v>50</v>
+      </c>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38">
+        <v>70</v>
+      </c>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38">
+        <v>190</v>
+      </c>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="T15" s="29"/>
-    </row>
-    <row r="16" spans="1:20" s="18" customFormat="1">
-      <c r="B16" s="4" t="str">
-        <f>'Populations &amp; programs'!$C$5</f>
-        <v>Male PWID</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="25">
-        <v>0.25</v>
-      </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="25">
-        <v>0.2</v>
-      </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="25">
-        <v>0.2</v>
-      </c>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T16" s="29"/>
-    </row>
-    <row r="17" spans="1:20" s="18" customFormat="1">
-      <c r="B17" s="4" t="str">
-        <f>'Populations &amp; programs'!$C$6</f>
-        <v>Other males</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T17" s="29"/>
-    </row>
-    <row r="18" spans="1:20" s="18" customFormat="1">
-      <c r="B18" s="4" t="str">
-        <f>'Populations &amp; programs'!$C$7</f>
-        <v>Other females</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T18" s="29"/>
-    </row>
-    <row r="19" spans="1:20" s="18" customFormat="1">
-      <c r="B19" s="4" t="str">
-        <f>'Populations &amp; programs'!$C$8</f>
-        <v>Clients</v>
-      </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T19" s="29"/>
-    </row>
-    <row r="21" spans="1:20" s="18" customFormat="1">
-      <c r="B21" s="6"/>
-      <c r="T21" s="31"/>
-    </row>
-    <row r="22" spans="1:20" s="18" customFormat="1">
-      <c r="B22" s="6"/>
-      <c r="T22" s="31"/>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" s="13"/>
-      <c r="C24" s="14">
-        <v>2000</v>
-      </c>
-      <c r="D24" s="14">
-        <v>2001</v>
-      </c>
-      <c r="E24" s="14">
-        <v>2002</v>
-      </c>
-      <c r="F24" s="14">
-        <v>2003</v>
-      </c>
-      <c r="G24" s="14">
-        <v>2004</v>
-      </c>
-      <c r="H24" s="14">
-        <v>2005</v>
-      </c>
-      <c r="I24" s="14">
-        <v>2006</v>
-      </c>
-      <c r="J24" s="14">
-        <v>2007</v>
-      </c>
-      <c r="K24" s="14">
-        <v>2008</v>
-      </c>
-      <c r="L24" s="14">
-        <v>2009</v>
-      </c>
-      <c r="M24" s="14">
-        <v>2010</v>
-      </c>
-      <c r="N24" s="14">
-        <v>2011</v>
-      </c>
-      <c r="O24" s="14">
-        <v>2012</v>
-      </c>
-      <c r="P24" s="14">
-        <v>2013</v>
-      </c>
-      <c r="Q24" s="14">
-        <v>2014</v>
-      </c>
-      <c r="R24" s="14">
-        <v>2015</v>
-      </c>
-      <c r="S24" s="13"/>
-      <c r="T24" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" s="13"/>
-      <c r="B25" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38">
-        <v>50</v>
-      </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38">
-        <v>70</v>
-      </c>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38">
-        <v>190</v>
-      </c>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T25" s="38"/>
+      <c r="T20" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>

--- a/server/src/static/example.xlsx
+++ b/server/src/static/example.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="2240" windowWidth="23360" windowHeight="13820" tabRatio="863" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="2235" yWindow="2235" windowWidth="23355" windowHeight="13815" tabRatio="863" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="22" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Constants" sheetId="17" r:id="rId12"/>
     <sheet name="Economics and costs" sheetId="18" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -96,12 +96,6 @@
     <t>Condom use</t>
   </si>
   <si>
-    <t>Heterosexual</t>
-  </si>
-  <si>
-    <t>Homosexual</t>
-  </si>
-  <si>
     <t>Sex worker</t>
   </si>
   <si>
@@ -178,7 +172,7 @@
   </si>
   <si>
     <t>Percentage of people who receptively shared a needle at last injection</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Female sex workers</t>
@@ -191,11 +185,11 @@
   </si>
   <si>
     <t>Prevention of mother-to-child transmission</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Average</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Tuberculosis cofactor</t>
@@ -555,19 +549,32 @@
   <si>
     <t>Growth assumptions</t>
   </si>
+  <si>
+    <t>Has sex with men</t>
+  </si>
+  <si>
+    <t>Has sex with women</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="3" tint="-0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -817,817 +824,817 @@
   </borders>
   <cellStyleXfs count="664">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="655" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="655" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="655"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="655" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="655"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="655" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="655"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="655" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="655"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="655" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="11" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="11" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="2" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="9" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="10" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="655" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="655" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="663"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="663" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="663" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="663" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="663"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="663" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="663" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="663" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="663" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="663" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="664">
@@ -2607,145 +2614,145 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="80.6640625" style="51" customWidth="1"/>
-    <col min="2" max="16384" width="8.83203125" style="51"/>
+    <col min="1" max="1" width="80.7109375" style="51" customWidth="1"/>
+    <col min="2" max="16384" width="8.85546875" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="56" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="56"/>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="56"/>
-    </row>
-    <row r="4" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="63" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="63"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="63"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="52"/>
     </row>
-    <row r="5" spans="1:1" ht="40" customHeight="1">
+    <row r="5" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="52"/>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="52"/>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="52"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="52"/>
     </row>
-    <row r="13" spans="1:1" ht="75" customHeight="1">
+    <row r="13" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="52"/>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="52"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="57" customHeight="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="52"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="52" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="52"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="52"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="52"/>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="52"/>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="52"/>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2771,16 +2778,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="15" width="6.5" customWidth="1"/>
+    <col min="1" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="15" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" customHeight="1">
+    <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -2807,7 +2814,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="35"/>
       <c r="C2" s="4" t="str">
@@ -2853,7 +2860,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -2886,7 +2893,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -2917,7 +2924,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -2952,7 +2959,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -2986,7 +2993,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -3017,7 +3024,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -3052,7 +3059,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -3080,11 +3087,11 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" s="18" customFormat="1"/>
-    <row r="11" spans="1:26" s="18" customFormat="1"/>
-    <row r="12" spans="1:26">
+    <row r="10" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -3112,7 +3119,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="35"/>
       <c r="C13" s="4" t="str">
@@ -3158,7 +3165,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -3191,7 +3198,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -3222,7 +3229,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -3257,7 +3264,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -3292,7 +3299,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -3323,7 +3330,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -3340,7 +3347,7 @@
       </c>
       <c r="H19" s="34"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -3350,7 +3357,7 @@
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
     </row>
-    <row r="21" spans="1:26" s="18" customFormat="1">
+    <row r="21" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -3378,10 +3385,10 @@
       <c r="Y21" s="16"/>
       <c r="Z21" s="16"/>
     </row>
-    <row r="22" spans="1:26" s="18" customFormat="1"/>
-    <row r="23" spans="1:26">
+    <row r="22" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -3391,7 +3398,7 @@
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="35"/>
       <c r="C24" s="4" t="str">
@@ -3419,7 +3426,7 @@
         <v>Clients</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -3432,7 +3439,7 @@
       <c r="G25" s="34"/>
       <c r="H25" s="34"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -3445,7 +3452,7 @@
       <c r="G26" s="34"/>
       <c r="H26" s="34"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -3458,7 +3465,7 @@
       <c r="G27" s="34"/>
       <c r="H27" s="34"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -3471,7 +3478,7 @@
       <c r="G28" s="34"/>
       <c r="H28" s="34"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -3484,7 +3491,7 @@
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -3499,7 +3506,7 @@
       <c r="G30" s="34"/>
       <c r="H30" s="34"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -3509,7 +3516,7 @@
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
     </row>
-    <row r="32" spans="1:26" s="18" customFormat="1">
+    <row r="32" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -3537,10 +3544,10 @@
       <c r="Y32" s="16"/>
       <c r="Z32" s="16"/>
     </row>
-    <row r="33" spans="1:8" s="18" customFormat="1"/>
-    <row r="34" spans="1:8">
+    <row r="33" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -3550,7 +3557,7 @@
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="35"/>
       <c r="C35" s="4" t="str">
@@ -3578,7 +3585,7 @@
         <v>Clients</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -3591,7 +3598,7 @@
       <c r="G36" s="34"/>
       <c r="H36" s="34"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -3604,7 +3611,7 @@
       <c r="G37" s="34"/>
       <c r="H37" s="34"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -3619,7 +3626,7 @@
       <c r="G38" s="34"/>
       <c r="H38" s="34"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -3632,7 +3639,7 @@
       <c r="G39" s="34"/>
       <c r="H39" s="34"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -3645,7 +3652,7 @@
       <c r="G40" s="34"/>
       <c r="H40" s="34"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -3659,7 +3666,7 @@
       <c r="H41" s="34"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -3678,13 +3685,13 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.5" style="6"/>
-    <col min="3" max="8" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="6"/>
+    <col min="3" max="8" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -3696,7 +3703,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:26" s="6" customFormat="1">
+    <row r="2" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="4" t="str">
@@ -3724,7 +3731,7 @@
         <v>Clients</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -3736,7 +3743,7 @@
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -3748,7 +3755,7 @@
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
@@ -3760,7 +3767,7 @@
       <c r="G5" s="24"/>
       <c r="H5" s="24"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
@@ -3772,7 +3779,7 @@
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
@@ -3784,7 +3791,7 @@
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
@@ -3796,7 +3803,7 @@
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
     </row>
-    <row r="9" spans="1:26" s="18" customFormat="1">
+    <row r="9" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="35"/>
       <c r="C9" s="16"/>
@@ -3824,10 +3831,10 @@
       <c r="Y9" s="16"/>
       <c r="Z9" s="16"/>
     </row>
-    <row r="10" spans="1:26" s="18" customFormat="1">
+    <row r="10" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="35"/>
       <c r="C11" s="2"/>
@@ -3837,9 +3844,9 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B12" s="35"/>
       <c r="C12" s="2"/>
@@ -3849,7 +3856,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:26" s="6" customFormat="1">
+    <row r="13" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
       <c r="C13" s="4" t="str">
@@ -3877,7 +3884,7 @@
         <v>Clients</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -3889,7 +3896,7 @@
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -3901,7 +3908,7 @@
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
@@ -3913,7 +3920,7 @@
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
@@ -3925,7 +3932,7 @@
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
@@ -3937,7 +3944,7 @@
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
@@ -3950,7 +3957,7 @@
       <c r="H19" s="24"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -3969,27 +3976,27 @@
       <selection activeCell="C64" sqref="C64:E65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="18"/>
+    <col min="1" max="1" width="9.140625" style="18"/>
     <col min="2" max="2" width="36" style="18" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="18"/>
+    <col min="3" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="6" customFormat="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
@@ -3997,9 +4004,9 @@
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="26">
         <v>4.0000000000000002E-4</v>
@@ -4011,9 +4018,9 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" s="26">
         <v>8.0000000000000004E-4</v>
@@ -4025,9 +4032,9 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" s="26">
         <v>1.38E-2</v>
@@ -4039,9 +4046,9 @@
         <v>1.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="26">
         <v>1.1000000000000001E-3</v>
@@ -4053,9 +4060,9 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="26">
         <v>8.0000000000000002E-3</v>
@@ -4067,9 +4074,9 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="26">
         <v>0.36699999999999999</v>
@@ -4081,9 +4088,9 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C9" s="26">
         <v>0.20499999999999999</v>
@@ -4095,7 +4102,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -4105,25 +4112,25 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="6" customFormat="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="4" t="s">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="19" t="s">
         <v>130</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="B15" s="19" t="s">
-        <v>132</v>
       </c>
       <c r="C15" s="22">
         <v>26.03</v>
@@ -4135,9 +4142,9 @@
         <v>48.02</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C16" s="22">
         <v>1</v>
@@ -4149,9 +4156,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C17" s="22">
         <v>1</v>
@@ -4163,9 +4170,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C18" s="22">
         <v>1</v>
@@ -4177,9 +4184,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C19" s="22">
         <v>3.49</v>
@@ -4191,9 +4198,9 @@
         <v>6.92</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C20" s="22">
         <v>7.17</v>
@@ -4205,7 +4212,7 @@
         <v>12.08</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -4215,26 +4222,26 @@
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B24" s="19"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C25" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C26" s="25">
         <v>4.1399999999999997</v>
@@ -4246,9 +4253,9 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C27" s="25">
         <v>1.05</v>
@@ -4260,9 +4267,9 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C28" s="25">
         <v>0.33</v>
@@ -4274,9 +4281,9 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C29" s="25">
         <v>0.27</v>
@@ -4288,9 +4295,9 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C30" s="25">
         <v>0.67</v>
@@ -4302,7 +4309,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -4312,25 +4319,25 @@
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C35" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C36" s="25">
         <v>0.45</v>
@@ -4342,9 +4349,9 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C37" s="25">
         <v>0.7</v>
@@ -4356,9 +4363,9 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C38" s="25">
         <v>0.47</v>
@@ -4370,9 +4377,9 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C39" s="25">
         <v>1.52</v>
@@ -4384,10 +4391,10 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="19"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
@@ -4397,25 +4404,25 @@
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C44" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C45" s="25">
         <v>0.1</v>
@@ -4427,9 +4434,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C46" s="25">
         <v>0.16</v>
@@ -4441,7 +4448,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -4451,25 +4458,25 @@
       <c r="G49" s="16"/>
       <c r="H49" s="16"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C51" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D51" s="4" t="s">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="19" t="s">
         <v>130</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="B52" s="19" t="s">
-        <v>132</v>
       </c>
       <c r="C52" s="26">
         <v>3.5999999999999999E-3</v>
@@ -4481,9 +4488,9 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C53" s="26">
         <v>3.5999999999999999E-3</v>
@@ -4495,9 +4502,9 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B54" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C54" s="26">
         <v>5.7999999999999996E-3</v>
@@ -4509,9 +4516,9 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C55" s="26">
         <v>8.8000000000000005E-3</v>
@@ -4523,9 +4530,9 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B56" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56" s="26">
         <v>5.8999999999999997E-2</v>
@@ -4537,9 +4544,9 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B57" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C57" s="26">
         <v>0.32300000000000001</v>
@@ -4551,9 +4558,9 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B58" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C58" s="26">
         <v>0.23</v>
@@ -4565,9 +4572,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B59" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C59" s="22">
         <v>2.17</v>
@@ -4579,7 +4586,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -4589,23 +4596,23 @@
       <c r="G62" s="16"/>
       <c r="H62" s="16"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C64" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B65" s="19" t="s">
         <v>20</v>
       </c>
@@ -4619,9 +4626,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B66" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C66" s="26">
         <v>0.42</v>
@@ -4633,9 +4640,9 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B67" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C67" s="26">
         <v>1</v>
@@ -4647,9 +4654,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B68" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C68" s="26">
         <v>2.65</v>
@@ -4661,9 +4668,9 @@
         <v>5.19</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B69" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C69" s="26">
         <v>1</v>
@@ -4675,9 +4682,9 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B70" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C70" s="26">
         <v>0.46</v>
@@ -4689,9 +4696,9 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B71" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C71" s="26">
         <v>0.105</v>
@@ -4703,9 +4710,9 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B72" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C72" s="26">
         <v>0.3</v>
@@ -4717,9 +4724,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B73" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C73" s="26">
         <v>0.27500000000000002</v>
@@ -4731,25 +4738,25 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C78" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E78" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B79" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C79" s="24">
         <v>0.14599999999999999</v>
@@ -4761,9 +4768,9 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B80" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C80" s="24">
         <v>8.0000000000000002E-3</v>
@@ -4775,9 +4782,9 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="2:5">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C81" s="24">
         <v>0.02</v>
@@ -4789,9 +4796,9 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="82" spans="2:5">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C82" s="24">
         <v>7.0000000000000007E-2</v>
@@ -4803,9 +4810,9 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="83" spans="2:5">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C83" s="24">
         <v>0.26500000000000001</v>
@@ -4817,9 +4824,9 @@
         <v>0.47399999999999998</v>
       </c>
     </row>
-    <row r="84" spans="2:5">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C84" s="24">
         <v>0.54700000000000004</v>
@@ -4831,9 +4838,9 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="85" spans="2:5">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C85" s="24">
         <v>5.2999999999999999E-2</v>
@@ -4846,7 +4853,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -4865,27 +4872,27 @@
       <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.5" style="6" customWidth="1"/>
-    <col min="3" max="4" width="13.83203125" style="18" customWidth="1"/>
-    <col min="5" max="11" width="8.5" style="18"/>
+    <col min="2" max="2" width="19.42578125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="13.85546875" style="18" customWidth="1"/>
+    <col min="5" max="11" width="8.42578125" style="18"/>
     <col min="12" max="12" width="12" style="18" customWidth="1"/>
-    <col min="13" max="17" width="8.5" style="18"/>
-    <col min="18" max="18" width="12.1640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="8.42578125" style="18"/>
+    <col min="18" max="18" width="12.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="18" customFormat="1">
+    <row r="1" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B1" s="6"/>
       <c r="T1" s="55" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="18" customFormat="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
       <c r="C2" s="19">
         <v>2000</v>
@@ -4936,18 +4943,18 @@
         <v>2015</v>
       </c>
       <c r="T2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="U2" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" s="18" customFormat="1">
+    </row>
+    <row r="3" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C3" s="22">
         <v>75.018454192929113</v>
@@ -5000,7 +5007,7 @@
         <v>105.06249999999997</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T3" s="26">
         <v>0.03</v>
@@ -5012,26 +5019,26 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="18" customFormat="1">
+    <row r="4" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
       <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:22" s="18" customFormat="1">
+    <row r="5" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
       <c r="T5" s="6"/>
     </row>
-    <row r="6" spans="1:22" s="18" customFormat="1">
+    <row r="6" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="T6" s="6"/>
     </row>
-    <row r="7" spans="1:22" s="18" customFormat="1">
+    <row r="7" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7" s="6"/>
       <c r="T7" s="6"/>
     </row>
-    <row r="8" spans="1:22" s="18" customFormat="1">
+    <row r="8" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="19">
         <v>2000</v>
@@ -5082,18 +5089,18 @@
         <v>2015</v>
       </c>
       <c r="T8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="V8" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="U8" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" s="18" customFormat="1">
+    </row>
+    <row r="9" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
@@ -5112,7 +5119,7 @@
       <c r="Q9" s="40"/>
       <c r="R9" s="40"/>
       <c r="S9" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T9" s="26">
         <v>0.03</v>
@@ -5124,25 +5131,25 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="18" customFormat="1">
+    <row r="10" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="T10" s="6"/>
     </row>
-    <row r="11" spans="1:22" s="18" customFormat="1">
+    <row r="11" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="T11" s="6"/>
     </row>
-    <row r="12" spans="1:22" s="18" customFormat="1">
+    <row r="12" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="T12" s="6"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S13" s="18"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="C14" s="19">
         <v>2000</v>
@@ -5194,19 +5201,19 @@
       </c>
       <c r="S14" s="18"/>
       <c r="T14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="V14" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="U14" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="V14" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C15" s="22">
         <f t="shared" ref="C15:Q15" si="0">D15/(1.12)</f>
@@ -5273,7 +5280,7 @@
         <v>2895752893.7499995</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T15" s="26">
         <v>0.03</v>
@@ -5285,13 +5292,13 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S19" s="18"/>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="C20" s="19">
         <v>2000</v>
@@ -5343,19 +5350,19 @@
       </c>
       <c r="S20" s="18"/>
       <c r="T20" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="V20" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="U20" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="V20" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C21" s="40">
         <v>30000000000</v>
@@ -5421,7 +5428,7 @@
         <v>105000000000</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T21" s="26">
         <v>0.03</v>
@@ -5433,13 +5440,13 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>7</v>
       </c>
       <c r="S25" s="18"/>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="C26" s="19">
         <v>2000</v>
@@ -5491,19 +5498,19 @@
       </c>
       <c r="S26" s="18"/>
       <c r="T26" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="V26" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="U26" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="V26" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C27" s="22">
         <v>10000000000</v>
@@ -5569,7 +5576,7 @@
         <v>20789281794.113678</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T27" s="26">
         <v>0.03</v>
@@ -5581,14 +5588,14 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="31" spans="1:22" s="18" customFormat="1">
+    <row r="31" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="6"/>
       <c r="T31" s="6"/>
     </row>
-    <row r="32" spans="1:22" s="18" customFormat="1">
+    <row r="32" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="19">
         <v>2000</v>
@@ -5639,18 +5646,18 @@
         <v>2015</v>
       </c>
       <c r="T32" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="V32" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="U32" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="V32" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" s="18" customFormat="1">
+    </row>
+    <row r="33" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
@@ -5669,7 +5676,7 @@
       <c r="Q33" s="22"/>
       <c r="R33" s="22"/>
       <c r="S33" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T33" s="26">
         <v>0.03</v>
@@ -5681,26 +5688,26 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="34" spans="1:22" s="18" customFormat="1">
+    <row r="34" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="T34" s="6"/>
     </row>
-    <row r="35" spans="1:22" s="18" customFormat="1">
+    <row r="35" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
       <c r="T35" s="6"/>
     </row>
-    <row r="36" spans="1:22" s="18" customFormat="1">
+    <row r="36" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
       <c r="T36" s="6"/>
     </row>
-    <row r="37" spans="1:22" s="18" customFormat="1">
+    <row r="37" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="6"/>
       <c r="T37" s="6"/>
     </row>
-    <row r="38" spans="1:22" s="18" customFormat="1">
+    <row r="38" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="C38" s="19">
         <v>2000</v>
@@ -5751,18 +5758,18 @@
         <v>2015</v>
       </c>
       <c r="T38" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="U38" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="V38" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="U38" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="V38" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" s="18" customFormat="1">
+    </row>
+    <row r="39" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C39" s="22">
         <f>12%*C27</f>
@@ -5829,7 +5836,7 @@
         <v>2494713815.2936411</v>
       </c>
       <c r="S39" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T39" s="26">
         <v>0.03</v>
@@ -5841,14 +5848,14 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="1:22" s="18" customFormat="1">
+    <row r="43" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B43" s="6"/>
       <c r="T43" s="6"/>
     </row>
-    <row r="44" spans="1:22" s="18" customFormat="1">
+    <row r="44" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
       <c r="C44" s="19">
         <v>2000</v>
@@ -5899,18 +5906,18 @@
         <v>2015</v>
       </c>
       <c r="T44" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="U44" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="V44" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="U44" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="V44" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" s="18" customFormat="1">
+    </row>
+    <row r="45" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C45" s="22">
         <v>15000000</v>
@@ -5961,7 +5968,7 @@
         <v>18000000</v>
       </c>
       <c r="S45" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T45" s="26">
         <v>0.03</v>
@@ -5973,26 +5980,26 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="46" spans="1:22" s="18" customFormat="1">
+    <row r="46" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
       <c r="T46" s="6"/>
     </row>
-    <row r="47" spans="1:22" s="18" customFormat="1">
+    <row r="47" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
       <c r="T47" s="6"/>
     </row>
-    <row r="48" spans="1:22" s="18" customFormat="1">
+    <row r="48" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
       <c r="T48" s="6"/>
     </row>
-    <row r="49" spans="1:22" s="18" customFormat="1">
+    <row r="49" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B49" s="6"/>
       <c r="T49" s="6"/>
     </row>
-    <row r="50" spans="1:22" s="18" customFormat="1">
+    <row r="50" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
       <c r="C50" s="19">
         <v>2000</v>
@@ -6043,18 +6050,18 @@
         <v>2015</v>
       </c>
       <c r="T50" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="U50" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="V50" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="U50" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="V50" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" s="18" customFormat="1">
+    </row>
+    <row r="51" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
@@ -6073,7 +6080,7 @@
       <c r="Q51" s="22"/>
       <c r="R51" s="22"/>
       <c r="S51" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T51" s="26">
         <v>0.03</v>
@@ -6085,26 +6092,26 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="52" spans="1:22" s="18" customFormat="1">
+    <row r="52" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
       <c r="T52" s="6"/>
     </row>
-    <row r="53" spans="1:22" s="18" customFormat="1">
+    <row r="53" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
       <c r="T53" s="6"/>
     </row>
-    <row r="54" spans="1:22" s="18" customFormat="1">
+    <row r="54" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
       <c r="T54" s="6"/>
     </row>
-    <row r="55" spans="1:22" s="18" customFormat="1">
+    <row r="55" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B55" s="6"/>
       <c r="T55" s="6"/>
     </row>
-    <row r="56" spans="1:22" s="18" customFormat="1">
+    <row r="56" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="C56" s="19">
         <v>2000</v>
@@ -6155,18 +6162,18 @@
         <v>2015</v>
       </c>
       <c r="T56" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="U56" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="V56" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="U56" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="V56" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" s="18" customFormat="1">
+    </row>
+    <row r="57" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C57" s="22"/>
       <c r="D57" s="22"/>
@@ -6185,7 +6192,7 @@
       <c r="Q57" s="22"/>
       <c r="R57" s="22"/>
       <c r="S57" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T57" s="26">
         <v>0.03</v>
@@ -6197,14 +6204,14 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="61" spans="1:22" s="18" customFormat="1">
+    <row r="61" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B61" s="6"/>
       <c r="T61" s="6"/>
     </row>
-    <row r="62" spans="1:22" s="18" customFormat="1">
+    <row r="62" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="6"/>
       <c r="C62" s="19">
         <v>2000</v>
@@ -6255,18 +6262,18 @@
         <v>2015</v>
       </c>
       <c r="T62" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="U62" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="V62" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="U62" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="V62" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" s="18" customFormat="1">
+    </row>
+    <row r="63" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C63" s="22"/>
       <c r="D63" s="22"/>
@@ -6285,7 +6292,7 @@
       <c r="Q63" s="22"/>
       <c r="R63" s="22"/>
       <c r="S63" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T63" s="26">
         <v>0.03</v>
@@ -6297,26 +6304,26 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="64" spans="1:22" s="18" customFormat="1">
+    <row r="64" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="6"/>
       <c r="T64" s="6"/>
     </row>
-    <row r="65" spans="1:22" s="18" customFormat="1">
+    <row r="65" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="6"/>
       <c r="T65" s="6"/>
     </row>
-    <row r="66" spans="1:22" s="18" customFormat="1">
+    <row r="66" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="6"/>
       <c r="T66" s="6"/>
     </row>
-    <row r="67" spans="1:22" s="18" customFormat="1">
+    <row r="67" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B67" s="6"/>
       <c r="T67" s="6"/>
     </row>
-    <row r="68" spans="1:22" s="18" customFormat="1">
+    <row r="68" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
       <c r="C68" s="19">
         <v>2000</v>
@@ -6367,18 +6374,18 @@
         <v>2015</v>
       </c>
       <c r="T68" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="U68" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="V68" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="U68" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="V68" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" s="18" customFormat="1">
+    </row>
+    <row r="69" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C69" s="22"/>
       <c r="D69" s="22"/>
@@ -6397,7 +6404,7 @@
       <c r="Q69" s="22"/>
       <c r="R69" s="22"/>
       <c r="S69" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T69" s="26">
         <v>0.03</v>
@@ -6409,13 +6416,13 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="73" spans="1:22">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B73" s="18"/>
     </row>
-    <row r="74" spans="1:22">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="18"/>
       <c r="B74" s="18"/>
       <c r="C74" s="19">
@@ -6468,19 +6475,19 @@
       </c>
       <c r="S74" s="18"/>
       <c r="T74" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="U74" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="V74" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="U74" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="V74" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22">
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="18"/>
       <c r="B75" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C75" s="22">
         <v>0</v>
@@ -6546,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="S75" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T75" s="26">
         <v>0.03</v>
@@ -6558,10 +6565,10 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="76" spans="1:22">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="18"/>
       <c r="B76" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C76" s="22">
         <v>100</v>
@@ -6627,7 +6634,7 @@
         <v>100</v>
       </c>
       <c r="S76" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T76" s="26">
         <v>0.03</v>
@@ -6639,10 +6646,10 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="18"/>
       <c r="B77" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C77" s="22">
         <v>100</v>
@@ -6708,7 +6715,7 @@
         <v>100</v>
       </c>
       <c r="S77" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T77" s="26">
         <v>0.03</v>
@@ -6720,9 +6727,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="78" spans="1:22" s="18" customFormat="1">
+    <row r="78" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C78" s="22">
         <v>150</v>
@@ -6788,7 +6795,7 @@
         <v>150</v>
       </c>
       <c r="S78" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T78" s="26">
         <v>0.03</v>
@@ -6800,10 +6807,10 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="79" spans="1:22">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="18"/>
       <c r="B79" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C79" s="22">
         <v>200</v>
@@ -6869,7 +6876,7 @@
         <v>200</v>
       </c>
       <c r="S79" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T79" s="26">
         <v>0.03</v>
@@ -6881,10 +6888,10 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="80" spans="1:22">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="18"/>
       <c r="B80" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C80" s="22">
         <v>450</v>
@@ -6950,7 +6957,7 @@
         <v>450</v>
       </c>
       <c r="S80" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T80" s="26">
         <v>0.03</v>
@@ -6962,25 +6969,25 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="81" spans="1:22">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="18"/>
       <c r="B81" s="18"/>
     </row>
-    <row r="82" spans="1:22">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="18"/>
       <c r="B82" s="18"/>
     </row>
-    <row r="83" spans="1:22">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="18"/>
       <c r="B83" s="18"/>
     </row>
-    <row r="84" spans="1:22">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B84" s="18"/>
     </row>
-    <row r="85" spans="1:22">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="18"/>
       <c r="B85" s="18"/>
       <c r="C85" s="19">
@@ -7033,19 +7040,19 @@
       </c>
       <c r="S85" s="18"/>
       <c r="T85" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="U85" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="V85" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="U85" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="V85" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22">
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" s="18"/>
       <c r="B86" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C86" s="22">
         <v>0</v>
@@ -7111,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="S86" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T86" s="26">
         <v>0.03</v>
@@ -7123,10 +7130,10 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="87" spans="1:22">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="18"/>
       <c r="B87" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C87" s="22">
         <v>100</v>
@@ -7192,7 +7199,7 @@
         <v>100</v>
       </c>
       <c r="S87" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T87" s="26">
         <v>0.03</v>
@@ -7204,9 +7211,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="88" spans="1:22" s="18" customFormat="1">
+    <row r="88" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C88" s="22">
         <v>100</v>
@@ -7272,7 +7279,7 @@
         <v>100</v>
       </c>
       <c r="S88" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T88" s="26">
         <v>0.03</v>
@@ -7284,10 +7291,10 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="89" spans="1:22">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" s="18"/>
       <c r="B89" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C89" s="22">
         <v>1000</v>
@@ -7353,7 +7360,7 @@
         <v>1000</v>
       </c>
       <c r="S89" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T89" s="26">
         <v>0.03</v>
@@ -7365,10 +7372,10 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="90" spans="1:22">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="18"/>
       <c r="B90" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C90" s="22">
         <v>10000</v>
@@ -7434,7 +7441,7 @@
         <v>10000</v>
       </c>
       <c r="S90" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T90" s="26">
         <v>0.03</v>
@@ -7446,10 +7453,10 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="91" spans="1:22">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" s="18"/>
       <c r="B91" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C91" s="22">
         <v>10000</v>
@@ -7515,7 +7522,7 @@
         <v>10000</v>
       </c>
       <c r="S91" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T91" s="26">
         <v>0.03</v>
@@ -7528,7 +7535,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
@@ -7544,66 +7551,66 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="20"/>
+    <col min="1" max="1" width="9.140625" style="20"/>
     <col min="2" max="2" width="5" style="20" customWidth="1"/>
     <col min="3" max="3" width="18" style="20" customWidth="1"/>
-    <col min="4" max="4" width="55.5" style="20" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="20" customWidth="1"/>
-    <col min="6" max="7" width="9.1640625" style="20"/>
-    <col min="8" max="9" width="14.1640625" style="20" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" style="20" customWidth="1"/>
-    <col min="11" max="16384" width="9.1640625" style="20"/>
+    <col min="4" max="4" width="55.42578125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="20" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="20"/>
+    <col min="8" max="9" width="14.140625" style="20" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="20" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C2" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E2" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>103</v>
-      </c>
       <c r="H2" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="J2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="K2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="21">
         <v>1</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E3" s="41" t="b">
         <v>1</v>
@@ -7615,10 +7622,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="41" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" s="41" t="b">
-        <v>1</v>
       </c>
       <c r="J3" s="41" t="b">
         <v>0</v>
@@ -7627,15 +7634,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="21">
         <v>2</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" s="41" t="b">
         <v>0</v>
@@ -7659,7 +7666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="21">
         <v>3</v>
       </c>
@@ -7679,10 +7686,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="41" t="b">
         <v>1</v>
-      </c>
-      <c r="I5" s="41" t="b">
-        <v>0</v>
       </c>
       <c r="J5" s="41" t="b">
         <v>0</v>
@@ -7691,15 +7698,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="21">
         <v>4</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" s="41" t="b">
         <v>1</v>
@@ -7711,10 +7718,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="41" t="b">
         <v>1</v>
-      </c>
-      <c r="I6" s="41" t="b">
-        <v>0</v>
       </c>
       <c r="J6" s="41" t="b">
         <v>0</v>
@@ -7723,15 +7730,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="21">
         <v>5</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" s="41" t="b">
         <v>0</v>
@@ -7755,15 +7762,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="21">
         <v>6</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8" s="41" t="b">
         <v>1</v>
@@ -7775,10 +7782,10 @@
         <v>0</v>
       </c>
       <c r="H8" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="41" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" s="41" t="b">
-        <v>0</v>
       </c>
       <c r="J8" s="41" t="b">
         <v>0</v>
@@ -7787,31 +7794,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="21"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="21"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B12" s="21"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="21"/>
       <c r="C13" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="21">
         <v>1</v>
       </c>
@@ -7822,29 +7829,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="21">
         <v>2</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="21">
         <v>3</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="21">
         <v>4</v>
       </c>
@@ -7855,41 +7862,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="21">
         <v>5</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="21">
         <v>6</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="21">
         <v>7</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -7908,23 +7915,23 @@
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.1640625" style="18"/>
+    <col min="1" max="2" width="9.140625" style="18"/>
     <col min="3" max="3" width="11" style="18" customWidth="1"/>
-    <col min="4" max="13" width="9.1640625" style="18"/>
-    <col min="14" max="14" width="9.83203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="9.1640625" style="18"/>
-    <col min="21" max="21" width="15.1640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="18"/>
+    <col min="4" max="13" width="9.140625" style="18"/>
+    <col min="14" max="14" width="9.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="9.140625" style="18"/>
+    <col min="21" max="21" width="15.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D2" s="19">
         <v>2000</v>
       </c>
@@ -7974,16 +7981,16 @@
         <v>2015</v>
       </c>
       <c r="U2" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="str">
         <f>'Populations &amp; programs'!$C$14</f>
         <v>SBCC</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="25">
@@ -8016,17 +8023,17 @@
       <c r="R3" s="22"/>
       <c r="S3" s="22"/>
       <c r="T3" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U3" s="25"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="str">
         <f>'Populations &amp; programs'!$C$14</f>
         <v>SBCC</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="27">
@@ -8066,20 +8073,20 @@
       <c r="R4" s="24"/>
       <c r="S4" s="24"/>
       <c r="T4" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U4" s="37"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="str">
         <f>'Populations &amp; programs'!$C$15</f>
         <v>NSP</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="25"/>
@@ -8098,19 +8105,19 @@
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
       <c r="T6" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U6" s="25">
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="str">
         <f>'Populations &amp; programs'!$C$15</f>
         <v>NSP</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="23"/>
@@ -8129,22 +8136,22 @@
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
       <c r="T7" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U7" s="47">
         <v>25000</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="str">
         <f>'Populations &amp; programs'!$C$16</f>
         <v>OST</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="25"/>
@@ -8165,18 +8172,18 @@
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
       <c r="T9" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U9" s="25"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="4" t="str">
         <f>'Populations &amp; programs'!$C$16</f>
         <v>OST</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="23"/>
@@ -8198,22 +8205,22 @@
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
       <c r="T10" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U10" s="37"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="4" t="str">
         <f>'Populations &amp; programs'!$C$17</f>
         <v>MSM programs</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="25"/>
@@ -8234,18 +8241,18 @@
       <c r="R12" s="22"/>
       <c r="S12" s="22"/>
       <c r="T12" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U12" s="25"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="str">
         <f>'Populations &amp; programs'!$C$17</f>
         <v>MSM programs</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="23"/>
@@ -8266,17 +8273,17 @@
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
       <c r="T13" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U13" s="37"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="str">
         <f>'Populations &amp; programs'!$C$18</f>
         <v>FSW programs</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="25"/>
@@ -8297,17 +8304,17 @@
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
       <c r="T15" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U15" s="25"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="str">
         <f>'Populations &amp; programs'!$C$18</f>
         <v>FSW programs</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
@@ -8328,17 +8335,17 @@
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
       <c r="T16" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U16" s="37"/>
     </row>
-    <row r="18" spans="2:21">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="str">
         <f>'Populations &amp; programs'!$C$19</f>
         <v>ART</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="25"/>
@@ -8359,17 +8366,17 @@
       <c r="R18" s="22"/>
       <c r="S18" s="22"/>
       <c r="T18" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U18" s="25"/>
     </row>
-    <row r="19" spans="2:21">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="str">
         <f>'Populations &amp; programs'!$C$19</f>
         <v>ART</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="23"/>
@@ -8391,17 +8398,17 @@
       <c r="R19" s="22"/>
       <c r="S19" s="22"/>
       <c r="T19" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U19" s="37"/>
     </row>
-    <row r="21" spans="2:21">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="str">
         <f>'Populations &amp; programs'!$C$20</f>
         <v>PMTCT</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="25"/>
@@ -8422,17 +8429,17 @@
       <c r="R21" s="22"/>
       <c r="S21" s="22"/>
       <c r="T21" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U21" s="25"/>
     </row>
-    <row r="22" spans="2:21">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="str">
         <f>'Populations &amp; programs'!$C$20</f>
         <v>PMTCT</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
@@ -8454,12 +8461,12 @@
       <c r="R22" s="22"/>
       <c r="S22" s="22"/>
       <c r="T22" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U22" s="37"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -8478,22 +8485,22 @@
       <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.1640625" style="18"/>
-    <col min="4" max="4" width="9.5" style="18" customWidth="1"/>
-    <col min="5" max="20" width="9.1640625" style="18"/>
-    <col min="21" max="21" width="15.1640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.83203125" style="18" customWidth="1"/>
-    <col min="23" max="16384" width="9.1640625" style="18"/>
+    <col min="1" max="3" width="9.140625" style="18"/>
+    <col min="4" max="4" width="9.42578125" style="18" customWidth="1"/>
+    <col min="5" max="20" width="9.140625" style="18"/>
+    <col min="21" max="21" width="15.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" style="18" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D2" s="19">
         <v>2000</v>
       </c>
@@ -8543,16 +8550,16 @@
         <v>2015</v>
       </c>
       <c r="U2" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
@@ -8571,19 +8578,19 @@
       <c r="R3" s="27"/>
       <c r="S3" s="27"/>
       <c r="T3" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U3" s="27">
         <v>37500</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
@@ -8602,19 +8609,19 @@
       <c r="R4" s="27"/>
       <c r="S4" s="27"/>
       <c r="T4" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U4" s="27">
         <v>21000</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -8633,24 +8640,24 @@
       <c r="R5" s="27"/>
       <c r="S5" s="27"/>
       <c r="T5" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U5" s="27">
         <v>11000</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="U6" s="28"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -8669,17 +8676,17 @@
       <c r="R7" s="27"/>
       <c r="S7" s="27"/>
       <c r="T7" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U7" s="27"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
@@ -8698,19 +8705,19 @@
       <c r="R8" s="27"/>
       <c r="S8" s="27"/>
       <c r="T8" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U8" s="27">
         <v>15000</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
@@ -8729,11 +8736,11 @@
       <c r="R9" s="27"/>
       <c r="S9" s="27"/>
       <c r="T9" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U9" s="27"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="28"/>
@@ -8754,13 +8761,13 @@
       <c r="S10" s="28"/>
       <c r="U10" s="28"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
@@ -8789,17 +8796,17 @@
       <c r="R11" s="27"/>
       <c r="S11" s="27"/>
       <c r="T11" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U11" s="27"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
@@ -8828,17 +8835,17 @@
       <c r="R12" s="27"/>
       <c r="S12" s="27"/>
       <c r="T12" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U12" s="27"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
@@ -8867,11 +8874,11 @@
       <c r="R13" s="27"/>
       <c r="S13" s="27"/>
       <c r="T13" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U13" s="27"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="28"/>
@@ -8892,13 +8899,13 @@
       <c r="S14" s="28"/>
       <c r="U14" s="28"/>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
@@ -8917,17 +8924,17 @@
       <c r="R15" s="27"/>
       <c r="S15" s="27"/>
       <c r="T15" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U15" s="27"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D16" s="22">
         <v>4227500</v>
@@ -8978,17 +8985,17 @@
         <v>6118320.6906761518</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U16" s="27"/>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
@@ -9007,11 +9014,11 @@
       <c r="R17" s="27"/>
       <c r="S17" s="27"/>
       <c r="T17" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U17" s="27"/>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="28"/>
@@ -9032,13 +9039,13 @@
       <c r="S18" s="28"/>
       <c r="U18" s="28"/>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
@@ -9057,17 +9064,17 @@
       <c r="R19" s="27"/>
       <c r="S19" s="27"/>
       <c r="T19" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U19" s="27"/>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D20" s="22">
         <v>4759641.7668505535</v>
@@ -9118,17 +9125,17 @@
         <v>7061706.1901886221</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U20" s="27"/>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
@@ -9147,11 +9154,11 @@
       <c r="R21" s="27"/>
       <c r="S21" s="27"/>
       <c r="T21" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U21" s="27"/>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="28"/>
@@ -9172,13 +9179,13 @@
       <c r="S22" s="28"/>
       <c r="U22" s="28"/>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
@@ -9197,17 +9204,17 @@
       <c r="R23" s="27"/>
       <c r="S23" s="27"/>
       <c r="T23" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U23" s="27"/>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D24" s="22">
         <v>522500</v>
@@ -9258,17 +9265,17 @@
         <v>756196.93929705245</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U24" s="27"/>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
@@ -9287,16 +9294,16 @@
       <c r="R25" s="27"/>
       <c r="S25" s="27"/>
       <c r="T25" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U25" s="27"/>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D30" s="19">
         <v>2000</v>
       </c>
@@ -9346,16 +9353,16 @@
         <v>2015</v>
       </c>
       <c r="U30" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
@@ -9376,17 +9383,17 @@
       <c r="R31" s="22"/>
       <c r="S31" s="22"/>
       <c r="T31" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U31" s="26"/>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
@@ -9407,17 +9414,17 @@
       <c r="R32" s="22"/>
       <c r="S32" s="22"/>
       <c r="T32" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U32" s="26"/>
     </row>
-    <row r="33" spans="2:21">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -9438,21 +9445,21 @@
       <c r="R33" s="22"/>
       <c r="S33" s="22"/>
       <c r="T33" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U33" s="26"/>
     </row>
-    <row r="34" spans="2:21">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="2:21">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -9477,17 +9484,17 @@
       <c r="R35" s="22"/>
       <c r="S35" s="22"/>
       <c r="T35" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U35" s="26"/>
     </row>
-    <row r="36" spans="2:21">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
@@ -9512,17 +9519,17 @@
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
       <c r="T36" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U36" s="26"/>
     </row>
-    <row r="37" spans="2:21">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
@@ -9547,21 +9554,21 @@
       <c r="R37" s="22"/>
       <c r="S37" s="22"/>
       <c r="T37" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U37" s="26"/>
     </row>
-    <row r="38" spans="2:21">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="2:21">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
@@ -9586,17 +9593,17 @@
       <c r="R39" s="22"/>
       <c r="S39" s="22"/>
       <c r="T39" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U39" s="26"/>
     </row>
-    <row r="40" spans="2:21">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
@@ -9621,17 +9628,17 @@
       <c r="R40" s="22"/>
       <c r="S40" s="22"/>
       <c r="T40" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U40" s="26"/>
     </row>
-    <row r="41" spans="2:21">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
@@ -9656,21 +9663,21 @@
       <c r="R41" s="22"/>
       <c r="S41" s="22"/>
       <c r="T41" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U41" s="26"/>
     </row>
-    <row r="42" spans="2:21">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="2:21">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
@@ -9689,17 +9696,17 @@
       <c r="R43" s="22"/>
       <c r="S43" s="22"/>
       <c r="T43" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U43" s="26"/>
     </row>
-    <row r="44" spans="2:21">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
@@ -9718,19 +9725,19 @@
       <c r="R44" s="22"/>
       <c r="S44" s="22"/>
       <c r="T44" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U44" s="26">
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="45" spans="2:21">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
@@ -9749,21 +9756,21 @@
       <c r="R45" s="22"/>
       <c r="S45" s="22"/>
       <c r="T45" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U45" s="26"/>
     </row>
-    <row r="46" spans="2:21">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
     </row>
-    <row r="47" spans="2:21">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D47" s="22"/>
       <c r="E47" s="22"/>
@@ -9782,17 +9789,17 @@
       <c r="R47" s="22"/>
       <c r="S47" s="22"/>
       <c r="T47" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U47" s="26"/>
     </row>
-    <row r="48" spans="2:21">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
@@ -9819,17 +9826,17 @@
       <c r="R48" s="22"/>
       <c r="S48" s="22"/>
       <c r="T48" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U48" s="26"/>
     </row>
-    <row r="49" spans="2:21">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
@@ -9848,21 +9855,21 @@
       <c r="R49" s="22"/>
       <c r="S49" s="22"/>
       <c r="T49" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U49" s="26"/>
     </row>
-    <row r="50" spans="2:21">
+    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
     </row>
-    <row r="51" spans="2:21">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
@@ -9881,17 +9888,17 @@
       <c r="R51" s="22"/>
       <c r="S51" s="22"/>
       <c r="T51" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U51" s="26"/>
     </row>
-    <row r="52" spans="2:21">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
@@ -9910,19 +9917,19 @@
       <c r="R52" s="22"/>
       <c r="S52" s="22"/>
       <c r="T52" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U52" s="26">
         <v>0.01</v>
       </c>
     </row>
-    <row r="53" spans="2:21">
+    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
@@ -9941,12 +9948,12 @@
       <c r="R53" s="22"/>
       <c r="S53" s="22"/>
       <c r="T53" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U53" s="26"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -9963,15 +9970,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.5" style="6"/>
-    <col min="20" max="20" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="6"/>
+    <col min="20" max="20" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -9992,7 +9999,7 @@
       <c r="S1" s="9"/>
       <c r="T1" s="9"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="C2" s="10">
         <v>2000</v>
@@ -10044,13 +10051,13 @@
       </c>
       <c r="S2" s="9"/>
       <c r="T2" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
@@ -10069,19 +10076,19 @@
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
       <c r="S3" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T3" s="22"/>
     </row>
-    <row r="5" spans="1:20" s="18" customFormat="1">
+    <row r="5" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:20" s="18" customFormat="1">
+    <row r="6" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -10102,7 +10109,7 @@
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="C8" s="10">
         <v>2000</v>
@@ -10154,13 +10161,13 @@
       </c>
       <c r="S8" s="9"/>
       <c r="T8" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -10203,19 +10210,19 @@
       <c r="Q9" s="22"/>
       <c r="R9" s="22"/>
       <c r="S9" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T9" s="22"/>
     </row>
-    <row r="11" spans="1:20" s="18" customFormat="1">
+    <row r="11" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:20" s="18" customFormat="1">
+    <row r="12" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -10236,7 +10243,7 @@
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="C14" s="10">
         <v>2000</v>
@@ -10288,13 +10295,13 @@
       </c>
       <c r="S14" s="9"/>
       <c r="T14" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
@@ -10313,23 +10320,23 @@
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
       <c r="S15" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T15" s="22"/>
     </row>
-    <row r="17" spans="1:20" s="18" customFormat="1">
+    <row r="17" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
     </row>
-    <row r="18" spans="1:20" s="18" customFormat="1">
+    <row r="18" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="1:20" s="18" customFormat="1">
+    <row r="19" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B19" s="6"/>
     </row>
-    <row r="20" spans="1:20" s="18" customFormat="1">
+    <row r="20" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="C20" s="19">
         <v>2000</v>
@@ -10380,12 +10387,12 @@
         <v>2015</v>
       </c>
       <c r="T20" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" s="18" customFormat="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -10404,20 +10411,20 @@
       <c r="Q21" s="22"/>
       <c r="R21" s="22"/>
       <c r="S21" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T21" s="22"/>
     </row>
-    <row r="22" spans="1:20" s="18" customFormat="1">
+    <row r="22" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:20" s="18" customFormat="1">
+    <row r="23" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="1:20" s="18" customFormat="1">
+    <row r="24" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>16</v>
       </c>
@@ -10440,7 +10447,7 @@
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="C26" s="10">
         <v>2000</v>
@@ -10492,13 +10499,13 @@
       </c>
       <c r="S26" s="9"/>
       <c r="T26" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -10517,17 +10524,17 @@
       <c r="Q27" s="22"/>
       <c r="R27" s="22"/>
       <c r="S27" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T27" s="22"/>
     </row>
-    <row r="31" spans="1:20" s="18" customFormat="1">
+    <row r="31" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B31" s="6"/>
     </row>
-    <row r="32" spans="1:20" s="18" customFormat="1">
+    <row r="32" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="19">
         <v>2000</v>
@@ -10578,12 +10585,12 @@
         <v>2015</v>
       </c>
       <c r="T32" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" s="18" customFormat="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
@@ -10602,12 +10609,12 @@
       <c r="Q33" s="22"/>
       <c r="R33" s="22"/>
       <c r="S33" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T33" s="22"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -10626,18 +10633,18 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.5" style="6"/>
+    <col min="2" max="2" width="8.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="18" customFormat="1">
+    <row r="1" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:20" s="18" customFormat="1">
+    <row r="2" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
       <c r="C2" s="19">
         <v>2000</v>
@@ -10688,10 +10695,10 @@
         <v>2015</v>
       </c>
       <c r="T2" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="18" customFormat="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -10713,13 +10720,13 @@
       <c r="Q3" s="25"/>
       <c r="R3" s="25"/>
       <c r="S3" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T3" s="25">
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="18" customFormat="1">
+    <row r="4" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -10741,13 +10748,13 @@
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
       <c r="S4" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T4" s="25">
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="18" customFormat="1">
+    <row r="5" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
@@ -10769,13 +10776,13 @@
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
       <c r="S5" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T5" s="25">
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="18" customFormat="1">
+    <row r="6" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
@@ -10797,13 +10804,13 @@
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
       <c r="S6" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T6" s="25">
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="18" customFormat="1">
+    <row r="7" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
@@ -10825,13 +10832,13 @@
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="S7" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T7" s="25">
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="18" customFormat="1">
+    <row r="8" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
@@ -10853,24 +10860,24 @@
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T8" s="25">
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="18" customFormat="1">
+    <row r="9" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:20" s="18" customFormat="1">
+    <row r="10" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:20" s="18" customFormat="1">
+    <row r="11" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -10891,7 +10898,7 @@
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="C13" s="8">
         <v>2000</v>
@@ -10943,10 +10950,10 @@
       </c>
       <c r="S13" s="7"/>
       <c r="T13" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -10969,13 +10976,13 @@
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
       <c r="S14" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T14" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -10998,13 +11005,13 @@
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
       <c r="S15" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T15" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -11027,13 +11034,13 @@
       <c r="Q16" s="22"/>
       <c r="R16" s="22"/>
       <c r="S16" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T16" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -11056,13 +11063,13 @@
       <c r="Q17" s="22"/>
       <c r="R17" s="22"/>
       <c r="S17" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T17" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -11085,13 +11092,13 @@
       <c r="Q18" s="22"/>
       <c r="R18" s="22"/>
       <c r="S18" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T18" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -11114,28 +11121,28 @@
       <c r="Q19" s="22"/>
       <c r="R19" s="22"/>
       <c r="S19" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T19" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="18" customFormat="1">
+    <row r="20" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="1:20" s="18" customFormat="1">
+    <row r="21" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="1:20" s="18" customFormat="1">
+    <row r="22" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:20" s="18" customFormat="1">
+    <row r="23" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="1:20" s="18" customFormat="1">
+    <row r="24" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="19">
         <v>2000</v>
@@ -11186,10 +11193,10 @@
         <v>2015</v>
       </c>
       <c r="T24" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" s="18" customFormat="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -11211,13 +11218,13 @@
       <c r="Q25" s="22"/>
       <c r="R25" s="22"/>
       <c r="S25" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T25" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="18" customFormat="1">
+    <row r="26" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -11239,13 +11246,13 @@
       <c r="Q26" s="22"/>
       <c r="R26" s="22"/>
       <c r="S26" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T26" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="18" customFormat="1">
+    <row r="27" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
@@ -11267,13 +11274,13 @@
       <c r="Q27" s="22"/>
       <c r="R27" s="22"/>
       <c r="S27" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T27" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="18" customFormat="1">
+    <row r="28" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
@@ -11295,13 +11302,13 @@
       <c r="Q28" s="22"/>
       <c r="R28" s="22"/>
       <c r="S28" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T28" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="18" customFormat="1">
+    <row r="29" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
@@ -11323,13 +11330,13 @@
       <c r="Q29" s="22"/>
       <c r="R29" s="22"/>
       <c r="S29" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T29" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="18" customFormat="1">
+    <row r="30" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
@@ -11351,26 +11358,26 @@
       <c r="Q30" s="22"/>
       <c r="R30" s="22"/>
       <c r="S30" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T30" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S31" s="5"/>
     </row>
-    <row r="32" spans="1:20" s="18" customFormat="1">
+    <row r="32" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="S32" s="5"/>
     </row>
-    <row r="33" spans="1:20" s="18" customFormat="1">
+    <row r="33" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="S33" s="5"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -11391,7 +11398,7 @@
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="C35" s="8">
         <v>2000</v>
@@ -11443,10 +11450,10 @@
       </c>
       <c r="S35" s="7"/>
       <c r="T35" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -11469,13 +11476,13 @@
       <c r="Q36" s="22"/>
       <c r="R36" s="22"/>
       <c r="S36" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T36" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -11497,13 +11504,13 @@
       <c r="Q37" s="22"/>
       <c r="R37" s="22"/>
       <c r="S37" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T37" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
@@ -11525,13 +11532,13 @@
       <c r="Q38" s="22"/>
       <c r="R38" s="22"/>
       <c r="S38" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T38" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
@@ -11553,13 +11560,13 @@
       <c r="Q39" s="22"/>
       <c r="R39" s="22"/>
       <c r="S39" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T39" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
@@ -11581,13 +11588,13 @@
       <c r="Q40" s="22"/>
       <c r="R40" s="22"/>
       <c r="S40" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T40" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
@@ -11609,17 +11616,17 @@
       <c r="Q41" s="22"/>
       <c r="R41" s="22"/>
       <c r="S41" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T41" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S42" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -11638,13 +11645,13 @@
       <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.5" style="6"/>
-    <col min="20" max="20" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="6"/>
+    <col min="20" max="20" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
@@ -11667,7 +11674,7 @@
       <c r="S1" s="9"/>
       <c r="T1" s="9"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="C2" s="10">
         <v>2000</v>
@@ -11719,10 +11726,10 @@
       </c>
       <c r="S2" s="9"/>
       <c r="T2" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -11745,13 +11752,13 @@
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
       <c r="S3" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T3" s="25">
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -11778,11 +11785,11 @@
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
       <c r="S4" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T4" s="25"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -11811,11 +11818,11 @@
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
       <c r="S5" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T5" s="22"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -11838,13 +11845,13 @@
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
       <c r="S6" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T6" s="25">
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -11867,13 +11874,13 @@
       <c r="Q7" s="25"/>
       <c r="R7" s="22"/>
       <c r="S7" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T7" s="25">
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -11896,21 +11903,21 @@
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T8" s="25">
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="18" customFormat="1">
+    <row r="10" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:20" s="18" customFormat="1">
+    <row r="11" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -11931,7 +11938,7 @@
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="C13" s="10">
         <v>2000</v>
@@ -11983,13 +11990,13 @@
       </c>
       <c r="S13" s="9"/>
       <c r="T13" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
@@ -12008,19 +12015,19 @@
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
       <c r="S14" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T14" s="25">
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="18" customFormat="1">
+    <row r="16" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
     </row>
-    <row r="17" spans="1:20" s="18" customFormat="1">
+    <row r="17" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>15</v>
       </c>
@@ -12043,7 +12050,7 @@
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="C19" s="10">
         <v>2000</v>
@@ -12095,13 +12102,13 @@
       </c>
       <c r="S19" s="9"/>
       <c r="T19" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C20" s="22">
         <v>0</v>
@@ -12148,19 +12155,19 @@
       <c r="Q20" s="22"/>
       <c r="R20" s="22"/>
       <c r="S20" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T20" s="22"/>
     </row>
-    <row r="21" spans="1:20" s="18" customFormat="1">
+    <row r="21" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="1:20" s="18" customFormat="1">
+    <row r="22" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -12181,7 +12188,7 @@
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="C25" s="10">
         <v>2000</v>
@@ -12233,13 +12240,13 @@
       </c>
       <c r="S25" s="9"/>
       <c r="T25" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C26" s="22">
         <v>0</v>
@@ -12286,26 +12293,26 @@
       <c r="Q26" s="22"/>
       <c r="R26" s="22"/>
       <c r="S26" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T26" s="22"/>
     </row>
-    <row r="27" spans="1:20" s="18" customFormat="1">
+    <row r="27" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
     </row>
-    <row r="28" spans="1:20" s="18" customFormat="1" ht="14.25" customHeight="1">
+    <row r="28" spans="1:20" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
     </row>
-    <row r="29" spans="1:20" s="18" customFormat="1">
+    <row r="29" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
     </row>
-    <row r="30" spans="1:20" s="18" customFormat="1">
+    <row r="30" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B30" s="6"/>
     </row>
-    <row r="31" spans="1:20" s="18" customFormat="1">
+    <row r="31" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="C31" s="19">
         <v>2000</v>
@@ -12356,12 +12363,12 @@
         <v>2015</v>
       </c>
       <c r="T31" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" s="18" customFormat="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C32" s="22">
         <v>350</v>
@@ -12408,26 +12415,26 @@
       <c r="Q32" s="22"/>
       <c r="R32" s="22"/>
       <c r="S32" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T32" s="22"/>
     </row>
-    <row r="33" spans="1:20" s="18" customFormat="1">
+    <row r="33" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
     </row>
-    <row r="34" spans="1:20" s="18" customFormat="1">
+    <row r="34" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="1:20" s="18" customFormat="1">
+    <row r="35" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
     </row>
-    <row r="36" spans="1:20" s="18" customFormat="1">
+    <row r="36" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B36" s="6"/>
     </row>
-    <row r="37" spans="1:20" s="18" customFormat="1">
+    <row r="37" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
       <c r="C37" s="19">
         <v>2000</v>
@@ -12478,10 +12485,10 @@
         <v>2015</v>
       </c>
       <c r="T37" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" s="18" customFormat="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -12503,13 +12510,13 @@
       <c r="Q38" s="22"/>
       <c r="R38" s="22"/>
       <c r="S38" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T38" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="18" customFormat="1">
+    <row r="39" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -12531,13 +12538,13 @@
       <c r="Q39" s="22"/>
       <c r="R39" s="22"/>
       <c r="S39" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T39" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="18" customFormat="1">
+    <row r="40" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
@@ -12559,13 +12566,13 @@
       <c r="Q40" s="22"/>
       <c r="R40" s="22"/>
       <c r="S40" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T40" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="18" customFormat="1">
+    <row r="41" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
@@ -12587,13 +12594,13 @@
       <c r="Q41" s="22"/>
       <c r="R41" s="22"/>
       <c r="S41" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T41" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="18" customFormat="1">
+    <row r="42" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
@@ -12615,14 +12622,14 @@
       <c r="Q42" s="25"/>
       <c r="R42" s="22"/>
       <c r="S42" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T42" s="24">
         <f>2/50</f>
         <v>0.04</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="18" customFormat="1">
+    <row r="43" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
@@ -12644,24 +12651,24 @@
       <c r="Q43" s="22"/>
       <c r="R43" s="22"/>
       <c r="S43" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T43" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="18" customFormat="1">
+    <row r="44" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
     </row>
-    <row r="45" spans="1:20" s="18" customFormat="1">
+    <row r="45" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
     </row>
-    <row r="46" spans="1:20" s="18" customFormat="1">
+    <row r="46" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -12682,7 +12689,7 @@
       <c r="S47" s="9"/>
       <c r="T47" s="9"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="C48" s="10">
         <v>2000</v>
@@ -12734,13 +12741,13 @@
       </c>
       <c r="S48" s="9"/>
       <c r="T48" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
@@ -12769,26 +12776,26 @@
       <c r="Q49" s="27"/>
       <c r="R49" s="27"/>
       <c r="S49" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T49" s="22"/>
     </row>
-    <row r="50" spans="1:20" s="18" customFormat="1">
+    <row r="50" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
     </row>
-    <row r="51" spans="1:20" s="18" customFormat="1">
+    <row r="51" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
     </row>
-    <row r="52" spans="1:20" s="18" customFormat="1">
+    <row r="52" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
     </row>
-    <row r="53" spans="1:20" s="18" customFormat="1">
+    <row r="53" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B53" s="6"/>
     </row>
-    <row r="54" spans="1:20" s="18" customFormat="1">
+    <row r="54" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
       <c r="C54" s="19">
         <v>2000</v>
@@ -12839,10 +12846,10 @@
         <v>2015</v>
       </c>
       <c r="T54" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" s="18" customFormat="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -12864,13 +12871,13 @@
       <c r="Q55" s="22"/>
       <c r="R55" s="22"/>
       <c r="S55" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T55" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20" s="18" customFormat="1">
+    <row r="56" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
@@ -12892,20 +12899,20 @@
       <c r="Q56" s="25"/>
       <c r="R56" s="22"/>
       <c r="S56" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T56" s="24">
         <f>2/50</f>
         <v>0.04</v>
       </c>
     </row>
-    <row r="60" spans="1:20" s="18" customFormat="1">
+    <row r="60" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B60" s="6"/>
     </row>
-    <row r="61" spans="1:20" s="18" customFormat="1">
+    <row r="61" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="6"/>
       <c r="C61" s="19">
         <v>2000</v>
@@ -12956,12 +12963,12 @@
         <v>2015</v>
       </c>
       <c r="T61" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" s="18" customFormat="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C62" s="22"/>
       <c r="D62" s="22"/>
@@ -12980,14 +12987,14 @@
       <c r="Q62" s="22"/>
       <c r="R62" s="22"/>
       <c r="S62" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T62" s="25">
         <v>0.3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -13006,15 +13013,15 @@
       <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.5" style="6"/>
-    <col min="20" max="20" width="14.5" style="31" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="6"/>
+    <col min="20" max="20" width="14.42578125" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -13034,7 +13041,7 @@
       <c r="R1" s="11"/>
       <c r="S1" s="11"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="C2" s="12">
         <v>2000</v>
@@ -13086,10 +13093,10 @@
       </c>
       <c r="S2" s="11"/>
       <c r="T2" s="32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -13112,13 +13119,13 @@
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
       <c r="S3" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T3" s="33">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -13141,13 +13148,13 @@
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
       <c r="S4" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T4" s="33">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -13170,13 +13177,13 @@
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
       <c r="S5" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T5" s="33">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -13199,13 +13206,13 @@
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
       <c r="S6" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T6" s="33">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -13228,13 +13235,13 @@
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="S7" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T7" s="33">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -13257,23 +13264,23 @@
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T8" s="33">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="18" customFormat="1">
+    <row r="10" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="T10" s="31"/>
     </row>
-    <row r="11" spans="1:20" s="18" customFormat="1">
+    <row r="11" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="T11" s="31"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -13293,7 +13300,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="C13" s="12">
         <v>2000</v>
@@ -13345,10 +13352,10 @@
       </c>
       <c r="S13" s="11"/>
       <c r="T13" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -13371,13 +13378,13 @@
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
       <c r="S14" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T14" s="29">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -13400,13 +13407,13 @@
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
       <c r="S15" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T15" s="29">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -13429,13 +13436,13 @@
       <c r="Q16" s="22"/>
       <c r="R16" s="22"/>
       <c r="S16" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T16" s="29">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -13458,13 +13465,13 @@
       <c r="Q17" s="22"/>
       <c r="R17" s="22"/>
       <c r="S17" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T17" s="29">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -13487,13 +13494,13 @@
       <c r="Q18" s="22"/>
       <c r="R18" s="22"/>
       <c r="S18" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T18" s="29">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -13516,23 +13523,23 @@
       <c r="Q19" s="22"/>
       <c r="R19" s="22"/>
       <c r="S19" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T19" s="29">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="18" customFormat="1">
+    <row r="21" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="T21" s="31"/>
     </row>
-    <row r="22" spans="1:20" s="18" customFormat="1">
+    <row r="22" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="T22" s="31"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -13552,7 +13559,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="C24" s="12">
         <v>2000</v>
@@ -13604,10 +13611,10 @@
       </c>
       <c r="S24" s="11"/>
       <c r="T24" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -13630,13 +13637,13 @@
       <c r="Q25" s="22"/>
       <c r="R25" s="22"/>
       <c r="S25" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T25" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -13659,13 +13666,13 @@
       <c r="Q26" s="22"/>
       <c r="R26" s="22"/>
       <c r="S26" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T26" s="29">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -13688,13 +13695,13 @@
       <c r="Q27" s="22"/>
       <c r="R27" s="22"/>
       <c r="S27" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T27" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -13717,13 +13724,13 @@
       <c r="Q28" s="22"/>
       <c r="R28" s="22"/>
       <c r="S28" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T28" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -13746,13 +13753,13 @@
       <c r="Q29" s="22"/>
       <c r="R29" s="22"/>
       <c r="S29" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T29" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -13775,13 +13782,13 @@
       <c r="Q30" s="22"/>
       <c r="R30" s="22"/>
       <c r="S30" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T30" s="29">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C31" s="22"/>
       <c r="D31" s="25">
         <v>0.02</v>
@@ -13813,7 +13820,7 @@
       <c r="Q31" s="22"/>
       <c r="R31" s="22"/>
     </row>
-    <row r="32" spans="1:20" s="18" customFormat="1">
+    <row r="32" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="24"/>
       <c r="D32" s="27">
@@ -13854,19 +13861,19 @@
       <c r="R32" s="24"/>
       <c r="T32" s="31"/>
     </row>
-    <row r="33" spans="1:20" s="18" customFormat="1">
+    <row r="33" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="T33" s="31"/>
     </row>
-    <row r="34" spans="1:20" s="18" customFormat="1">
+    <row r="34" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="T34" s="31"/>
     </row>
-    <row r="35" spans="1:20" s="18" customFormat="1">
+    <row r="35" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
       <c r="T35" s="31"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -13886,7 +13893,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="C37" s="12">
         <v>2000</v>
@@ -13938,10 +13945,10 @@
       </c>
       <c r="S37" s="11"/>
       <c r="T37" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -13964,13 +13971,13 @@
       <c r="Q38" s="22"/>
       <c r="R38" s="22"/>
       <c r="S38" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T38" s="30">
         <v>0.4</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -14003,11 +14010,11 @@
       <c r="Q39" s="22"/>
       <c r="R39" s="22"/>
       <c r="S39" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T39" s="30"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -14030,13 +14037,13 @@
       <c r="Q40" s="22"/>
       <c r="R40" s="22"/>
       <c r="S40" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T40" s="30">
         <v>0.05</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -14059,13 +14066,13 @@
       <c r="Q41" s="22"/>
       <c r="R41" s="22"/>
       <c r="S41" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T41" s="30">
         <v>0.05</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -14088,13 +14095,13 @@
       <c r="Q42" s="22"/>
       <c r="R42" s="22"/>
       <c r="S42" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T42" s="30">
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -14117,23 +14124,23 @@
       <c r="Q43" s="22"/>
       <c r="R43" s="22"/>
       <c r="S43" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T43" s="30">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="18" customFormat="1">
+    <row r="45" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
       <c r="T45" s="31"/>
     </row>
-    <row r="46" spans="1:20" s="18" customFormat="1">
+    <row r="46" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
       <c r="T46" s="31"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
@@ -14153,7 +14160,7 @@
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="C48" s="12">
         <v>2000</v>
@@ -14205,10 +14212,10 @@
       </c>
       <c r="S48" s="11"/>
       <c r="T48" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -14231,13 +14238,13 @@
       <c r="Q49" s="22"/>
       <c r="R49" s="22"/>
       <c r="S49" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T49" s="30">
         <v>0.6</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -14270,11 +14277,11 @@
       <c r="Q50" s="22"/>
       <c r="R50" s="22"/>
       <c r="S50" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T50" s="30"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -14297,13 +14304,13 @@
       <c r="Q51" s="22"/>
       <c r="R51" s="22"/>
       <c r="S51" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T51" s="30">
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -14332,11 +14339,11 @@
       <c r="Q52" s="22"/>
       <c r="R52" s="22"/>
       <c r="S52" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T52" s="30"/>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -14365,11 +14372,11 @@
       <c r="Q53" s="22"/>
       <c r="R53" s="22"/>
       <c r="S53" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T53" s="30"/>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -14392,23 +14399,23 @@
       <c r="Q54" s="22"/>
       <c r="R54" s="22"/>
       <c r="S54" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T54" s="30">
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:20" s="18" customFormat="1">
+    <row r="56" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="T56" s="31"/>
     </row>
-    <row r="57" spans="1:20" s="18" customFormat="1">
+    <row r="57" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="6"/>
       <c r="T57" s="31"/>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -14428,7 +14435,7 @@
       <c r="R58" s="11"/>
       <c r="S58" s="11"/>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="C59" s="12">
         <v>2000</v>
@@ -14480,10 +14487,10 @@
       </c>
       <c r="S59" s="11"/>
       <c r="T59" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -14506,13 +14513,13 @@
       <c r="Q60" s="22"/>
       <c r="R60" s="22"/>
       <c r="S60" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T60" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -14545,11 +14552,11 @@
       <c r="Q61" s="22"/>
       <c r="R61" s="22"/>
       <c r="S61" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T61" s="38"/>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -14572,13 +14579,13 @@
       <c r="Q62" s="22"/>
       <c r="R62" s="22"/>
       <c r="S62" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T62" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -14601,13 +14608,13 @@
       <c r="Q63" s="22"/>
       <c r="R63" s="22"/>
       <c r="S63" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T63" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -14630,13 +14637,13 @@
       <c r="Q64" s="22"/>
       <c r="R64" s="22"/>
       <c r="S64" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T64" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -14669,21 +14676,21 @@
       <c r="Q65" s="22"/>
       <c r="R65" s="22"/>
       <c r="S65" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T65" s="39"/>
     </row>
-    <row r="67" spans="1:20" s="18" customFormat="1">
+    <row r="67" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="6"/>
       <c r="T67" s="31"/>
     </row>
-    <row r="68" spans="1:20" s="18" customFormat="1">
+    <row r="68" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
       <c r="T68" s="31"/>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
@@ -14703,7 +14710,7 @@
       <c r="R69" s="11"/>
       <c r="S69" s="11"/>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="C70" s="12">
         <v>2000</v>
@@ -14755,10 +14762,10 @@
       </c>
       <c r="S70" s="11"/>
       <c r="T70" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -14781,13 +14788,13 @@
       <c r="Q71" s="22"/>
       <c r="R71" s="22"/>
       <c r="S71" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T71" s="50">
         <v>0.03</v>
       </c>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -14810,13 +14817,13 @@
       <c r="Q72" s="22"/>
       <c r="R72" s="22"/>
       <c r="S72" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T72" s="50">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -14839,13 +14846,13 @@
       <c r="Q73" s="22"/>
       <c r="R73" s="22"/>
       <c r="S73" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T73" s="50">
         <v>0.03</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -14868,14 +14875,14 @@
       <c r="Q74" s="22"/>
       <c r="R74" s="22"/>
       <c r="S74" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T74" s="50">
         <v>0.03</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -14890,19 +14897,17 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5" style="31" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -14922,7 +14927,7 @@
       <c r="R1" s="13"/>
       <c r="S1" s="13"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="C2" s="14">
         <v>2000</v>
@@ -14974,10 +14979,10 @@
       </c>
       <c r="S2" s="13"/>
       <c r="T2" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -15000,13 +15005,13 @@
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
       <c r="S3" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T3" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -15029,13 +15034,13 @@
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
       <c r="S4" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T4" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -15058,13 +15063,13 @@
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
       <c r="S5" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T5" s="29">
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -15087,13 +15092,13 @@
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
       <c r="S6" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T6" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -15116,13 +15121,13 @@
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="S7" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T7" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -15145,23 +15150,23 @@
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T8" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="18" customFormat="1">
+    <row r="10" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="T10" s="31"/>
     </row>
-    <row r="11" spans="1:20" s="18" customFormat="1">
+    <row r="11" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="T11" s="31"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -15181,7 +15186,7 @@
       <c r="R12" s="13"/>
       <c r="S12" s="13"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="C13" s="14">
         <v>2000</v>
@@ -15233,54 +15238,54 @@
       </c>
       <c r="S13" s="13"/>
       <c r="T13" s="32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" s="18" customFormat="1">
-      <c r="A14" s="57"/>
-      <c r="B14" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="56"/>
+      <c r="B14" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="58"/>
+      <c r="D14" s="59">
         <v>0.3</v>
       </c>
-      <c r="E14" s="61"/>
-      <c r="F14" s="60">
+      <c r="E14" s="60"/>
+      <c r="F14" s="59">
         <v>0.25</v>
       </c>
-      <c r="G14" s="61"/>
-      <c r="H14" s="60">
+      <c r="G14" s="60"/>
+      <c r="H14" s="59">
         <v>0.2</v>
       </c>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="60">
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="59">
         <v>0.2</v>
       </c>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="T14" s="63"/>
-    </row>
-    <row r="16" spans="1:20" s="18" customFormat="1">
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="T14" s="62"/>
+    </row>
+    <row r="16" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="T16" s="31"/>
     </row>
-    <row r="17" spans="1:20" s="18" customFormat="1">
+    <row r="17" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
       <c r="T17" s="31"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -15300,7 +15305,7 @@
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="C19" s="14">
         <v>2000</v>
@@ -15352,13 +15357,13 @@
       </c>
       <c r="S19" s="13"/>
       <c r="T19" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="43" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="38">
@@ -15383,12 +15388,12 @@
       <c r="Q20" s="38"/>
       <c r="R20" s="38"/>
       <c r="S20" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T20" s="38"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/server/src/static/example.xlsx
+++ b/server/src/static/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="2235" windowWidth="23355" windowHeight="13815" tabRatio="863" activeTab="1"/>
+    <workbookView xWindow="2235" yWindow="2235" windowWidth="23355" windowHeight="13815" tabRatio="863" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="22" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="166">
   <si>
     <t>Programs for men who have sex with men</t>
   </si>
@@ -564,7 +564,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="3" tint="-0.24994659260841701"/>
@@ -696,21 +696,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF16365C"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -755,7 +740,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -794,21 +779,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
@@ -1488,7 +1458,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="655" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1613,24 +1583,10 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="663" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="9" fontId="19" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="663" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2621,15 +2577,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="58" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
+      <c r="A2" s="58"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
+      <c r="A3" s="58"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="52"/>
@@ -3972,9 +3928,7 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64:E65"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4868,8 +4822,8 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:V91"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7551,7 +7505,7 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -11641,7 +11595,7 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
@@ -13007,10 +12961,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:T74"/>
+  <dimension ref="A1:T72"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13788,171 +13742,164 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C31" s="22"/>
-      <c r="D31" s="25">
-        <v>0.02</v>
-      </c>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="25">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H31" s="25">
-        <v>0.17</v>
-      </c>
-      <c r="I31" s="25">
-        <v>0.05</v>
-      </c>
-      <c r="J31" s="22"/>
-      <c r="K31" s="25">
-        <v>0.2</v>
-      </c>
-      <c r="L31" s="22"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="25">
-        <v>0.39</v>
-      </c>
-      <c r="O31" s="22"/>
-      <c r="P31" s="25">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
+    <row r="31" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T31" s="31"/>
     </row>
     <row r="32" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="6"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="27">
-        <f>550000*D31</f>
-        <v>11000</v>
-      </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27">
-        <f t="shared" ref="G32:P32" si="0">550000*G31</f>
-        <v>77000.000000000015</v>
-      </c>
-      <c r="H32" s="27">
-        <f t="shared" si="0"/>
-        <v>93500</v>
-      </c>
-      <c r="I32" s="27">
-        <f t="shared" si="0"/>
-        <v>27500</v>
-      </c>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27">
-        <f t="shared" si="0"/>
-        <v>110000</v>
-      </c>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27">
-        <f t="shared" si="0"/>
-        <v>214500</v>
-      </c>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27">
-        <f t="shared" si="0"/>
-        <v>154000.00000000003</v>
-      </c>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
       <c r="T32" s="31"/>
     </row>
     <row r="33" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="6"/>
       <c r="T33" s="31"/>
     </row>
-    <row r="34" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="T34" s="31"/>
-    </row>
-    <row r="35" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="6"/>
-      <c r="T35" s="31"/>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="C35" s="12">
+        <v>2000</v>
+      </c>
+      <c r="D35" s="12">
+        <v>2001</v>
+      </c>
+      <c r="E35" s="12">
+        <v>2002</v>
+      </c>
+      <c r="F35" s="12">
+        <v>2003</v>
+      </c>
+      <c r="G35" s="12">
+        <v>2004</v>
+      </c>
+      <c r="H35" s="12">
+        <v>2005</v>
+      </c>
+      <c r="I35" s="12">
+        <v>2006</v>
+      </c>
+      <c r="J35" s="12">
+        <v>2007</v>
+      </c>
+      <c r="K35" s="12">
+        <v>2008</v>
+      </c>
+      <c r="L35" s="12">
+        <v>2009</v>
+      </c>
+      <c r="M35" s="12">
+        <v>2010</v>
+      </c>
+      <c r="N35" s="12">
+        <v>2011</v>
+      </c>
+      <c r="O35" s="12">
+        <v>2012</v>
+      </c>
+      <c r="P35" s="12">
+        <v>2013</v>
+      </c>
+      <c r="Q35" s="12">
+        <v>2014</v>
+      </c>
+      <c r="R35" s="12">
+        <v>2015</v>
+      </c>
+      <c r="S35" s="11"/>
+      <c r="T35" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="4" t="str">
+        <f>'Populations &amp; programs'!$C$3</f>
+        <v>MSM</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T36" s="30">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
-      <c r="C37" s="12">
-        <v>2000</v>
-      </c>
-      <c r="D37" s="12">
-        <v>2001</v>
-      </c>
-      <c r="E37" s="12">
-        <v>2002</v>
-      </c>
-      <c r="F37" s="12">
-        <v>2003</v>
-      </c>
-      <c r="G37" s="12">
-        <v>2004</v>
-      </c>
-      <c r="H37" s="12">
-        <v>2005</v>
-      </c>
-      <c r="I37" s="12">
-        <v>2006</v>
-      </c>
-      <c r="J37" s="12">
-        <v>2007</v>
-      </c>
-      <c r="K37" s="12">
-        <v>2008</v>
-      </c>
-      <c r="L37" s="12">
-        <v>2009</v>
-      </c>
-      <c r="M37" s="12">
-        <v>2010</v>
-      </c>
-      <c r="N37" s="12">
-        <v>2011</v>
-      </c>
-      <c r="O37" s="12">
-        <v>2012</v>
-      </c>
-      <c r="P37" s="12">
-        <v>2013</v>
-      </c>
-      <c r="Q37" s="12">
-        <v>2014</v>
-      </c>
-      <c r="R37" s="12">
-        <v>2015</v>
-      </c>
-      <c r="S37" s="11"/>
-      <c r="T37" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="B37" s="4" t="str">
+        <f>'Populations &amp; programs'!$C$4</f>
+        <v>FSW</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="25">
+        <v>0.24</v>
+      </c>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="25">
+        <v>0.27</v>
+      </c>
+      <c r="M37" s="22"/>
+      <c r="N37" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="O37" s="22"/>
+      <c r="P37" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T37" s="30"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="4" t="str">
-        <f>'Populations &amp; programs'!$C$3</f>
-        <v>MSM</v>
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>Male PWID</v>
       </c>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
@@ -13974,51 +13921,43 @@
         <v>54</v>
       </c>
       <c r="T38" s="30">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="4" t="str">
-        <f>'Populations &amp; programs'!$C$4</f>
-        <v>FSW</v>
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>Other males</v>
       </c>
       <c r="C39" s="22"/>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
-      <c r="F39" s="25">
-        <v>0.2</v>
-      </c>
+      <c r="F39" s="22"/>
       <c r="G39" s="22"/>
       <c r="H39" s="22"/>
-      <c r="I39" s="25">
-        <v>0.24</v>
-      </c>
+      <c r="I39" s="22"/>
       <c r="J39" s="22"/>
       <c r="K39" s="22"/>
-      <c r="L39" s="25">
-        <v>0.27</v>
-      </c>
+      <c r="L39" s="22"/>
       <c r="M39" s="22"/>
-      <c r="N39" s="25">
-        <v>0.3</v>
-      </c>
+      <c r="N39" s="22"/>
       <c r="O39" s="22"/>
-      <c r="P39" s="25">
-        <v>0.3</v>
-      </c>
+      <c r="P39" s="22"/>
       <c r="Q39" s="22"/>
       <c r="R39" s="22"/>
       <c r="S39" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="T39" s="30"/>
+      <c r="T39" s="30">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="4" t="str">
-        <f>'Populations &amp; programs'!$C$5</f>
-        <v>Male PWID</v>
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>Other females</v>
       </c>
       <c r="C40" s="22"/>
       <c r="D40" s="22"/>
@@ -14046,8 +13985,8 @@
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="4" t="str">
-        <f>'Populations &amp; programs'!$C$6</f>
-        <v>Other males</v>
+        <f>'Populations &amp; programs'!$C$8</f>
+        <v>Clients</v>
       </c>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
@@ -14069,157 +14008,165 @@
         <v>54</v>
       </c>
       <c r="T41" s="30">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="4" t="str">
-        <f>'Populations &amp; programs'!$C$7</f>
-        <v>Other females</v>
-      </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="22"/>
-      <c r="S42" s="5" t="s">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="6"/>
+      <c r="T43" s="31"/>
+    </row>
+    <row r="44" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="6"/>
+      <c r="T44" s="31"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="C46" s="12">
+        <v>2000</v>
+      </c>
+      <c r="D46" s="12">
+        <v>2001</v>
+      </c>
+      <c r="E46" s="12">
+        <v>2002</v>
+      </c>
+      <c r="F46" s="12">
+        <v>2003</v>
+      </c>
+      <c r="G46" s="12">
+        <v>2004</v>
+      </c>
+      <c r="H46" s="12">
+        <v>2005</v>
+      </c>
+      <c r="I46" s="12">
+        <v>2006</v>
+      </c>
+      <c r="J46" s="12">
+        <v>2007</v>
+      </c>
+      <c r="K46" s="12">
+        <v>2008</v>
+      </c>
+      <c r="L46" s="12">
+        <v>2009</v>
+      </c>
+      <c r="M46" s="12">
+        <v>2010</v>
+      </c>
+      <c r="N46" s="12">
+        <v>2011</v>
+      </c>
+      <c r="O46" s="12">
+        <v>2012</v>
+      </c>
+      <c r="P46" s="12">
+        <v>2013</v>
+      </c>
+      <c r="Q46" s="12">
+        <v>2014</v>
+      </c>
+      <c r="R46" s="12">
+        <v>2015</v>
+      </c>
+      <c r="S46" s="11"/>
+      <c r="T46" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="4" t="str">
+        <f>'Populations &amp; programs'!$C$3</f>
+        <v>MSM</v>
+      </c>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="T42" s="30">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="4" t="str">
-        <f>'Populations &amp; programs'!$C$8</f>
-        <v>Clients</v>
-      </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="22"/>
-      <c r="S43" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="T43" s="30">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="6"/>
-      <c r="T45" s="31"/>
-    </row>
-    <row r="46" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="6"/>
-      <c r="T46" s="31"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="11"/>
-      <c r="S47" s="11"/>
+      <c r="T47" s="30">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
-      <c r="C48" s="12">
-        <v>2000</v>
-      </c>
-      <c r="D48" s="12">
-        <v>2001</v>
-      </c>
-      <c r="E48" s="12">
-        <v>2002</v>
-      </c>
-      <c r="F48" s="12">
-        <v>2003</v>
-      </c>
-      <c r="G48" s="12">
-        <v>2004</v>
-      </c>
-      <c r="H48" s="12">
-        <v>2005</v>
-      </c>
-      <c r="I48" s="12">
-        <v>2006</v>
-      </c>
-      <c r="J48" s="12">
-        <v>2007</v>
-      </c>
-      <c r="K48" s="12">
-        <v>2008</v>
-      </c>
-      <c r="L48" s="12">
-        <v>2009</v>
-      </c>
-      <c r="M48" s="12">
-        <v>2010</v>
-      </c>
-      <c r="N48" s="12">
-        <v>2011</v>
-      </c>
-      <c r="O48" s="12">
-        <v>2012</v>
-      </c>
-      <c r="P48" s="12">
-        <v>2013</v>
-      </c>
-      <c r="Q48" s="12">
-        <v>2014</v>
-      </c>
-      <c r="R48" s="12">
-        <v>2015</v>
-      </c>
-      <c r="S48" s="11"/>
-      <c r="T48" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="B48" s="4" t="str">
+        <f>'Populations &amp; programs'!$C$4</f>
+        <v>FSW</v>
+      </c>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="25">
+        <v>0.94</v>
+      </c>
+      <c r="M48" s="22"/>
+      <c r="N48" s="25">
+        <v>0.91</v>
+      </c>
+      <c r="O48" s="22"/>
+      <c r="P48" s="25">
+        <v>0.96</v>
+      </c>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T48" s="30"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="4" t="str">
-        <f>'Populations &amp; programs'!$C$3</f>
-        <v>MSM</v>
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>Male PWID</v>
       </c>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
@@ -14241,39 +14188,35 @@
         <v>54</v>
       </c>
       <c r="T49" s="30">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="4" t="str">
-        <f>'Populations &amp; programs'!$C$4</f>
-        <v>FSW</v>
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>Other males</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
-      <c r="F50" s="25">
-        <v>0.8</v>
-      </c>
+      <c r="F50" s="22"/>
       <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="25">
-        <v>0.85</v>
-      </c>
+      <c r="H50" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="I50" s="22"/>
       <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="25">
-        <v>0.94</v>
-      </c>
+      <c r="K50" s="25">
+        <v>0.37</v>
+      </c>
+      <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="25">
-        <v>0.91</v>
+        <v>0.42</v>
       </c>
       <c r="O50" s="22"/>
-      <c r="P50" s="25">
-        <v>0.96</v>
-      </c>
+      <c r="P50" s="22"/>
       <c r="Q50" s="22"/>
       <c r="R50" s="22"/>
       <c r="S50" s="5" t="s">
@@ -14284,21 +14227,27 @@
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="4" t="str">
-        <f>'Populations &amp; programs'!$C$5</f>
-        <v>Male PWID</v>
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>Other females</v>
       </c>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
+      <c r="H51" s="25">
+        <v>0.4</v>
+      </c>
       <c r="I51" s="22"/>
       <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
+      <c r="K51" s="25">
+        <v>0.37</v>
+      </c>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
+      <c r="N51" s="25">
+        <v>0.42</v>
+      </c>
       <c r="O51" s="22"/>
       <c r="P51" s="22"/>
       <c r="Q51" s="22"/>
@@ -14306,34 +14255,26 @@
       <c r="S51" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="T51" s="30">
-        <v>0.5</v>
-      </c>
+      <c r="T51" s="30"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="4" t="str">
-        <f>'Populations &amp; programs'!$C$6</f>
-        <v>Other males</v>
+        <f>'Populations &amp; programs'!$C$8</f>
+        <v>Clients</v>
       </c>
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
       <c r="G52" s="22"/>
-      <c r="H52" s="25">
-        <v>0.4</v>
-      </c>
+      <c r="H52" s="22"/>
       <c r="I52" s="22"/>
       <c r="J52" s="22"/>
-      <c r="K52" s="25">
-        <v>0.37</v>
-      </c>
+      <c r="K52" s="22"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
-      <c r="N52" s="25">
-        <v>0.42</v>
-      </c>
+      <c r="N52" s="22"/>
       <c r="O52" s="22"/>
       <c r="P52" s="22"/>
       <c r="Q52" s="22"/>
@@ -14341,160 +14282,166 @@
       <c r="S52" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="T52" s="30"/>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
-      <c r="B53" s="4" t="str">
-        <f>'Populations &amp; programs'!$C$7</f>
-        <v>Other females</v>
-      </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="25">
-        <v>0.37</v>
-      </c>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="25">
-        <v>0.42</v>
-      </c>
-      <c r="O53" s="22"/>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
-      <c r="R53" s="22"/>
-      <c r="S53" s="5" t="s">
+      <c r="T52" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="6"/>
+      <c r="T54" s="31"/>
+    </row>
+    <row r="55" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="6"/>
+      <c r="T55" s="31"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+      <c r="C57" s="12">
+        <v>2000</v>
+      </c>
+      <c r="D57" s="12">
+        <v>2001</v>
+      </c>
+      <c r="E57" s="12">
+        <v>2002</v>
+      </c>
+      <c r="F57" s="12">
+        <v>2003</v>
+      </c>
+      <c r="G57" s="12">
+        <v>2004</v>
+      </c>
+      <c r="H57" s="12">
+        <v>2005</v>
+      </c>
+      <c r="I57" s="12">
+        <v>2006</v>
+      </c>
+      <c r="J57" s="12">
+        <v>2007</v>
+      </c>
+      <c r="K57" s="12">
+        <v>2008</v>
+      </c>
+      <c r="L57" s="12">
+        <v>2009</v>
+      </c>
+      <c r="M57" s="12">
+        <v>2010</v>
+      </c>
+      <c r="N57" s="12">
+        <v>2011</v>
+      </c>
+      <c r="O57" s="12">
+        <v>2012</v>
+      </c>
+      <c r="P57" s="12">
+        <v>2013</v>
+      </c>
+      <c r="Q57" s="12">
+        <v>2014</v>
+      </c>
+      <c r="R57" s="12">
+        <v>2015</v>
+      </c>
+      <c r="S57" s="11"/>
+      <c r="T57" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+      <c r="B58" s="4" t="str">
+        <f>'Populations &amp; programs'!$C$3</f>
+        <v>MSM</v>
+      </c>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="22"/>
+      <c r="S58" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="T53" s="30"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-      <c r="B54" s="4" t="str">
-        <f>'Populations &amp; programs'!$C$8</f>
-        <v>Clients</v>
-      </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="22"/>
-      <c r="R54" s="22"/>
-      <c r="S54" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="T54" s="30">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="6"/>
-      <c r="T56" s="31"/>
-    </row>
-    <row r="57" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="6"/>
-      <c r="T57" s="31"/>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
+      <c r="T58" s="29">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
-      <c r="C59" s="12">
-        <v>2000</v>
-      </c>
-      <c r="D59" s="12">
-        <v>2001</v>
-      </c>
-      <c r="E59" s="12">
-        <v>2002</v>
-      </c>
-      <c r="F59" s="12">
-        <v>2003</v>
-      </c>
-      <c r="G59" s="12">
-        <v>2004</v>
-      </c>
-      <c r="H59" s="12">
-        <v>2005</v>
-      </c>
-      <c r="I59" s="12">
-        <v>2006</v>
-      </c>
-      <c r="J59" s="12">
-        <v>2007</v>
-      </c>
-      <c r="K59" s="12">
-        <v>2008</v>
-      </c>
-      <c r="L59" s="12">
-        <v>2009</v>
-      </c>
-      <c r="M59" s="12">
-        <v>2010</v>
-      </c>
-      <c r="N59" s="12">
-        <v>2011</v>
-      </c>
-      <c r="O59" s="12">
-        <v>2012</v>
-      </c>
-      <c r="P59" s="12">
-        <v>2013</v>
-      </c>
-      <c r="Q59" s="12">
-        <v>2014</v>
-      </c>
-      <c r="R59" s="12">
-        <v>2015</v>
-      </c>
-      <c r="S59" s="11"/>
-      <c r="T59" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="B59" s="4" t="str">
+        <f>'Populations &amp; programs'!$C$4</f>
+        <v>FSW</v>
+      </c>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="25">
+        <v>0.84</v>
+      </c>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="25">
+        <v>0.89</v>
+      </c>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="25">
+        <v>0.96</v>
+      </c>
+      <c r="M59" s="22"/>
+      <c r="N59" s="25">
+        <v>0.94</v>
+      </c>
+      <c r="O59" s="22"/>
+      <c r="P59" s="25">
+        <v>0.98</v>
+      </c>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="22"/>
+      <c r="S59" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T59" s="38"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="4" t="str">
-        <f>'Populations &amp; programs'!$C$3</f>
-        <v>MSM</v>
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>Male PWID</v>
       </c>
       <c r="C60" s="22"/>
       <c r="D60" s="22"/>
@@ -14515,52 +14462,44 @@
       <c r="S60" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="T60" s="29">
+      <c r="T60" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="4" t="str">
-        <f>'Populations &amp; programs'!$C$4</f>
-        <v>FSW</v>
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>Other males</v>
       </c>
       <c r="C61" s="22"/>
       <c r="D61" s="22"/>
       <c r="E61" s="22"/>
-      <c r="F61" s="25">
-        <v>0.84</v>
-      </c>
+      <c r="F61" s="22"/>
       <c r="G61" s="22"/>
       <c r="H61" s="22"/>
-      <c r="I61" s="25">
-        <v>0.89</v>
-      </c>
+      <c r="I61" s="22"/>
       <c r="J61" s="22"/>
       <c r="K61" s="22"/>
-      <c r="L61" s="25">
-        <v>0.96</v>
-      </c>
+      <c r="L61" s="22"/>
       <c r="M61" s="22"/>
-      <c r="N61" s="25">
-        <v>0.94</v>
-      </c>
+      <c r="N61" s="22"/>
       <c r="O61" s="22"/>
-      <c r="P61" s="25">
-        <v>0.98</v>
-      </c>
+      <c r="P61" s="22"/>
       <c r="Q61" s="22"/>
       <c r="R61" s="22"/>
       <c r="S61" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="T61" s="38"/>
+      <c r="T61" s="30">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="4" t="str">
-        <f>'Populations &amp; programs'!$C$5</f>
-        <v>Male PWID</v>
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>Other females</v>
       </c>
       <c r="C62" s="22"/>
       <c r="D62" s="22"/>
@@ -14581,195 +14520,195 @@
       <c r="S62" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="T62" s="30">
+      <c r="T62" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="4" t="str">
-        <f>'Populations &amp; programs'!$C$6</f>
-        <v>Other males</v>
+        <f>'Populations &amp; programs'!$C$8</f>
+        <v>Clients</v>
       </c>
       <c r="C63" s="22"/>
       <c r="D63" s="22"/>
       <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
+      <c r="F63" s="25">
+        <v>0.84</v>
+      </c>
       <c r="G63" s="22"/>
       <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
+      <c r="I63" s="25">
+        <v>0.89</v>
+      </c>
       <c r="J63" s="22"/>
       <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
+      <c r="L63" s="25">
+        <v>0.96</v>
+      </c>
       <c r="M63" s="22"/>
-      <c r="N63" s="22"/>
+      <c r="N63" s="25">
+        <v>0.94</v>
+      </c>
       <c r="O63" s="22"/>
-      <c r="P63" s="22"/>
+      <c r="P63" s="25">
+        <v>0.98</v>
+      </c>
       <c r="Q63" s="22"/>
       <c r="R63" s="22"/>
       <c r="S63" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="T63" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
-      <c r="B64" s="4" t="str">
-        <f>'Populations &amp; programs'!$C$7</f>
-        <v>Other females</v>
-      </c>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="22"/>
-      <c r="O64" s="22"/>
-      <c r="P64" s="22"/>
-      <c r="Q64" s="22"/>
-      <c r="R64" s="22"/>
-      <c r="S64" s="5" t="s">
+      <c r="T63" s="39"/>
+    </row>
+    <row r="65" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="6"/>
+      <c r="T65" s="31"/>
+    </row>
+    <row r="66" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="6"/>
+      <c r="T66" s="31"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="11"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" s="11"/>
+      <c r="C68" s="12">
+        <v>2000</v>
+      </c>
+      <c r="D68" s="12">
+        <v>2001</v>
+      </c>
+      <c r="E68" s="12">
+        <v>2002</v>
+      </c>
+      <c r="F68" s="12">
+        <v>2003</v>
+      </c>
+      <c r="G68" s="12">
+        <v>2004</v>
+      </c>
+      <c r="H68" s="12">
+        <v>2005</v>
+      </c>
+      <c r="I68" s="12">
+        <v>2006</v>
+      </c>
+      <c r="J68" s="12">
+        <v>2007</v>
+      </c>
+      <c r="K68" s="12">
+        <v>2008</v>
+      </c>
+      <c r="L68" s="12">
+        <v>2009</v>
+      </c>
+      <c r="M68" s="12">
+        <v>2010</v>
+      </c>
+      <c r="N68" s="12">
+        <v>2011</v>
+      </c>
+      <c r="O68" s="12">
+        <v>2012</v>
+      </c>
+      <c r="P68" s="12">
+        <v>2013</v>
+      </c>
+      <c r="Q68" s="12">
+        <v>2014</v>
+      </c>
+      <c r="R68" s="12">
+        <v>2015</v>
+      </c>
+      <c r="S68" s="11"/>
+      <c r="T68" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" s="11"/>
+      <c r="B69" s="4" t="str">
+        <f>'Populations &amp; programs'!$C$3</f>
+        <v>MSM</v>
+      </c>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="22"/>
+      <c r="R69" s="22"/>
+      <c r="S69" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="T64" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
-      <c r="B65" s="4" t="str">
-        <f>'Populations &amp; programs'!$C$8</f>
-        <v>Clients</v>
-      </c>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="25">
-        <v>0.84</v>
-      </c>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="25">
-        <v>0.89</v>
-      </c>
-      <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="25">
-        <v>0.96</v>
-      </c>
-      <c r="M65" s="22"/>
-      <c r="N65" s="25">
-        <v>0.94</v>
-      </c>
-      <c r="O65" s="22"/>
-      <c r="P65" s="25">
-        <v>0.98</v>
-      </c>
-      <c r="Q65" s="22"/>
-      <c r="R65" s="22"/>
-      <c r="S65" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="T65" s="39"/>
-    </row>
-    <row r="67" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="6"/>
-      <c r="T67" s="31"/>
-    </row>
-    <row r="68" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="6"/>
-      <c r="T68" s="31"/>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
-      <c r="L69" s="11"/>
-      <c r="M69" s="11"/>
-      <c r="N69" s="11"/>
-      <c r="O69" s="11"/>
-      <c r="P69" s="11"/>
-      <c r="Q69" s="11"/>
-      <c r="R69" s="11"/>
-      <c r="S69" s="11"/>
+      <c r="T69" s="50">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
-      <c r="C70" s="12">
-        <v>2000</v>
-      </c>
-      <c r="D70" s="12">
-        <v>2001</v>
-      </c>
-      <c r="E70" s="12">
-        <v>2002</v>
-      </c>
-      <c r="F70" s="12">
-        <v>2003</v>
-      </c>
-      <c r="G70" s="12">
-        <v>2004</v>
-      </c>
-      <c r="H70" s="12">
-        <v>2005</v>
-      </c>
-      <c r="I70" s="12">
-        <v>2006</v>
-      </c>
-      <c r="J70" s="12">
-        <v>2007</v>
-      </c>
-      <c r="K70" s="12">
-        <v>2008</v>
-      </c>
-      <c r="L70" s="12">
-        <v>2009</v>
-      </c>
-      <c r="M70" s="12">
-        <v>2010</v>
-      </c>
-      <c r="N70" s="12">
-        <v>2011</v>
-      </c>
-      <c r="O70" s="12">
-        <v>2012</v>
-      </c>
-      <c r="P70" s="12">
-        <v>2013</v>
-      </c>
-      <c r="Q70" s="12">
-        <v>2014</v>
-      </c>
-      <c r="R70" s="12">
-        <v>2015</v>
-      </c>
-      <c r="S70" s="11"/>
-      <c r="T70" s="4" t="s">
-        <v>32</v>
+      <c r="B70" s="4" t="str">
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>Male PWID</v>
+      </c>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="22"/>
+      <c r="O70" s="22"/>
+      <c r="P70" s="22"/>
+      <c r="Q70" s="22"/>
+      <c r="R70" s="22"/>
+      <c r="S70" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T70" s="50">
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="4" t="str">
-        <f>'Populations &amp; programs'!$C$3</f>
-        <v>MSM</v>
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>Other males</v>
       </c>
       <c r="C71" s="22"/>
       <c r="D71" s="22"/>
@@ -14797,8 +14736,8 @@
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="4" t="str">
-        <f>'Populations &amp; programs'!$C$5</f>
-        <v>Male PWID</v>
+        <f>'Populations &amp; programs'!$C$8</f>
+        <v>Clients</v>
       </c>
       <c r="C72" s="22"/>
       <c r="D72" s="22"/>
@@ -14820,64 +14759,6 @@
         <v>54</v>
       </c>
       <c r="T72" s="50">
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A73" s="11"/>
-      <c r="B73" s="4" t="str">
-        <f>'Populations &amp; programs'!$C$6</f>
-        <v>Other males</v>
-      </c>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="22"/>
-      <c r="M73" s="22"/>
-      <c r="N73" s="22"/>
-      <c r="O73" s="22"/>
-      <c r="P73" s="22"/>
-      <c r="Q73" s="22"/>
-      <c r="R73" s="22"/>
-      <c r="S73" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="T73" s="50">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" s="11"/>
-      <c r="B74" s="4" t="str">
-        <f>'Populations &amp; programs'!$C$8</f>
-        <v>Clients</v>
-      </c>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="22"/>
-      <c r="K74" s="22"/>
-      <c r="L74" s="22"/>
-      <c r="M74" s="22"/>
-      <c r="N74" s="22"/>
-      <c r="O74" s="22"/>
-      <c r="P74" s="22"/>
-      <c r="Q74" s="22"/>
-      <c r="R74" s="22"/>
-      <c r="S74" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="T74" s="50">
         <v>0.03</v>
       </c>
     </row>
@@ -14895,9 +14776,11 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15242,155 +15125,295 @@
       </c>
     </row>
     <row r="14" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
-      <c r="B14" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59">
+      <c r="B14" s="4" t="str">
+        <f>'Populations &amp; programs'!$C$3</f>
+        <v>MSM</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T14" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="str">
+        <f>'Populations &amp; programs'!$C$4</f>
+        <v>FSW</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T15" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="str">
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>Male PWID</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="56">
         <v>0.3</v>
       </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="59">
+      <c r="E16" s="57"/>
+      <c r="F16" s="56">
         <v>0.25</v>
       </c>
-      <c r="G14" s="60"/>
-      <c r="H14" s="59">
+      <c r="G16" s="57"/>
+      <c r="H16" s="56">
         <v>0.2</v>
       </c>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="59">
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="56">
         <v>0.2</v>
       </c>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="60"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="61" t="s">
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="T14" s="62"/>
-    </row>
-    <row r="16" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="T16" s="31"/>
+      <c r="T16" s="29"/>
     </row>
     <row r="17" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="T17" s="31"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="B17" s="4" t="str">
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>Other males</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T17" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="str">
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>Other females</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T18" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="str">
+        <f>'Populations &amp; programs'!$C$8</f>
+        <v>Clients</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T19" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="T21" s="31"/>
+    </row>
+    <row r="22" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="T22" s="31"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="C19" s="14">
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="C24" s="14">
         <v>2000</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D24" s="14">
         <v>2001</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E24" s="14">
         <v>2002</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F24" s="14">
         <v>2003</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G24" s="14">
         <v>2004</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H24" s="14">
         <v>2005</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I24" s="14">
         <v>2006</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J24" s="14">
         <v>2007</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K24" s="14">
         <v>2008</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L24" s="14">
         <v>2009</v>
       </c>
-      <c r="M19" s="14">
+      <c r="M24" s="14">
         <v>2010</v>
       </c>
-      <c r="N19" s="14">
+      <c r="N24" s="14">
         <v>2011</v>
       </c>
-      <c r="O19" s="14">
+      <c r="O24" s="14">
         <v>2012</v>
       </c>
-      <c r="P19" s="14">
+      <c r="P24" s="14">
         <v>2013</v>
       </c>
-      <c r="Q19" s="14">
+      <c r="Q24" s="14">
         <v>2014</v>
       </c>
-      <c r="R19" s="14">
+      <c r="R24" s="14">
         <v>2015</v>
       </c>
-      <c r="S19" s="13"/>
-      <c r="T19" s="4" t="s">
+      <c r="S24" s="13"/>
+      <c r="T24" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="43" t="s">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38">
+      <c r="C25" s="38"/>
+      <c r="D25" s="38">
         <v>50</v>
       </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38">
+      <c r="E25" s="38"/>
+      <c r="F25" s="38">
         <v>70</v>
       </c>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38">
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38">
         <v>190</v>
       </c>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="5" t="s">
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="T20" s="38"/>
+      <c r="T25" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>

--- a/server/src/static/example.xlsx
+++ b/server/src/static/example.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="2235" windowWidth="23355" windowHeight="13815" tabRatio="863" activeTab="12"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="14200" tabRatio="863" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="22" r:id="rId1"/>
@@ -21,9 +21,9 @@
     <sheet name="Constants" sheetId="17" r:id="rId12"/>
     <sheet name="Economics and costs" sheetId="18" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="130000"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -33,178 +33,181 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="166">
   <si>
-    <t>Programs for men who have sex with men</t>
-  </si>
-  <si>
-    <t>Social and behavior change communication</t>
-  </si>
-  <si>
-    <t>SBCC</t>
-  </si>
-  <si>
-    <t>Male PWID</t>
-  </si>
-  <si>
-    <t>Males who inject drugs</t>
-  </si>
-  <si>
-    <t>MSM programs</t>
-  </si>
-  <si>
-    <t>Age-related population transitions (average number of years before movement)</t>
-  </si>
-  <si>
-    <t>Government expenditure</t>
-  </si>
-  <si>
-    <t>General government health expenditure</t>
-  </si>
-  <si>
-    <t>Domestic HIV spending</t>
-  </si>
-  <si>
-    <t>Global Fund HIV commitments</t>
-  </si>
-  <si>
-    <t>PEPFAR HIV commitments</t>
-  </si>
-  <si>
-    <t>Other international HIV commitments</t>
-  </si>
-  <si>
-    <t>Private HIV spending</t>
-  </si>
-  <si>
-    <t>Total domestic and international health expenditure</t>
-  </si>
-  <si>
-    <t>Number of people on first-line treatment</t>
-  </si>
-  <si>
-    <t>Number of AIDS-related deaths</t>
-  </si>
-  <si>
-    <t>Percentage of population tested for HIV in the last 12 months</t>
-  </si>
-  <si>
-    <t>Birth rate (births per woman per year)</t>
-  </si>
-  <si>
-    <t>Percentage of HIV-positive women who breastfed</t>
-  </si>
-  <si>
-    <t>Condom use</t>
-  </si>
-  <si>
-    <t>Sex worker</t>
-  </si>
-  <si>
-    <t>Client</t>
-  </si>
-  <si>
-    <t>Other males</t>
-  </si>
-  <si>
-    <t>Other females</t>
-  </si>
-  <si>
-    <t>Clients of female sex workers</t>
-  </si>
-  <si>
-    <t>Modeled estimate of new HIV infections per year</t>
-  </si>
-  <si>
-    <t>Number of women on PMTCT (Option B/B+)</t>
-  </si>
-  <si>
-    <t>Percentage of people covered by pre-exposure prophylaxis</t>
-  </si>
-  <si>
-    <t>Pre-exposure prophylaxis</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>Cost &amp; coverage</t>
-  </si>
-  <si>
-    <t>Assumption</t>
-  </si>
-  <si>
-    <t>Opiate substitution therapy</t>
-  </si>
-  <si>
-    <t>Percentage of people who die from non-HIV-related causes per year</t>
-  </si>
-  <si>
-    <t>Number of HIV tests per year</t>
-  </si>
-  <si>
-    <t>Number of HIV diagnoses per year</t>
-  </si>
-  <si>
-    <t>Coverage</t>
-  </si>
-  <si>
-    <t>Treated HIV</t>
-  </si>
-  <si>
-    <t>Populations</t>
-  </si>
-  <si>
-    <t>HIV prevalence</t>
-  </si>
-  <si>
-    <t>Gross domestic product</t>
-  </si>
-  <si>
-    <t>Government revenue</t>
-  </si>
-  <si>
-    <t>Prevalence of any ulcerative STIs</t>
-  </si>
-  <si>
-    <t>Number of people initiating ART each year</t>
-  </si>
-  <si>
-    <t>Percentage of people who used a condom at last act with commercial partners</t>
-  </si>
-  <si>
-    <t>Percentage of people who receptively shared a needle at last injection</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Female sex workers</t>
-  </si>
-  <si>
-    <t>Clients</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy</t>
-  </si>
-  <si>
-    <t>Prevention of mother-to-child transmission</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>Do not enter anything except cold, hard, actual data! Optima will interpolate between data points, so only enter data in the years that they belong. In addition, please add notes (either as comments for a given cell or in the blank cells to the right of each row) about where the data came from. This is very important! If a given data point is assumed, it is very important that you add a comment, since otherwise you will cause endless grief to the poor schmuck trying to figure out what you did.</t>
+  </si>
+  <si>
+    <t>II. HOW TO ENTER DATA</t>
+  </si>
+  <si>
+    <t>This spreadsheet is divided into 12 sheets. All sheets need to be completed, except where noted below.</t>
+  </si>
+  <si>
+    <t>I. LAYOUT OF THE SPREADSHEET</t>
+  </si>
+  <si>
+    <t>Welcome to the Optima data entry spreadsheet. This is where all data for the model will be entered. At first glance the spreadsheet looks complicated and confusing. Unfortunately, it is. So please ask me if you need help rather than struggle and suffer in silence!</t>
+  </si>
+  <si>
+    <t>O P T I M A</t>
+  </si>
+  <si>
+    <t>Prevalence of any discharging STIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discharging STI cofactor increase </t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>Growth assumptions</t>
+  </si>
+  <si>
+    <t>Has sex with men</t>
+  </si>
+  <si>
+    <t>Has sex with women</t>
+  </si>
+  <si>
+    <t>CD4(500) to CD4(350-500)</t>
+  </si>
+  <si>
+    <t>CD4(200-350)</t>
+  </si>
+  <si>
+    <t>Acute to CD4(&gt;500)</t>
+  </si>
+  <si>
+    <t>CD4(350-500) to CD4(200-350)</t>
+  </si>
+  <si>
+    <t>CD4(350-500) to CD4(&gt;500)</t>
+  </si>
+  <si>
+    <t>CD4(200-350) to CD4(350-500)</t>
+  </si>
+  <si>
+    <t>First-line treatment</t>
+  </si>
+  <si>
+    <t>Second-line  treatment</t>
+  </si>
+  <si>
+    <t>CD4(&gt;500)</t>
+  </si>
+  <si>
+    <t>CD4(350-500)</t>
+  </si>
+  <si>
+    <t>Untreated HIV, CD4(&gt;500)</t>
+  </si>
+  <si>
+    <t>Untreated HIV, CD4(350-500)</t>
+  </si>
+  <si>
+    <t>Untreated HIV, CD4(200-350)</t>
+  </si>
+  <si>
+    <t>MSM</t>
+  </si>
+  <si>
+    <t>FSW</t>
+  </si>
+  <si>
+    <t>NSP</t>
+  </si>
+  <si>
+    <t>OST</t>
+  </si>
+  <si>
+    <t>ART</t>
+  </si>
+  <si>
+    <t>PMTCT</t>
+  </si>
+  <si>
+    <t>Percentage of people who used a condom at last act with casual partners</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>Acute infection</t>
+  </si>
+  <si>
+    <t>On treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circumcision </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMTCT </t>
+  </si>
+  <si>
+    <t>Programs</t>
+  </si>
+  <si>
+    <t>Population size</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
   <si>
     <t>Average</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tuberculosis cofactor</t>
-  </si>
-  <si>
-    <t>Diagnosis behavior change</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>Insertive penile-vaginal intercourse</t>
-  </si>
-  <si>
-    <t>Receptive penile-vaginal intercourse</t>
+  </si>
+  <si>
+    <t>Short name</t>
+  </si>
+  <si>
+    <t>Long name</t>
+  </si>
+  <si>
+    <t>Tuberculosis prevalence</t>
+  </si>
+  <si>
+    <t>Number of people who inject drugs who are on opiate substitution therapy</t>
+  </si>
+  <si>
+    <t>December 19th, 2014</t>
+  </si>
+  <si>
+    <t>Cliff Kerr</t>
+  </si>
+  <si>
+    <t>Thanks!</t>
+  </si>
+  <si>
+    <t>info@optimamodel.com</t>
+  </si>
+  <si>
+    <t>If you have any questions, please contact us on</t>
+  </si>
+  <si>
+    <t>IV. QUESTIONS</t>
+  </si>
+  <si>
+    <t>If a parameter is left completely blank, it will be assumed to be zero.</t>
+  </si>
+  <si>
+    <t>* Economic data only need to be entered if you're performing economic analyses.</t>
+  </si>
+  <si>
+    <t>* For each parameter (as in, row in the worksheet), there needs to be at least one data point entered. The only exception to this is the sheet "Optional indicators", which may be left blank. If data are not available for a particular indicator, enter an assumption in the "Assumption" column, with a comment explaining how that value was arrived at.</t>
+  </si>
+  <si>
+    <t>* Nothing on the "Populations and programs" sheet can be blank.</t>
+  </si>
+  <si>
+    <t>It's a bit confusing what can and can't be left blank, but here are a few general principles:</t>
+  </si>
+  <si>
+    <t>III. WHAT CAN BE LEFT BLANK</t>
   </si>
   <si>
     <t>Insertive penile-anal intercourse</t>
@@ -379,192 +382,190 @@
     <t>Risk-related population transitions (average number of years before movement)</t>
   </si>
   <si>
-    <t>CD4(500) to CD4(350-500)</t>
-  </si>
-  <si>
-    <t>CD4(200-350)</t>
-  </si>
-  <si>
-    <t>Acute to CD4(&gt;500)</t>
-  </si>
-  <si>
-    <t>CD4(350-500) to CD4(200-350)</t>
-  </si>
-  <si>
-    <t>CD4(350-500) to CD4(&gt;500)</t>
-  </si>
-  <si>
-    <t>CD4(200-350) to CD4(350-500)</t>
-  </si>
-  <si>
-    <t>First-line treatment</t>
-  </si>
-  <si>
-    <t>Second-line  treatment</t>
-  </si>
-  <si>
-    <t>CD4(&gt;500)</t>
-  </si>
-  <si>
-    <t>CD4(350-500)</t>
-  </si>
-  <si>
-    <t>Untreated HIV, CD4(&gt;500)</t>
-  </si>
-  <si>
-    <t>Untreated HIV, CD4(350-500)</t>
-  </si>
-  <si>
-    <t>Untreated HIV, CD4(200-350)</t>
-  </si>
-  <si>
-    <t>MSM</t>
-  </si>
-  <si>
-    <t>FSW</t>
-  </si>
-  <si>
-    <t>NSP</t>
-  </si>
-  <si>
-    <t>OST</t>
-  </si>
-  <si>
-    <t>ART</t>
-  </si>
-  <si>
-    <t>PMTCT</t>
-  </si>
-  <si>
-    <t>Percentage of people who used a condom at last act with casual partners</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>Acute infection</t>
-  </si>
-  <si>
-    <t>On treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Circumcision </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMTCT </t>
-  </si>
-  <si>
-    <t>Programs</t>
-  </si>
-  <si>
-    <t>Population size</t>
-  </si>
-  <si>
-    <t>Total</t>
+    <t>Programs for men who have sex with men</t>
+  </si>
+  <si>
+    <t>Social and behavior change communication</t>
+  </si>
+  <si>
+    <t>SBCC</t>
+  </si>
+  <si>
+    <t>Male PWID</t>
+  </si>
+  <si>
+    <t>Males who inject drugs</t>
+  </si>
+  <si>
+    <t>MSM programs</t>
+  </si>
+  <si>
+    <t>Age-related population transitions (average number of years before movement)</t>
+  </si>
+  <si>
+    <t>Government expenditure</t>
+  </si>
+  <si>
+    <t>General government health expenditure</t>
+  </si>
+  <si>
+    <t>Domestic HIV spending</t>
+  </si>
+  <si>
+    <t>Global Fund HIV commitments</t>
+  </si>
+  <si>
+    <t>PEPFAR HIV commitments</t>
+  </si>
+  <si>
+    <t>Other international HIV commitments</t>
+  </si>
+  <si>
+    <t>Private HIV spending</t>
+  </si>
+  <si>
+    <t>Total domestic and international health expenditure</t>
+  </si>
+  <si>
+    <t>Number of people on first-line treatment</t>
+  </si>
+  <si>
+    <t>Number of AIDS-related deaths</t>
+  </si>
+  <si>
+    <t>Percentage of population tested for HIV in the last 12 months</t>
+  </si>
+  <si>
+    <t>Birth rate (births per woman per year)</t>
+  </si>
+  <si>
+    <t>Percentage of HIV-positive women who breastfed</t>
+  </si>
+  <si>
+    <t>Condom use</t>
+  </si>
+  <si>
+    <t>Sex worker</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Other males</t>
+  </si>
+  <si>
+    <t>Other females</t>
+  </si>
+  <si>
+    <t>Clients of female sex workers</t>
+  </si>
+  <si>
+    <t>Modeled estimate of new HIV infections per year</t>
+  </si>
+  <si>
+    <t>Number of women on PMTCT (Option B/B+)</t>
+  </si>
+  <si>
+    <t>Percentage of people covered by pre-exposure prophylaxis</t>
+  </si>
+  <si>
+    <t>Pre-exposure prophylaxis</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Cost &amp; coverage</t>
+  </si>
+  <si>
+    <t>Assumption</t>
+  </si>
+  <si>
+    <t>Opiate substitution therapy</t>
+  </si>
+  <si>
+    <t>Percentage of people who die from non-HIV-related causes per year</t>
+  </si>
+  <si>
+    <t>Number of HIV tests per year</t>
+  </si>
+  <si>
+    <t>Number of HIV diagnoses per year</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>Treated HIV</t>
+  </si>
+  <si>
+    <t>Populations</t>
+  </si>
+  <si>
+    <t>HIV prevalence</t>
+  </si>
+  <si>
+    <t>Gross domestic product</t>
+  </si>
+  <si>
+    <t>Government revenue</t>
+  </si>
+  <si>
+    <t>Prevalence of any ulcerative STIs</t>
+  </si>
+  <si>
+    <t>Number of people initiating ART each year</t>
+  </si>
+  <si>
+    <t>Percentage of people who used a condom at last act with commercial partners</t>
+  </si>
+  <si>
+    <t>Percentage of people who receptively shared a needle at last injection</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Female sex workers</t>
+  </si>
+  <si>
+    <t>Clients</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy</t>
+  </si>
+  <si>
+    <t>Prevention of mother-to-child transmission</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Average</t>
-  </si>
-  <si>
-    <t>Short name</t>
-  </si>
-  <si>
-    <t>Long name</t>
-  </si>
-  <si>
-    <t>Tuberculosis prevalence</t>
-  </si>
-  <si>
-    <t>Number of people who inject drugs who are on opiate substitution therapy</t>
-  </si>
-  <si>
-    <t>December 19th, 2014</t>
-  </si>
-  <si>
-    <t>Cliff Kerr</t>
-  </si>
-  <si>
-    <t>Thanks!</t>
-  </si>
-  <si>
-    <t>info@optimamodel.com</t>
-  </si>
-  <si>
-    <t>If you have any questions, please contact us on</t>
-  </si>
-  <si>
-    <t>IV. QUESTIONS</t>
-  </si>
-  <si>
-    <t>If a parameter is left completely blank, it will be assumed to be zero.</t>
-  </si>
-  <si>
-    <t>* Economic data only need to be entered if you're performing economic analyses.</t>
-  </si>
-  <si>
-    <t>* For each parameter (as in, row in the worksheet), there needs to be at least one data point entered. The only exception to this is the sheet "Optional indicators", which may be left blank. If data are not available for a particular indicator, enter an assumption in the "Assumption" column, with a comment explaining how that value was arrived at.</t>
-  </si>
-  <si>
-    <t>* Nothing on the "Populations and programs" sheet can be blank.</t>
-  </si>
-  <si>
-    <t>It's a bit confusing what can and can't be left blank, but here are a few general principles:</t>
-  </si>
-  <si>
-    <t>III. WHAT CAN BE LEFT BLANK</t>
-  </si>
-  <si>
-    <t>Do not enter anything except cold, hard, actual data! Optima will interpolate between data points, so only enter data in the years that they belong. In addition, please add notes (either as comments for a given cell or in the blank cells to the right of each row) about where the data came from. This is very important! If a given data point is assumed, it is very important that you add a comment, since otherwise you will cause endless grief to the poor schmuck trying to figure out what you did.</t>
-  </si>
-  <si>
-    <t>II. HOW TO ENTER DATA</t>
-  </si>
-  <si>
-    <t>This spreadsheet is divided into 12 sheets. All sheets need to be completed, except where noted below.</t>
-  </si>
-  <si>
-    <t>I. LAYOUT OF THE SPREADSHEET</t>
-  </si>
-  <si>
-    <t>Welcome to the Optima data entry spreadsheet. This is where all data for the model will be entered. At first glance the spreadsheet looks complicated and confusing. Unfortunately, it is. So please ask me if you need help rather than struggle and suffer in silence!</t>
-  </si>
-  <si>
-    <t>O P T I M A</t>
-  </si>
-  <si>
-    <t>Prevalence of any discharging STIs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discharging STI cofactor increase </t>
-  </si>
-  <si>
-    <t>AND</t>
-  </si>
-  <si>
-    <t>Growth assumptions</t>
-  </si>
-  <si>
-    <t>Has sex with men</t>
-  </si>
-  <si>
-    <t>Has sex with women</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuberculosis cofactor</t>
+  </si>
+  <si>
+    <t>Diagnosis behavior change</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Insertive penile-vaginal intercourse</t>
+  </si>
+  <si>
+    <t>Receptive penile-vaginal intercourse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="3" tint="-0.24994659260841701"/>
@@ -806,7 +807,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
@@ -1454,11 +1455,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="655" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1561,7 +1562,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1591,6 +1592,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="663" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="664">
@@ -2260,7 +2264,7 @@
     <cellStyle name="Percent 2 2" xfId="660"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
       <color rgb="FFB9DAED"/>
@@ -2563,164 +2567,166 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" style="51" customWidth="1"/>
-    <col min="2" max="16384" width="8.85546875" style="51"/>
+    <col min="1" max="1" width="80.75" style="51" customWidth="1"/>
+    <col min="2" max="16384" width="8.875" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="58" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="58"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="58"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="52"/>
     </row>
-    <row r="5" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="40" customHeight="1">
       <c r="A5" s="52" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" s="52"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="54" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" s="52"/>
     </row>
-    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="52" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" s="52"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="54" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" s="52"/>
     </row>
-    <row r="13" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="75" customHeight="1">
       <c r="A13" s="52" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" s="52"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="54" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" s="52"/>
     </row>
-    <row r="17" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="52" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="52" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="57" customHeight="1">
       <c r="A19" s="52" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="52" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" s="52"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="52" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="52"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" s="54" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" s="52"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" s="52" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" s="52"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" s="53" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" s="52"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" s="52" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" s="52"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32" s="52" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" s="52" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A3"/>
   </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A28" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -2728,22 +2734,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="6.42578125" customWidth="1"/>
-    <col min="3" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="15" width="6.42578125" customWidth="1"/>
+    <col min="1" max="2" width="6.375" customWidth="1"/>
+    <col min="3" max="8" width="13.375" customWidth="1"/>
+    <col min="9" max="15" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -2770,7 +2776,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="A2" s="16"/>
       <c r="B2" s="35"/>
       <c r="C2" s="4" t="str">
@@ -2816,7 +2822,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="A3" s="15"/>
       <c r="B3" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -2849,7 +2855,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="A4" s="15"/>
       <c r="B4" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -2880,7 +2886,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="A5" s="15"/>
       <c r="B5" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -2915,7 +2921,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="A6" s="15"/>
       <c r="B6" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -2949,7 +2955,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="A7" s="15"/>
       <c r="B7" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -2980,7 +2986,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="A8" s="15"/>
       <c r="B8" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -3015,7 +3021,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -3043,11 +3049,11 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="18" customFormat="1"/>
+    <row r="11" spans="1:26" s="18" customFormat="1"/>
+    <row r="12" spans="1:26">
       <c r="A12" s="17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -3075,7 +3081,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="A13" s="16"/>
       <c r="B13" s="35"/>
       <c r="C13" s="4" t="str">
@@ -3121,7 +3127,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="A14" s="15"/>
       <c r="B14" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -3154,7 +3160,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="A15" s="15"/>
       <c r="B15" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -3185,7 +3191,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="A16" s="15"/>
       <c r="B16" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -3220,7 +3226,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26">
       <c r="A17" s="15"/>
       <c r="B17" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -3255,7 +3261,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26">
       <c r="A18" s="15"/>
       <c r="B18" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -3286,7 +3292,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26">
       <c r="A19" s="15"/>
       <c r="B19" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -3303,7 +3309,7 @@
       </c>
       <c r="H19" s="34"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -3313,7 +3319,7 @@
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
     </row>
-    <row r="21" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" s="18" customFormat="1">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -3341,10 +3347,10 @@
       <c r="Y21" s="16"/>
       <c r="Z21" s="16"/>
     </row>
-    <row r="22" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" s="18" customFormat="1"/>
+    <row r="23" spans="1:26">
       <c r="A23" s="17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -3354,7 +3360,7 @@
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26">
       <c r="A24" s="16"/>
       <c r="B24" s="35"/>
       <c r="C24" s="4" t="str">
@@ -3382,7 +3388,7 @@
         <v>Clients</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26">
       <c r="A25" s="15"/>
       <c r="B25" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -3395,7 +3401,7 @@
       <c r="G25" s="34"/>
       <c r="H25" s="34"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26">
       <c r="A26" s="15"/>
       <c r="B26" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -3408,7 +3414,7 @@
       <c r="G26" s="34"/>
       <c r="H26" s="34"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26">
       <c r="A27" s="15"/>
       <c r="B27" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -3421,7 +3427,7 @@
       <c r="G27" s="34"/>
       <c r="H27" s="34"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26">
       <c r="A28" s="15"/>
       <c r="B28" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -3434,7 +3440,7 @@
       <c r="G28" s="34"/>
       <c r="H28" s="34"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26">
       <c r="A29" s="15"/>
       <c r="B29" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -3447,7 +3453,7 @@
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26">
       <c r="A30" s="15"/>
       <c r="B30" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -3462,7 +3468,7 @@
       <c r="G30" s="34"/>
       <c r="H30" s="34"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -3472,7 +3478,7 @@
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
     </row>
-    <row r="32" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" s="18" customFormat="1">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -3500,10 +3506,10 @@
       <c r="Y32" s="16"/>
       <c r="Z32" s="16"/>
     </row>
-    <row r="33" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="18" customFormat="1"/>
+    <row r="34" spans="1:8">
       <c r="A34" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -3513,7 +3519,7 @@
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="16"/>
       <c r="B35" s="35"/>
       <c r="C35" s="4" t="str">
@@ -3541,7 +3547,7 @@
         <v>Clients</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="15"/>
       <c r="B36" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -3554,7 +3560,7 @@
       <c r="G36" s="34"/>
       <c r="H36" s="34"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="15"/>
       <c r="B37" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -3567,7 +3573,7 @@
       <c r="G37" s="34"/>
       <c r="H37" s="34"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="15"/>
       <c r="B38" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -3582,7 +3588,7 @@
       <c r="G38" s="34"/>
       <c r="H38" s="34"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="15"/>
       <c r="B39" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -3595,7 +3601,7 @@
       <c r="G39" s="34"/>
       <c r="H39" s="34"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="15"/>
       <c r="B40" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -3608,7 +3614,7 @@
       <c r="G40" s="34"/>
       <c r="H40" s="34"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="15"/>
       <c r="B41" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -3625,7 +3631,7 @@
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -3633,7 +3639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Z19"/>
   <sheetViews>
@@ -3641,15 +3647,15 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.375" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="8.42578125" style="6"/>
-    <col min="3" max="8" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="6"/>
+    <col min="3" max="8" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="2"/>
@@ -3659,7 +3665,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="6" customFormat="1">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="4" t="str">
@@ -3687,7 +3693,7 @@
         <v>Clients</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="B3" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -3699,7 +3705,7 @@
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="B4" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -3711,7 +3717,7 @@
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="B5" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
@@ -3723,7 +3729,7 @@
       <c r="G5" s="24"/>
       <c r="H5" s="24"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="B6" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
@@ -3735,7 +3741,7 @@
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="B7" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
@@ -3747,7 +3753,7 @@
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="B8" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
@@ -3759,7 +3765,7 @@
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
     </row>
-    <row r="9" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="18" customFormat="1">
       <c r="A9" s="16"/>
       <c r="B9" s="35"/>
       <c r="C9" s="16"/>
@@ -3787,10 +3793,10 @@
       <c r="Y9" s="16"/>
       <c r="Z9" s="16"/>
     </row>
-    <row r="10" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="18" customFormat="1">
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="A11" s="2"/>
       <c r="B11" s="35"/>
       <c r="C11" s="2"/>
@@ -3800,9 +3806,9 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="A12" s="17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B12" s="35"/>
       <c r="C12" s="2"/>
@@ -3812,7 +3818,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="6" customFormat="1">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
       <c r="C13" s="4" t="str">
@@ -3840,7 +3846,7 @@
         <v>Clients</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="B14" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -3852,7 +3858,7 @@
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="B15" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -3864,7 +3870,7 @@
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="B16" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
@@ -3876,7 +3882,7 @@
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8">
       <c r="B17" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
@@ -3888,7 +3894,7 @@
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8">
       <c r="B18" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
@@ -3900,7 +3906,7 @@
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8">
       <c r="B19" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
@@ -3916,7 +3922,7 @@
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -3924,33 +3930,33 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="1" max="1" width="9.125" style="18"/>
     <col min="2" max="2" width="36" style="18" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="18"/>
+    <col min="3" max="16384" width="9.125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="6" customFormat="1">
       <c r="C2" s="4" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
@@ -3958,9 +3964,9 @@
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="B3" s="19" t="s">
-        <v>55</v>
+        <v>164</v>
       </c>
       <c r="C3" s="26">
         <v>4.0000000000000002E-4</v>
@@ -3972,9 +3978,9 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="B4" s="19" t="s">
-        <v>56</v>
+        <v>165</v>
       </c>
       <c r="C4" s="26">
         <v>8.0000000000000004E-4</v>
@@ -3986,9 +3992,9 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="B5" s="19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" s="26">
         <v>1.38E-2</v>
@@ -4000,9 +4006,9 @@
         <v>1.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" s="19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C6" s="26">
         <v>1.1000000000000001E-3</v>
@@ -4014,9 +4020,9 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7" s="19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C7" s="26">
         <v>8.0000000000000002E-3</v>
@@ -4028,9 +4034,9 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" s="19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C8" s="26">
         <v>0.36699999999999999</v>
@@ -4042,9 +4048,9 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9" s="19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C9" s="26">
         <v>0.20499999999999999</v>
@@ -4056,7 +4062,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -4066,25 +4072,25 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="C14" s="4" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="B15" s="19" t="s">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="C15" s="22">
         <v>26.03</v>
@@ -4096,9 +4102,9 @@
         <v>48.02</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="B16" s="19" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="C16" s="22">
         <v>1</v>
@@ -4110,9 +4116,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="B17" s="19" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="C17" s="22">
         <v>1</v>
@@ -4124,9 +4130,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="B18" s="19" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="C18" s="22">
         <v>1</v>
@@ -4138,9 +4144,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="B19" s="19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C19" s="22">
         <v>3.49</v>
@@ -4152,9 +4158,9 @@
         <v>6.92</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="B20" s="19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C20" s="22">
         <v>7.17</v>
@@ -4166,7 +4172,7 @@
         <v>12.08</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -4176,26 +4182,26 @@
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B24" s="19"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="C25" s="4" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="B26" s="19" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="C26" s="25">
         <v>4.1399999999999997</v>
@@ -4207,9 +4213,9 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="B27" s="19" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="C27" s="25">
         <v>1.05</v>
@@ -4221,9 +4227,9 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="B28" s="19" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="C28" s="25">
         <v>0.33</v>
@@ -4235,9 +4241,9 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="B29" s="19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C29" s="25">
         <v>0.27</v>
@@ -4249,9 +4255,9 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="B30" s="19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C30" s="25">
         <v>0.67</v>
@@ -4263,7 +4269,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -4273,25 +4279,25 @@
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="C35" s="4" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="B36" s="19" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="C36" s="25">
         <v>0.45</v>
@@ -4303,9 +4309,9 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="B37" s="19" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C37" s="25">
         <v>0.7</v>
@@ -4317,9 +4323,9 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="B38" s="19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C38" s="25">
         <v>0.47</v>
@@ -4331,9 +4337,9 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="B39" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C39" s="25">
         <v>1.52</v>
@@ -4345,10 +4351,10 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="B40" s="19"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
@@ -4358,25 +4364,25 @@
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="C44" s="4" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="B45" s="19" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="C45" s="25">
         <v>0.1</v>
@@ -4388,9 +4394,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="B46" s="19" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="C46" s="25">
         <v>0.16</v>
@@ -4402,7 +4408,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -4412,25 +4418,25 @@
       <c r="G49" s="16"/>
       <c r="H49" s="16"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="C51" s="4" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="B52" s="19" t="s">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="C52" s="26">
         <v>3.5999999999999999E-3</v>
@@ -4442,9 +4448,9 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="B53" s="19" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="C53" s="26">
         <v>3.5999999999999999E-3</v>
@@ -4456,9 +4462,9 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="B54" s="19" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="C54" s="26">
         <v>5.7999999999999996E-3</v>
@@ -4470,9 +4476,9 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="B55" s="19" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="C55" s="26">
         <v>8.8000000000000005E-3</v>
@@ -4484,9 +4490,9 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="B56" s="19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C56" s="26">
         <v>5.8999999999999997E-2</v>
@@ -4498,9 +4504,9 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="B57" s="19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C57" s="26">
         <v>0.32300000000000001</v>
@@ -4512,9 +4518,9 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="B58" s="19" t="s">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="C58" s="26">
         <v>0.23</v>
@@ -4526,9 +4532,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="B59" s="19" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="C59" s="22">
         <v>2.17</v>
@@ -4540,7 +4546,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -4550,25 +4556,25 @@
       <c r="G62" s="16"/>
       <c r="H62" s="16"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" s="19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="C64" s="4" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="E64" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="B65" s="19" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="19" t="s">
-        <v>20</v>
       </c>
       <c r="C65" s="26">
         <v>0.05</v>
@@ -4580,9 +4586,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="B66" s="19" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="C66" s="26">
         <v>0.42</v>
@@ -4594,9 +4600,9 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="B67" s="19" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="C67" s="26">
         <v>1</v>
@@ -4608,9 +4614,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="B68" s="19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C68" s="26">
         <v>2.65</v>
@@ -4622,9 +4628,9 @@
         <v>5.19</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="B69" s="19" t="s">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="C69" s="26">
         <v>1</v>
@@ -4636,9 +4642,9 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="B70" s="19" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="C70" s="26">
         <v>0.46</v>
@@ -4650,9 +4656,9 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="B71" s="19" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="C71" s="26">
         <v>0.105</v>
@@ -4664,9 +4670,9 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="B72" s="19" t="s">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="C72" s="26">
         <v>0.3</v>
@@ -4678,9 +4684,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="B73" s="19" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="C73" s="26">
         <v>0.27500000000000002</v>
@@ -4692,25 +4698,25 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="C78" s="4" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="B79" s="19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C79" s="24">
         <v>0.14599999999999999</v>
@@ -4722,9 +4728,9 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="B80" s="19" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="C80" s="24">
         <v>8.0000000000000002E-3</v>
@@ -4736,9 +4742,9 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5">
       <c r="B81" s="19" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="C81" s="24">
         <v>0.02</v>
@@ -4750,9 +4756,9 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5">
       <c r="B82" s="19" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="C82" s="24">
         <v>7.0000000000000007E-2</v>
@@ -4764,9 +4770,9 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5">
       <c r="B83" s="19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C83" s="24">
         <v>0.26500000000000001</v>
@@ -4778,9 +4784,9 @@
         <v>0.47399999999999998</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5">
       <c r="B84" s="19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C84" s="24">
         <v>0.54700000000000004</v>
@@ -4792,9 +4798,9 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5">
       <c r="B85" s="19" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="C85" s="24">
         <v>5.2999999999999999E-2</v>
@@ -4810,7 +4816,7 @@
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -4818,35 +4824,35 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:V91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.375" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="13.85546875" style="18" customWidth="1"/>
-    <col min="5" max="11" width="8.42578125" style="18"/>
+    <col min="2" max="2" width="19.375" style="6" customWidth="1"/>
+    <col min="3" max="4" width="13.875" style="18" customWidth="1"/>
+    <col min="5" max="11" width="8.375" style="18"/>
     <col min="12" max="12" width="12" style="18" customWidth="1"/>
-    <col min="13" max="17" width="8.42578125" style="18"/>
-    <col min="18" max="18" width="12.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="8.375" style="18"/>
+    <col min="18" max="18" width="12.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="18" customFormat="1">
       <c r="A1" s="19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B1" s="6"/>
       <c r="T1" s="55" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="18" customFormat="1">
       <c r="B2" s="6"/>
       <c r="C2" s="19">
         <v>2000</v>
@@ -4897,18 +4903,18 @@
         <v>2015</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="18" customFormat="1">
       <c r="B3" s="4" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="C3" s="22">
         <v>75.018454192929113</v>
@@ -4961,7 +4967,7 @@
         <v>105.06249999999997</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="T3" s="26">
         <v>0.03</v>
@@ -4973,26 +4979,26 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" s="18" customFormat="1">
       <c r="B4" s="6"/>
       <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="18" customFormat="1">
       <c r="B5" s="6"/>
       <c r="T5" s="6"/>
     </row>
-    <row r="6" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" s="18" customFormat="1">
       <c r="B6" s="6"/>
       <c r="T6" s="6"/>
     </row>
-    <row r="7" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="18" customFormat="1">
       <c r="A7" s="19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B7" s="6"/>
       <c r="T7" s="6"/>
     </row>
-    <row r="8" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" s="18" customFormat="1">
       <c r="B8" s="6"/>
       <c r="C8" s="19">
         <v>2000</v>
@@ -5043,18 +5049,18 @@
         <v>2015</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" s="18" customFormat="1">
       <c r="B9" s="4" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
@@ -5073,7 +5079,7 @@
       <c r="Q9" s="40"/>
       <c r="R9" s="40"/>
       <c r="S9" s="5" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="T9" s="26">
         <v>0.03</v>
@@ -5085,25 +5091,25 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" s="18" customFormat="1">
       <c r="B10" s="6"/>
       <c r="T10" s="6"/>
     </row>
-    <row r="11" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" s="18" customFormat="1">
       <c r="B11" s="6"/>
       <c r="T11" s="6"/>
     </row>
-    <row r="12" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" s="18" customFormat="1">
       <c r="B12" s="6"/>
       <c r="T12" s="6"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" s="19" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="S13" s="18"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="18"/>
       <c r="C14" s="19">
         <v>2000</v>
@@ -5155,19 +5161,19 @@
       </c>
       <c r="S14" s="18"/>
       <c r="T14" s="4" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="18"/>
       <c r="B15" s="4" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="C15" s="22">
         <f t="shared" ref="C15:Q15" si="0">D15/(1.12)</f>
@@ -5234,7 +5240,7 @@
         <v>2895752893.7499995</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="T15" s="26">
         <v>0.03</v>
@@ -5246,13 +5252,13 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" s="19" t="s">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="S19" s="18"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" s="18"/>
       <c r="C20" s="19">
         <v>2000</v>
@@ -5304,19 +5310,19 @@
       </c>
       <c r="S20" s="18"/>
       <c r="T20" s="4" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="V20" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="18"/>
       <c r="B21" s="4" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="C21" s="40">
         <v>30000000000</v>
@@ -5382,7 +5388,7 @@
         <v>105000000000</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="T21" s="26">
         <v>0.03</v>
@@ -5394,13 +5400,13 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25" s="19" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="S25" s="18"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26" s="18"/>
       <c r="C26" s="19">
         <v>2000</v>
@@ -5452,19 +5458,19 @@
       </c>
       <c r="S26" s="18"/>
       <c r="T26" s="4" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="U26" s="4" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="V26" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="18"/>
       <c r="B27" s="4" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="C27" s="22">
         <v>10000000000</v>
@@ -5530,7 +5536,7 @@
         <v>20789281794.113678</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="T27" s="26">
         <v>0.03</v>
@@ -5542,14 +5548,14 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="31" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" s="18" customFormat="1">
       <c r="A31" s="19" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="B31" s="6"/>
       <c r="T31" s="6"/>
     </row>
-    <row r="32" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" s="18" customFormat="1">
       <c r="B32" s="6"/>
       <c r="C32" s="19">
         <v>2000</v>
@@ -5600,18 +5606,18 @@
         <v>2015</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="V32" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" s="18" customFormat="1">
       <c r="B33" s="4" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
@@ -5630,7 +5636,7 @@
       <c r="Q33" s="22"/>
       <c r="R33" s="22"/>
       <c r="S33" s="5" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="T33" s="26">
         <v>0.03</v>
@@ -5642,26 +5648,26 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="34" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" s="18" customFormat="1">
       <c r="B34" s="6"/>
       <c r="T34" s="6"/>
     </row>
-    <row r="35" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" s="18" customFormat="1">
       <c r="B35" s="6"/>
       <c r="T35" s="6"/>
     </row>
-    <row r="36" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" s="18" customFormat="1">
       <c r="B36" s="6"/>
       <c r="T36" s="6"/>
     </row>
-    <row r="37" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" s="18" customFormat="1">
       <c r="A37" s="19" t="s">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="B37" s="6"/>
       <c r="T37" s="6"/>
     </row>
-    <row r="38" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" s="18" customFormat="1">
       <c r="B38" s="6"/>
       <c r="C38" s="19">
         <v>2000</v>
@@ -5712,18 +5718,18 @@
         <v>2015</v>
       </c>
       <c r="T38" s="4" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="U38" s="4" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="V38" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" s="18" customFormat="1">
       <c r="B39" s="4" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="C39" s="22">
         <f>12%*C27</f>
@@ -5790,7 +5796,7 @@
         <v>2494713815.2936411</v>
       </c>
       <c r="S39" s="5" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="T39" s="26">
         <v>0.03</v>
@@ -5802,14 +5808,14 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" s="18" customFormat="1">
       <c r="A43" s="19" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="B43" s="6"/>
       <c r="T43" s="6"/>
     </row>
-    <row r="44" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" s="18" customFormat="1">
       <c r="B44" s="6"/>
       <c r="C44" s="19">
         <v>2000</v>
@@ -5860,18 +5866,18 @@
         <v>2015</v>
       </c>
       <c r="T44" s="4" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="U44" s="4" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="V44" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" s="18" customFormat="1">
       <c r="B45" s="4" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="C45" s="22">
         <v>15000000</v>
@@ -5922,7 +5928,7 @@
         <v>18000000</v>
       </c>
       <c r="S45" s="5" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="T45" s="26">
         <v>0.03</v>
@@ -5934,26 +5940,26 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="46" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" s="18" customFormat="1">
       <c r="B46" s="6"/>
       <c r="T46" s="6"/>
     </row>
-    <row r="47" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" s="18" customFormat="1">
       <c r="B47" s="6"/>
       <c r="T47" s="6"/>
     </row>
-    <row r="48" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" s="18" customFormat="1">
       <c r="B48" s="6"/>
       <c r="T48" s="6"/>
     </row>
-    <row r="49" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" s="18" customFormat="1">
       <c r="A49" s="19" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="B49" s="6"/>
       <c r="T49" s="6"/>
     </row>
-    <row r="50" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" s="18" customFormat="1">
       <c r="B50" s="6"/>
       <c r="C50" s="19">
         <v>2000</v>
@@ -6004,18 +6010,18 @@
         <v>2015</v>
       </c>
       <c r="T50" s="4" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="U50" s="4" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="V50" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" s="18" customFormat="1">
       <c r="B51" s="4" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
@@ -6034,7 +6040,7 @@
       <c r="Q51" s="22"/>
       <c r="R51" s="22"/>
       <c r="S51" s="5" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="T51" s="26">
         <v>0.03</v>
@@ -6046,26 +6052,26 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="52" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" s="18" customFormat="1">
       <c r="B52" s="6"/>
       <c r="T52" s="6"/>
     </row>
-    <row r="53" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" s="18" customFormat="1">
       <c r="B53" s="6"/>
       <c r="T53" s="6"/>
     </row>
-    <row r="54" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" s="18" customFormat="1">
       <c r="B54" s="6"/>
       <c r="T54" s="6"/>
     </row>
-    <row r="55" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" s="18" customFormat="1">
       <c r="A55" s="19" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="B55" s="6"/>
       <c r="T55" s="6"/>
     </row>
-    <row r="56" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" s="18" customFormat="1">
       <c r="B56" s="6"/>
       <c r="C56" s="19">
         <v>2000</v>
@@ -6116,18 +6122,18 @@
         <v>2015</v>
       </c>
       <c r="T56" s="4" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="U56" s="4" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="V56" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" s="18" customFormat="1">
       <c r="B57" s="4" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="C57" s="22"/>
       <c r="D57" s="22"/>
@@ -6146,7 +6152,7 @@
       <c r="Q57" s="22"/>
       <c r="R57" s="22"/>
       <c r="S57" s="5" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="T57" s="26">
         <v>0.03</v>
@@ -6158,14 +6164,14 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="61" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" s="18" customFormat="1">
       <c r="A61" s="19" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="B61" s="6"/>
       <c r="T61" s="6"/>
     </row>
-    <row r="62" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" s="18" customFormat="1">
       <c r="B62" s="6"/>
       <c r="C62" s="19">
         <v>2000</v>
@@ -6216,18 +6222,18 @@
         <v>2015</v>
       </c>
       <c r="T62" s="4" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="U62" s="4" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="V62" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" s="18" customFormat="1">
       <c r="B63" s="4" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="C63" s="22"/>
       <c r="D63" s="22"/>
@@ -6246,7 +6252,7 @@
       <c r="Q63" s="22"/>
       <c r="R63" s="22"/>
       <c r="S63" s="5" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="T63" s="26">
         <v>0.03</v>
@@ -6258,26 +6264,26 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="64" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" s="18" customFormat="1">
       <c r="B64" s="6"/>
       <c r="T64" s="6"/>
     </row>
-    <row r="65" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" s="18" customFormat="1">
       <c r="B65" s="6"/>
       <c r="T65" s="6"/>
     </row>
-    <row r="66" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" s="18" customFormat="1">
       <c r="B66" s="6"/>
       <c r="T66" s="6"/>
     </row>
-    <row r="67" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" s="18" customFormat="1">
       <c r="A67" s="19" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="B67" s="6"/>
       <c r="T67" s="6"/>
     </row>
-    <row r="68" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" s="18" customFormat="1">
       <c r="B68" s="6"/>
       <c r="C68" s="19">
         <v>2000</v>
@@ -6328,18 +6334,18 @@
         <v>2015</v>
       </c>
       <c r="T68" s="4" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="U68" s="4" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="V68" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" s="18" customFormat="1">
       <c r="B69" s="4" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="C69" s="22"/>
       <c r="D69" s="22"/>
@@ -6358,7 +6364,7 @@
       <c r="Q69" s="22"/>
       <c r="R69" s="22"/>
       <c r="S69" s="5" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="T69" s="26">
         <v>0.03</v>
@@ -6370,13 +6376,13 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22">
       <c r="A73" s="19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B73" s="18"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22">
       <c r="A74" s="18"/>
       <c r="B74" s="18"/>
       <c r="C74" s="19">
@@ -6429,19 +6435,19 @@
       </c>
       <c r="S74" s="18"/>
       <c r="T74" s="4" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="U74" s="4" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="V74" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
       <c r="A75" s="18"/>
       <c r="B75" s="19" t="s">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="C75" s="22">
         <v>0</v>
@@ -6507,7 +6513,7 @@
         <v>0</v>
       </c>
       <c r="S75" s="5" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="T75" s="26">
         <v>0.03</v>
@@ -6519,10 +6525,10 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22">
       <c r="A76" s="18"/>
       <c r="B76" s="19" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="C76" s="22">
         <v>100</v>
@@ -6588,7 +6594,7 @@
         <v>100</v>
       </c>
       <c r="S76" s="5" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="T76" s="26">
         <v>0.03</v>
@@ -6600,10 +6606,10 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22">
       <c r="A77" s="18"/>
       <c r="B77" s="19" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="C77" s="22">
         <v>100</v>
@@ -6669,7 +6675,7 @@
         <v>100</v>
       </c>
       <c r="S77" s="5" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="T77" s="26">
         <v>0.03</v>
@@ -6681,9 +6687,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="78" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" s="18" customFormat="1">
       <c r="B78" s="19" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="C78" s="22">
         <v>150</v>
@@ -6749,7 +6755,7 @@
         <v>150</v>
       </c>
       <c r="S78" s="5" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="T78" s="26">
         <v>0.03</v>
@@ -6761,10 +6767,10 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22">
       <c r="A79" s="18"/>
       <c r="B79" s="19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C79" s="22">
         <v>200</v>
@@ -6830,7 +6836,7 @@
         <v>200</v>
       </c>
       <c r="S79" s="5" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="T79" s="26">
         <v>0.03</v>
@@ -6842,10 +6848,10 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22">
       <c r="A80" s="18"/>
       <c r="B80" s="19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C80" s="22">
         <v>450</v>
@@ -6911,7 +6917,7 @@
         <v>450</v>
       </c>
       <c r="S80" s="5" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="T80" s="26">
         <v>0.03</v>
@@ -6923,25 +6929,25 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22">
       <c r="A81" s="18"/>
       <c r="B81" s="18"/>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22">
       <c r="A82" s="18"/>
       <c r="B82" s="18"/>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22">
       <c r="A83" s="18"/>
       <c r="B83" s="18"/>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22">
       <c r="A84" s="19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84" s="18"/>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22">
       <c r="A85" s="18"/>
       <c r="B85" s="18"/>
       <c r="C85" s="19">
@@ -6994,19 +7000,19 @@
       </c>
       <c r="S85" s="18"/>
       <c r="T85" s="4" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="U85" s="4" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="V85" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22">
       <c r="A86" s="18"/>
       <c r="B86" s="19" t="s">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="C86" s="22">
         <v>0</v>
@@ -7072,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="S86" s="5" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="T86" s="26">
         <v>0.03</v>
@@ -7084,10 +7090,10 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22">
       <c r="A87" s="18"/>
       <c r="B87" s="19" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="C87" s="22">
         <v>100</v>
@@ -7153,7 +7159,7 @@
         <v>100</v>
       </c>
       <c r="S87" s="5" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="T87" s="26">
         <v>0.03</v>
@@ -7165,9 +7171,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="88" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" s="18" customFormat="1">
       <c r="B88" s="19" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="C88" s="22">
         <v>100</v>
@@ -7233,7 +7239,7 @@
         <v>100</v>
       </c>
       <c r="S88" s="5" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="T88" s="26">
         <v>0.03</v>
@@ -7245,10 +7251,10 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22">
       <c r="A89" s="18"/>
       <c r="B89" s="19" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="C89" s="22">
         <v>1000</v>
@@ -7314,7 +7320,7 @@
         <v>1000</v>
       </c>
       <c r="S89" s="5" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="T89" s="26">
         <v>0.03</v>
@@ -7326,10 +7332,10 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22">
       <c r="A90" s="18"/>
       <c r="B90" s="19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C90" s="22">
         <v>10000</v>
@@ -7395,7 +7401,7 @@
         <v>10000</v>
       </c>
       <c r="S90" s="5" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="T90" s="26">
         <v>0.03</v>
@@ -7407,10 +7413,10 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22">
       <c r="A91" s="18"/>
       <c r="B91" s="19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C91" s="22">
         <v>10000</v>
@@ -7476,7 +7482,7 @@
         <v>10000</v>
       </c>
       <c r="S91" s="5" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="T91" s="26">
         <v>0.03</v>
@@ -7491,9 +7497,8 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -7501,7 +7506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K20"/>
   <sheetViews>
@@ -7509,62 +7514,62 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="20"/>
+    <col min="1" max="1" width="9.125" style="20"/>
     <col min="2" max="2" width="5" style="20" customWidth="1"/>
     <col min="3" max="3" width="18" style="20" customWidth="1"/>
-    <col min="4" max="4" width="55.42578125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="20" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="20"/>
-    <col min="8" max="9" width="14.140625" style="20" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="20" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="20"/>
+    <col min="4" max="4" width="55.375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="20" customWidth="1"/>
+    <col min="6" max="7" width="9.125" style="20"/>
+    <col min="8" max="9" width="14.125" style="20" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="20" customWidth="1"/>
+    <col min="11" max="16384" width="9.125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="C2" s="21" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="E2" s="44" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="B3" s="21">
         <v>1</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E3" s="41" t="b">
         <v>1</v>
@@ -7588,15 +7593,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="B4" s="21">
         <v>2</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="E4" s="41" t="b">
         <v>0</v>
@@ -7620,15 +7625,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="B5" s="21">
         <v>3</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="E5" s="41" t="b">
         <v>1</v>
@@ -7652,15 +7657,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="B6" s="21">
         <v>4</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="E6" s="41" t="b">
         <v>1</v>
@@ -7684,15 +7689,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="B7" s="21">
         <v>5</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="E7" s="41" t="b">
         <v>0</v>
@@ -7716,15 +7721,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="B8" s="21">
         <v>6</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="E8" s="41" t="b">
         <v>1</v>
@@ -7748,112 +7753,112 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="B9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="B10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="B11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="21" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="B12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="B13" s="21"/>
       <c r="C13" s="21" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="B14" s="21">
         <v>1</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="B15" s="21">
         <v>2</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="B16" s="21">
         <v>3</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17" s="21">
         <v>4</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
       <c r="B18" s="21">
         <v>5</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
       <c r="B19" s="21">
         <v>6</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
       <c r="B20" s="21">
         <v>7</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>50</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -7861,31 +7866,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="18"/>
+    <col min="1" max="2" width="9.125" style="18"/>
     <col min="3" max="3" width="11" style="18" customWidth="1"/>
-    <col min="4" max="13" width="9.140625" style="18"/>
-    <col min="14" max="14" width="9.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="9.140625" style="18"/>
-    <col min="21" max="21" width="15.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="18"/>
+    <col min="4" max="13" width="9.125" style="18"/>
+    <col min="14" max="14" width="9.875" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="9.125" style="18"/>
+    <col min="21" max="21" width="15.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="D2" s="19">
         <v>2000</v>
       </c>
@@ -7935,16 +7940,16 @@
         <v>2015</v>
       </c>
       <c r="U2" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="B3" s="4" t="str">
         <f>'Populations &amp; programs'!$C$14</f>
         <v>SBCC</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="25">
@@ -7977,17 +7982,17 @@
       <c r="R3" s="22"/>
       <c r="S3" s="22"/>
       <c r="T3" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U3" s="25"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="B4" s="4" t="str">
         <f>'Populations &amp; programs'!$C$14</f>
         <v>SBCC</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="27">
@@ -8027,20 +8032,20 @@
       <c r="R4" s="24"/>
       <c r="S4" s="24"/>
       <c r="T4" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U4" s="37"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="B6" s="4" t="str">
         <f>'Populations &amp; programs'!$C$15</f>
         <v>NSP</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="25"/>
@@ -8059,19 +8064,19 @@
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
       <c r="T6" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U6" s="25">
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="B7" s="4" t="str">
         <f>'Populations &amp; programs'!$C$15</f>
         <v>NSP</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="23"/>
@@ -8090,22 +8095,22 @@
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
       <c r="T7" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U7" s="47">
         <v>25000</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="B9" s="4" t="str">
         <f>'Populations &amp; programs'!$C$16</f>
         <v>OST</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="25"/>
@@ -8126,18 +8131,18 @@
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
       <c r="T9" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U9" s="25"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" s="6"/>
       <c r="B10" s="4" t="str">
         <f>'Populations &amp; programs'!$C$16</f>
         <v>OST</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="23"/>
@@ -8159,22 +8164,22 @@
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
       <c r="T10" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U10" s="37"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" s="6"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="6"/>
       <c r="B12" s="4" t="str">
         <f>'Populations &amp; programs'!$C$17</f>
         <v>MSM programs</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="25"/>
@@ -8185,8 +8190,8 @@
       <c r="J12" s="25"/>
       <c r="K12" s="22"/>
       <c r="L12" s="25"/>
-      <c r="M12" s="25">
-        <v>0.6</v>
+      <c r="M12" s="59">
+        <v>20000</v>
       </c>
       <c r="N12" s="23"/>
       <c r="O12" s="25"/>
@@ -8195,18 +8200,18 @@
       <c r="R12" s="22"/>
       <c r="S12" s="22"/>
       <c r="T12" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U12" s="25"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="B13" s="4" t="str">
         <f>'Populations &amp; programs'!$C$17</f>
         <v>MSM programs</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="23"/>
@@ -8227,17 +8232,17 @@
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
       <c r="T13" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U13" s="37"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="B15" s="4" t="str">
         <f>'Populations &amp; programs'!$C$18</f>
         <v>FSW programs</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="25"/>
@@ -8258,17 +8263,17 @@
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
       <c r="T15" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U15" s="25"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="B16" s="4" t="str">
         <f>'Populations &amp; programs'!$C$18</f>
         <v>FSW programs</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
@@ -8289,17 +8294,17 @@
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
       <c r="T16" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U16" s="37"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21">
       <c r="B18" s="4" t="str">
         <f>'Populations &amp; programs'!$C$19</f>
         <v>ART</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="25"/>
@@ -8320,17 +8325,17 @@
       <c r="R18" s="22"/>
       <c r="S18" s="22"/>
       <c r="T18" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U18" s="25"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21">
       <c r="B19" s="4" t="str">
         <f>'Populations &amp; programs'!$C$19</f>
         <v>ART</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="23"/>
@@ -8352,17 +8357,17 @@
       <c r="R19" s="22"/>
       <c r="S19" s="22"/>
       <c r="T19" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U19" s="37"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21">
       <c r="B21" s="4" t="str">
         <f>'Populations &amp; programs'!$C$20</f>
         <v>PMTCT</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="25"/>
@@ -8383,17 +8388,17 @@
       <c r="R21" s="22"/>
       <c r="S21" s="22"/>
       <c r="T21" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U21" s="25"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21">
       <c r="B22" s="4" t="str">
         <f>'Populations &amp; programs'!$C$20</f>
         <v>PMTCT</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
@@ -8415,7 +8420,7 @@
       <c r="R22" s="22"/>
       <c r="S22" s="22"/>
       <c r="T22" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U22" s="37"/>
     </row>
@@ -8423,7 +8428,7 @@
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -8431,7 +8436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:U53"/>
   <sheetViews>
@@ -8439,22 +8444,22 @@
       <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="18"/>
-    <col min="4" max="4" width="9.42578125" style="18" customWidth="1"/>
-    <col min="5" max="20" width="9.140625" style="18"/>
-    <col min="21" max="21" width="15.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.85546875" style="18" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="3" width="9.125" style="18"/>
+    <col min="4" max="4" width="9.375" style="18" customWidth="1"/>
+    <col min="5" max="20" width="9.125" style="18"/>
+    <col min="21" max="21" width="15.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.875" style="18" customWidth="1"/>
+    <col min="23" max="16384" width="9.125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="D2" s="19">
         <v>2000</v>
       </c>
@@ -8504,16 +8509,16 @@
         <v>2015</v>
       </c>
       <c r="U2" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="B3" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
@@ -8532,19 +8537,19 @@
       <c r="R3" s="27"/>
       <c r="S3" s="27"/>
       <c r="T3" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U3" s="27">
         <v>37500</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="B4" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
@@ -8563,19 +8568,19 @@
       <c r="R4" s="27"/>
       <c r="S4" s="27"/>
       <c r="T4" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U4" s="27">
         <v>21000</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="B5" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -8594,24 +8599,24 @@
       <c r="R5" s="27"/>
       <c r="S5" s="27"/>
       <c r="T5" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U5" s="27">
         <v>11000</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="U6" s="28"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="B7" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -8630,17 +8635,17 @@
       <c r="R7" s="27"/>
       <c r="S7" s="27"/>
       <c r="T7" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U7" s="27"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="B8" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
@@ -8659,19 +8664,19 @@
       <c r="R8" s="27"/>
       <c r="S8" s="27"/>
       <c r="T8" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U8" s="27">
         <v>15000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="B9" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
@@ -8690,11 +8695,11 @@
       <c r="R9" s="27"/>
       <c r="S9" s="27"/>
       <c r="T9" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U9" s="27"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="28"/>
@@ -8715,13 +8720,13 @@
       <c r="S10" s="28"/>
       <c r="U10" s="28"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="B11" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
@@ -8750,17 +8755,17 @@
       <c r="R11" s="27"/>
       <c r="S11" s="27"/>
       <c r="T11" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U11" s="27"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="B12" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
@@ -8789,17 +8794,17 @@
       <c r="R12" s="27"/>
       <c r="S12" s="27"/>
       <c r="T12" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U12" s="27"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="B13" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
@@ -8828,11 +8833,11 @@
       <c r="R13" s="27"/>
       <c r="S13" s="27"/>
       <c r="T13" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U13" s="27"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="28"/>
@@ -8853,13 +8858,13 @@
       <c r="S14" s="28"/>
       <c r="U14" s="28"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21">
       <c r="B15" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
@@ -8878,17 +8883,17 @@
       <c r="R15" s="27"/>
       <c r="S15" s="27"/>
       <c r="T15" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U15" s="27"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21">
       <c r="B16" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D16" s="22">
         <v>4227500</v>
@@ -8939,17 +8944,17 @@
         <v>6118320.6906761518</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U16" s="27"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21">
       <c r="B17" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
@@ -8968,11 +8973,11 @@
       <c r="R17" s="27"/>
       <c r="S17" s="27"/>
       <c r="T17" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U17" s="27"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="28"/>
@@ -8993,13 +8998,13 @@
       <c r="S18" s="28"/>
       <c r="U18" s="28"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21">
       <c r="B19" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
@@ -9018,17 +9023,17 @@
       <c r="R19" s="27"/>
       <c r="S19" s="27"/>
       <c r="T19" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U19" s="27"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21">
       <c r="B20" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D20" s="22">
         <v>4759641.7668505535</v>
@@ -9079,17 +9084,17 @@
         <v>7061706.1901886221</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U20" s="27"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21">
       <c r="B21" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
@@ -9108,11 +9113,11 @@
       <c r="R21" s="27"/>
       <c r="S21" s="27"/>
       <c r="T21" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U21" s="27"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="28"/>
@@ -9133,13 +9138,13 @@
       <c r="S22" s="28"/>
       <c r="U22" s="28"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21">
       <c r="B23" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
@@ -9158,17 +9163,17 @@
       <c r="R23" s="27"/>
       <c r="S23" s="27"/>
       <c r="T23" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U23" s="27"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21">
       <c r="B24" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D24" s="22">
         <v>522500</v>
@@ -9219,17 +9224,17 @@
         <v>756196.93929705245</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U24" s="27"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21">
       <c r="B25" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
@@ -9248,16 +9253,16 @@
       <c r="R25" s="27"/>
       <c r="S25" s="27"/>
       <c r="T25" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U25" s="27"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21">
       <c r="A29" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="D30" s="19">
         <v>2000</v>
       </c>
@@ -9307,16 +9312,16 @@
         <v>2015</v>
       </c>
       <c r="U30" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="B31" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
@@ -9337,17 +9342,17 @@
       <c r="R31" s="22"/>
       <c r="S31" s="22"/>
       <c r="T31" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U31" s="26"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21">
       <c r="B32" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
@@ -9368,17 +9373,17 @@
       <c r="R32" s="22"/>
       <c r="S32" s="22"/>
       <c r="T32" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U32" s="26"/>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:21">
       <c r="B33" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -9399,21 +9404,21 @@
       <c r="R33" s="22"/>
       <c r="S33" s="22"/>
       <c r="T33" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U33" s="26"/>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:21">
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:21">
       <c r="B35" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -9438,17 +9443,17 @@
       <c r="R35" s="22"/>
       <c r="S35" s="22"/>
       <c r="T35" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U35" s="26"/>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:21">
       <c r="B36" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
@@ -9473,17 +9478,17 @@
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
       <c r="T36" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U36" s="26"/>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:21">
       <c r="B37" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
@@ -9508,21 +9513,21 @@
       <c r="R37" s="22"/>
       <c r="S37" s="22"/>
       <c r="T37" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U37" s="26"/>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:21">
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:21">
       <c r="B39" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
@@ -9547,17 +9552,17 @@
       <c r="R39" s="22"/>
       <c r="S39" s="22"/>
       <c r="T39" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U39" s="26"/>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:21">
       <c r="B40" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
@@ -9582,17 +9587,17 @@
       <c r="R40" s="22"/>
       <c r="S40" s="22"/>
       <c r="T40" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U40" s="26"/>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:21">
       <c r="B41" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
@@ -9617,21 +9622,21 @@
       <c r="R41" s="22"/>
       <c r="S41" s="22"/>
       <c r="T41" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U41" s="26"/>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:21">
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:21">
       <c r="B43" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
@@ -9650,17 +9655,17 @@
       <c r="R43" s="22"/>
       <c r="S43" s="22"/>
       <c r="T43" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U43" s="26"/>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:21">
       <c r="B44" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
@@ -9679,19 +9684,19 @@
       <c r="R44" s="22"/>
       <c r="S44" s="22"/>
       <c r="T44" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U44" s="26">
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:21">
       <c r="B45" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
@@ -9710,21 +9715,21 @@
       <c r="R45" s="22"/>
       <c r="S45" s="22"/>
       <c r="T45" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U45" s="26"/>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:21">
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:21">
       <c r="B47" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="D47" s="22"/>
       <c r="E47" s="22"/>
@@ -9743,17 +9748,17 @@
       <c r="R47" s="22"/>
       <c r="S47" s="22"/>
       <c r="T47" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U47" s="26"/>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:21">
       <c r="B48" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
@@ -9780,17 +9785,17 @@
       <c r="R48" s="22"/>
       <c r="S48" s="22"/>
       <c r="T48" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U48" s="26"/>
     </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:21">
       <c r="B49" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
@@ -9809,21 +9814,21 @@
       <c r="R49" s="22"/>
       <c r="S49" s="22"/>
       <c r="T49" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U49" s="26"/>
     </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:21">
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
     </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:21">
       <c r="B51" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
@@ -9842,17 +9847,17 @@
       <c r="R51" s="22"/>
       <c r="S51" s="22"/>
       <c r="T51" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U51" s="26"/>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:21">
       <c r="B52" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
@@ -9871,19 +9876,19 @@
       <c r="R52" s="22"/>
       <c r="S52" s="22"/>
       <c r="T52" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U52" s="26">
         <v>0.01</v>
       </c>
     </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:21">
       <c r="B53" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
@@ -9902,7 +9907,7 @@
       <c r="R53" s="22"/>
       <c r="S53" s="22"/>
       <c r="T53" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="U53" s="26"/>
     </row>
@@ -9910,7 +9915,7 @@
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -9918,21 +9923,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.375" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="8.42578125" style="6"/>
-    <col min="20" max="20" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="6"/>
+    <col min="20" max="20" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="10" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -9953,7 +9958,7 @@
       <c r="S1" s="9"/>
       <c r="T1" s="9"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="9"/>
       <c r="C2" s="10">
         <v>2000</v>
@@ -10005,13 +10010,13 @@
       </c>
       <c r="S2" s="9"/>
       <c r="T2" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="9"/>
       <c r="B3" s="4" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
@@ -10030,19 +10035,19 @@
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
       <c r="S3" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T3" s="22"/>
     </row>
-    <row r="5" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="18" customFormat="1">
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="18" customFormat="1">
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" s="10" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -10063,7 +10068,7 @@
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" s="9"/>
       <c r="C8" s="10">
         <v>2000</v>
@@ -10115,13 +10120,13 @@
       </c>
       <c r="S8" s="9"/>
       <c r="T8" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="9"/>
       <c r="B9" s="4" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -10164,19 +10169,19 @@
       <c r="Q9" s="22"/>
       <c r="R9" s="22"/>
       <c r="S9" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T9" s="22"/>
     </row>
-    <row r="11" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="18" customFormat="1">
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="18" customFormat="1">
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="10" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -10197,7 +10202,7 @@
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14" s="9"/>
       <c r="C14" s="10">
         <v>2000</v>
@@ -10249,13 +10254,13 @@
       </c>
       <c r="S14" s="9"/>
       <c r="T14" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="9"/>
       <c r="B15" s="4" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
@@ -10274,23 +10279,23 @@
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
       <c r="S15" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T15" s="22"/>
     </row>
-    <row r="17" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="18" customFormat="1">
       <c r="B17" s="6"/>
     </row>
-    <row r="18" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="18" customFormat="1">
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="18" customFormat="1">
       <c r="A19" s="19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B19" s="6"/>
     </row>
-    <row r="20" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="18" customFormat="1">
       <c r="B20" s="6"/>
       <c r="C20" s="19">
         <v>2000</v>
@@ -10341,12 +10346,12 @@
         <v>2015</v>
       </c>
       <c r="T20" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="18" customFormat="1">
       <c r="B21" s="4" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -10365,22 +10370,22 @@
       <c r="Q21" s="22"/>
       <c r="R21" s="22"/>
       <c r="S21" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T21" s="22"/>
     </row>
-    <row r="22" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="18" customFormat="1">
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="18" customFormat="1">
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" s="18" customFormat="1">
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25" s="10" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -10401,7 +10406,7 @@
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20">
       <c r="A26" s="9"/>
       <c r="C26" s="10">
         <v>2000</v>
@@ -10453,13 +10458,13 @@
       </c>
       <c r="S26" s="9"/>
       <c r="T26" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="9"/>
       <c r="B27" s="4" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -10478,17 +10483,17 @@
       <c r="Q27" s="22"/>
       <c r="R27" s="22"/>
       <c r="S27" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T27" s="22"/>
     </row>
-    <row r="31" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" s="18" customFormat="1">
       <c r="A31" s="19" t="s">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="B31" s="6"/>
     </row>
-    <row r="32" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" s="18" customFormat="1">
       <c r="B32" s="6"/>
       <c r="C32" s="19">
         <v>2000</v>
@@ -10539,12 +10544,12 @@
         <v>2015</v>
       </c>
       <c r="T32" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" s="18" customFormat="1">
       <c r="B33" s="4" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
@@ -10563,7 +10568,7 @@
       <c r="Q33" s="22"/>
       <c r="R33" s="22"/>
       <c r="S33" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T33" s="22"/>
     </row>
@@ -10571,7 +10576,7 @@
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -10579,7 +10584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:T42"/>
   <sheetViews>
@@ -10587,18 +10592,18 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.375" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="8.42578125" style="6"/>
+    <col min="2" max="2" width="8.375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="18" customFormat="1">
       <c r="A1" s="19" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="18" customFormat="1">
       <c r="B2" s="6"/>
       <c r="C2" s="19">
         <v>2000</v>
@@ -10649,10 +10654,10 @@
         <v>2015</v>
       </c>
       <c r="T2" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="18" customFormat="1">
       <c r="B3" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -10674,13 +10679,13 @@
       <c r="Q3" s="25"/>
       <c r="R3" s="25"/>
       <c r="S3" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T3" s="25">
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="18" customFormat="1">
       <c r="B4" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -10702,13 +10707,13 @@
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
       <c r="S4" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T4" s="25">
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="18" customFormat="1">
       <c r="B5" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
@@ -10730,13 +10735,13 @@
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
       <c r="S5" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T5" s="25">
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="18" customFormat="1">
       <c r="B6" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
@@ -10758,13 +10763,13 @@
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
       <c r="S6" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T6" s="25">
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="18" customFormat="1">
       <c r="B7" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
@@ -10786,13 +10791,13 @@
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="S7" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T7" s="25">
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="18" customFormat="1">
       <c r="B8" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
@@ -10814,24 +10819,24 @@
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T8" s="25">
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="18" customFormat="1">
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="18" customFormat="1">
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="18" customFormat="1">
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" s="8" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -10852,7 +10857,7 @@
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="7"/>
       <c r="C13" s="8">
         <v>2000</v>
@@ -10904,10 +10909,10 @@
       </c>
       <c r="S13" s="7"/>
       <c r="T13" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="7"/>
       <c r="B14" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -10930,13 +10935,13 @@
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
       <c r="S14" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T14" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" s="7"/>
       <c r="B15" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -10959,13 +10964,13 @@
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
       <c r="S15" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T15" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16" s="7"/>
       <c r="B16" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -10988,13 +10993,13 @@
       <c r="Q16" s="22"/>
       <c r="R16" s="22"/>
       <c r="S16" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T16" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20">
       <c r="A17" s="7"/>
       <c r="B17" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -11017,13 +11022,13 @@
       <c r="Q17" s="22"/>
       <c r="R17" s="22"/>
       <c r="S17" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T17" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18" s="7"/>
       <c r="B18" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -11046,13 +11051,13 @@
       <c r="Q18" s="22"/>
       <c r="R18" s="22"/>
       <c r="S18" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T18" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -11075,28 +11080,28 @@
       <c r="Q19" s="22"/>
       <c r="R19" s="22"/>
       <c r="S19" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T19" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="18" customFormat="1">
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="18" customFormat="1">
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="18" customFormat="1">
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="18" customFormat="1">
       <c r="A23" s="19" t="s">
-        <v>160</v>
+        <v>6</v>
       </c>
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" s="18" customFormat="1">
       <c r="B24" s="6"/>
       <c r="C24" s="19">
         <v>2000</v>
@@ -11147,10 +11152,10 @@
         <v>2015</v>
       </c>
       <c r="T24" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="18" customFormat="1">
       <c r="B25" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -11172,13 +11177,13 @@
       <c r="Q25" s="22"/>
       <c r="R25" s="22"/>
       <c r="S25" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T25" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" s="18" customFormat="1">
       <c r="B26" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -11200,13 +11205,13 @@
       <c r="Q26" s="22"/>
       <c r="R26" s="22"/>
       <c r="S26" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T26" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" s="18" customFormat="1">
       <c r="B27" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
@@ -11228,13 +11233,13 @@
       <c r="Q27" s="22"/>
       <c r="R27" s="22"/>
       <c r="S27" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T27" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" s="18" customFormat="1">
       <c r="B28" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
@@ -11256,13 +11261,13 @@
       <c r="Q28" s="22"/>
       <c r="R28" s="22"/>
       <c r="S28" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T28" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" s="18" customFormat="1">
       <c r="B29" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
@@ -11284,13 +11289,13 @@
       <c r="Q29" s="22"/>
       <c r="R29" s="22"/>
       <c r="S29" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T29" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" s="18" customFormat="1">
       <c r="B30" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
@@ -11312,26 +11317,26 @@
       <c r="Q30" s="22"/>
       <c r="R30" s="22"/>
       <c r="S30" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T30" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20">
       <c r="S31" s="5"/>
     </row>
-    <row r="32" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" s="18" customFormat="1">
       <c r="B32" s="6"/>
       <c r="S32" s="5"/>
     </row>
-    <row r="33" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" s="18" customFormat="1">
       <c r="B33" s="6"/>
       <c r="S33" s="5"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20">
       <c r="A34" s="8" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -11352,7 +11357,7 @@
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20">
       <c r="A35" s="7"/>
       <c r="C35" s="8">
         <v>2000</v>
@@ -11404,10 +11409,10 @@
       </c>
       <c r="S35" s="7"/>
       <c r="T35" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" s="7"/>
       <c r="B36" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -11430,13 +11435,13 @@
       <c r="Q36" s="22"/>
       <c r="R36" s="22"/>
       <c r="S36" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T36" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20">
       <c r="B37" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -11458,13 +11463,13 @@
       <c r="Q37" s="22"/>
       <c r="R37" s="22"/>
       <c r="S37" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T37" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20">
       <c r="B38" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
@@ -11486,13 +11491,13 @@
       <c r="Q38" s="22"/>
       <c r="R38" s="22"/>
       <c r="S38" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T38" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20">
       <c r="B39" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
@@ -11514,13 +11519,13 @@
       <c r="Q39" s="22"/>
       <c r="R39" s="22"/>
       <c r="S39" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T39" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20">
       <c r="B40" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
@@ -11542,13 +11547,13 @@
       <c r="Q40" s="22"/>
       <c r="R40" s="22"/>
       <c r="S40" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T40" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20">
       <c r="B41" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
@@ -11570,20 +11575,20 @@
       <c r="Q41" s="22"/>
       <c r="R41" s="22"/>
       <c r="S41" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T41" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20">
       <c r="S42" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -11591,7 +11596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:T62"/>
   <sheetViews>
@@ -11599,15 +11604,15 @@
       <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.375" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="8.42578125" style="6"/>
-    <col min="20" max="20" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="6"/>
+    <col min="20" max="20" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="10" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -11628,7 +11633,7 @@
       <c r="S1" s="9"/>
       <c r="T1" s="9"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="9"/>
       <c r="C2" s="10">
         <v>2000</v>
@@ -11680,10 +11685,10 @@
       </c>
       <c r="S2" s="9"/>
       <c r="T2" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="9"/>
       <c r="B3" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -11706,13 +11711,13 @@
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
       <c r="S3" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T3" s="25">
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" s="9"/>
       <c r="B4" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -11739,11 +11744,11 @@
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
       <c r="S4" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T4" s="25"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" s="9"/>
       <c r="B5" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -11772,11 +11777,11 @@
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
       <c r="S5" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T5" s="22"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" s="9"/>
       <c r="B6" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -11799,13 +11804,13 @@
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
       <c r="S6" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T6" s="25">
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" s="9"/>
       <c r="B7" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -11828,13 +11833,13 @@
       <c r="Q7" s="25"/>
       <c r="R7" s="22"/>
       <c r="S7" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T7" s="25">
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" s="9"/>
       <c r="B8" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -11857,21 +11862,21 @@
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T8" s="25">
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="18" customFormat="1">
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="18" customFormat="1">
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -11892,7 +11897,7 @@
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="9"/>
       <c r="C13" s="10">
         <v>2000</v>
@@ -11944,13 +11949,13 @@
       </c>
       <c r="S13" s="9"/>
       <c r="T13" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="9"/>
       <c r="B14" s="4" t="s">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
@@ -11969,21 +11974,21 @@
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
       <c r="S14" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T14" s="25">
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="18" customFormat="1">
       <c r="B16" s="6"/>
     </row>
-    <row r="17" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="18" customFormat="1">
       <c r="B17" s="6"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18" s="10" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -12004,7 +12009,7 @@
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" s="9"/>
       <c r="C19" s="10">
         <v>2000</v>
@@ -12056,13 +12061,13 @@
       </c>
       <c r="S19" s="9"/>
       <c r="T19" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="9"/>
       <c r="B20" s="4" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="C20" s="22">
         <v>0</v>
@@ -12109,19 +12114,19 @@
       <c r="Q20" s="22"/>
       <c r="R20" s="22"/>
       <c r="S20" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T20" s="22"/>
     </row>
-    <row r="21" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="18" customFormat="1">
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="18" customFormat="1">
       <c r="B22" s="6"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="A24" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -12142,7 +12147,7 @@
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25" s="9"/>
       <c r="C25" s="10">
         <v>2000</v>
@@ -12194,13 +12199,13 @@
       </c>
       <c r="S25" s="9"/>
       <c r="T25" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="9"/>
       <c r="B26" s="4" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="C26" s="22">
         <v>0</v>
@@ -12247,26 +12252,26 @@
       <c r="Q26" s="22"/>
       <c r="R26" s="22"/>
       <c r="S26" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T26" s="22"/>
     </row>
-    <row r="27" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" s="18" customFormat="1">
       <c r="B27" s="6"/>
     </row>
-    <row r="28" spans="1:20" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" s="18" customFormat="1" ht="14.25" customHeight="1">
       <c r="B28" s="6"/>
     </row>
-    <row r="29" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" s="18" customFormat="1">
       <c r="B29" s="6"/>
     </row>
-    <row r="30" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" s="18" customFormat="1">
       <c r="A30" s="19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B30" s="6"/>
     </row>
-    <row r="31" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" s="18" customFormat="1">
       <c r="B31" s="6"/>
       <c r="C31" s="19">
         <v>2000</v>
@@ -12317,12 +12322,12 @@
         <v>2015</v>
       </c>
       <c r="T31" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="18" customFormat="1">
       <c r="B32" s="4" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="C32" s="22">
         <v>350</v>
@@ -12369,26 +12374,26 @@
       <c r="Q32" s="22"/>
       <c r="R32" s="22"/>
       <c r="S32" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T32" s="22"/>
     </row>
-    <row r="33" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" s="18" customFormat="1">
       <c r="B33" s="6"/>
     </row>
-    <row r="34" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" s="18" customFormat="1">
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" s="18" customFormat="1">
       <c r="B35" s="6"/>
     </row>
-    <row r="36" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" s="18" customFormat="1">
       <c r="A36" s="19" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="B36" s="6"/>
     </row>
-    <row r="37" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" s="18" customFormat="1">
       <c r="B37" s="6"/>
       <c r="C37" s="19">
         <v>2000</v>
@@ -12439,10 +12444,10 @@
         <v>2015</v>
       </c>
       <c r="T37" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" s="18" customFormat="1">
       <c r="B38" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -12464,13 +12469,13 @@
       <c r="Q38" s="22"/>
       <c r="R38" s="22"/>
       <c r="S38" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T38" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" s="18" customFormat="1">
       <c r="B39" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -12492,13 +12497,13 @@
       <c r="Q39" s="22"/>
       <c r="R39" s="22"/>
       <c r="S39" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T39" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" s="18" customFormat="1">
       <c r="B40" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
@@ -12520,13 +12525,13 @@
       <c r="Q40" s="22"/>
       <c r="R40" s="22"/>
       <c r="S40" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T40" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" s="18" customFormat="1">
       <c r="B41" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
@@ -12548,13 +12553,13 @@
       <c r="Q41" s="22"/>
       <c r="R41" s="22"/>
       <c r="S41" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T41" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" s="18" customFormat="1">
       <c r="B42" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
@@ -12576,14 +12581,14 @@
       <c r="Q42" s="25"/>
       <c r="R42" s="22"/>
       <c r="S42" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T42" s="24">
         <f>2/50</f>
         <v>0.04</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" s="18" customFormat="1">
       <c r="B43" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
@@ -12605,24 +12610,24 @@
       <c r="Q43" s="22"/>
       <c r="R43" s="22"/>
       <c r="S43" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T43" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" s="18" customFormat="1">
       <c r="B44" s="6"/>
     </row>
-    <row r="45" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" s="18" customFormat="1">
       <c r="B45" s="6"/>
     </row>
-    <row r="46" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" s="18" customFormat="1">
       <c r="B46" s="6"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20">
       <c r="A47" s="10" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -12643,7 +12648,7 @@
       <c r="S47" s="9"/>
       <c r="T47" s="9"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20">
       <c r="A48" s="9"/>
       <c r="C48" s="10">
         <v>2000</v>
@@ -12695,13 +12700,13 @@
       </c>
       <c r="S48" s="9"/>
       <c r="T48" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" s="9"/>
       <c r="B49" s="4" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
@@ -12730,26 +12735,26 @@
       <c r="Q49" s="27"/>
       <c r="R49" s="27"/>
       <c r="S49" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T49" s="22"/>
     </row>
-    <row r="50" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" s="18" customFormat="1">
       <c r="B50" s="6"/>
     </row>
-    <row r="51" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" s="18" customFormat="1">
       <c r="B51" s="6"/>
     </row>
-    <row r="52" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" s="18" customFormat="1">
       <c r="B52" s="6"/>
     </row>
-    <row r="53" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" s="18" customFormat="1">
       <c r="A53" s="19" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="B53" s="6"/>
     </row>
-    <row r="54" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" s="18" customFormat="1">
       <c r="B54" s="6"/>
       <c r="C54" s="19">
         <v>2000</v>
@@ -12800,10 +12805,10 @@
         <v>2015</v>
       </c>
       <c r="T54" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" s="18" customFormat="1">
       <c r="B55" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -12825,13 +12830,13 @@
       <c r="Q55" s="22"/>
       <c r="R55" s="22"/>
       <c r="S55" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T55" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" s="18" customFormat="1">
       <c r="B56" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
@@ -12853,20 +12858,20 @@
       <c r="Q56" s="25"/>
       <c r="R56" s="22"/>
       <c r="S56" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T56" s="24">
         <f>2/50</f>
         <v>0.04</v>
       </c>
     </row>
-    <row r="60" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" s="18" customFormat="1">
       <c r="A60" s="19" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="B60" s="6"/>
     </row>
-    <row r="61" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" s="18" customFormat="1">
       <c r="B61" s="6"/>
       <c r="C61" s="19">
         <v>2000</v>
@@ -12917,12 +12922,12 @@
         <v>2015</v>
       </c>
       <c r="T61" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" s="18" customFormat="1">
       <c r="B62" s="4" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="C62" s="22"/>
       <c r="D62" s="22"/>
@@ -12941,7 +12946,7 @@
       <c r="Q62" s="22"/>
       <c r="R62" s="22"/>
       <c r="S62" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T62" s="25">
         <v>0.3</v>
@@ -12951,7 +12956,7 @@
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -12959,7 +12964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:T72"/>
   <sheetViews>
@@ -12967,15 +12972,15 @@
       <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.375" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="8.42578125" style="6"/>
-    <col min="20" max="20" width="14.42578125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="6"/>
+    <col min="20" max="20" width="14.375" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -12995,7 +13000,7 @@
       <c r="R1" s="11"/>
       <c r="S1" s="11"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="11"/>
       <c r="C2" s="12">
         <v>2000</v>
@@ -13047,10 +13052,10 @@
       </c>
       <c r="S2" s="11"/>
       <c r="T2" s="32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="11"/>
       <c r="B3" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -13073,13 +13078,13 @@
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
       <c r="S3" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T3" s="33">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" s="11"/>
       <c r="B4" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -13102,13 +13107,13 @@
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
       <c r="S4" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T4" s="33">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" s="11"/>
       <c r="B5" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -13131,13 +13136,13 @@
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
       <c r="S5" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T5" s="33">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" s="11"/>
       <c r="B6" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -13160,13 +13165,13 @@
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
       <c r="S6" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T6" s="33">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" s="11"/>
       <c r="B7" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -13189,13 +13194,13 @@
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="S7" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T7" s="33">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" s="11"/>
       <c r="B8" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -13218,23 +13223,23 @@
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T8" s="33">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="18" customFormat="1">
       <c r="B10" s="6"/>
       <c r="T10" s="31"/>
     </row>
-    <row r="11" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="18" customFormat="1">
       <c r="B11" s="6"/>
       <c r="T11" s="31"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -13254,7 +13259,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="11"/>
       <c r="C13" s="12">
         <v>2000</v>
@@ -13306,10 +13311,10 @@
       </c>
       <c r="S13" s="11"/>
       <c r="T13" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="11"/>
       <c r="B14" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -13332,13 +13337,13 @@
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
       <c r="S14" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T14" s="29">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" s="11"/>
       <c r="B15" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -13361,13 +13366,13 @@
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
       <c r="S15" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T15" s="29">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16" s="11"/>
       <c r="B16" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -13390,13 +13395,13 @@
       <c r="Q16" s="22"/>
       <c r="R16" s="22"/>
       <c r="S16" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T16" s="29">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20">
       <c r="A17" s="11"/>
       <c r="B17" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -13419,13 +13424,13 @@
       <c r="Q17" s="22"/>
       <c r="R17" s="22"/>
       <c r="S17" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T17" s="29">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18" s="11"/>
       <c r="B18" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -13448,13 +13453,13 @@
       <c r="Q18" s="22"/>
       <c r="R18" s="22"/>
       <c r="S18" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T18" s="29">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" s="11"/>
       <c r="B19" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -13477,23 +13482,23 @@
       <c r="Q19" s="22"/>
       <c r="R19" s="22"/>
       <c r="S19" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T19" s="29">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="18" customFormat="1">
       <c r="B21" s="6"/>
       <c r="T21" s="31"/>
     </row>
-    <row r="22" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="18" customFormat="1">
       <c r="B22" s="6"/>
       <c r="T22" s="31"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20">
       <c r="A23" s="12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -13513,7 +13518,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="A24" s="11"/>
       <c r="C24" s="12">
         <v>2000</v>
@@ -13565,10 +13570,10 @@
       </c>
       <c r="S24" s="11"/>
       <c r="T24" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="11"/>
       <c r="B25" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -13591,13 +13596,13 @@
       <c r="Q25" s="22"/>
       <c r="R25" s="22"/>
       <c r="S25" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T25" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20">
       <c r="A26" s="11"/>
       <c r="B26" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -13620,13 +13625,13 @@
       <c r="Q26" s="22"/>
       <c r="R26" s="22"/>
       <c r="S26" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T26" s="29">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20">
       <c r="A27" s="11"/>
       <c r="B27" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -13649,13 +13654,13 @@
       <c r="Q27" s="22"/>
       <c r="R27" s="22"/>
       <c r="S27" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T27" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20">
       <c r="A28" s="11"/>
       <c r="B28" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -13678,13 +13683,13 @@
       <c r="Q28" s="22"/>
       <c r="R28" s="22"/>
       <c r="S28" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T28" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20">
       <c r="A29" s="11"/>
       <c r="B29" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -13707,13 +13712,13 @@
       <c r="Q29" s="22"/>
       <c r="R29" s="22"/>
       <c r="S29" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T29" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20">
       <c r="A30" s="11"/>
       <c r="B30" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -13736,25 +13741,25 @@
       <c r="Q30" s="22"/>
       <c r="R30" s="22"/>
       <c r="S30" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T30" s="29">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" s="18" customFormat="1">
       <c r="T31" s="31"/>
     </row>
-    <row r="32" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" s="18" customFormat="1">
       <c r="T32" s="31"/>
     </row>
-    <row r="33" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" s="18" customFormat="1">
       <c r="B33" s="6"/>
       <c r="T33" s="31"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20">
       <c r="A34" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -13774,7 +13779,7 @@
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20">
       <c r="A35" s="11"/>
       <c r="C35" s="12">
         <v>2000</v>
@@ -13826,10 +13831,10 @@
       </c>
       <c r="S35" s="11"/>
       <c r="T35" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" s="11"/>
       <c r="B36" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -13852,13 +13857,13 @@
       <c r="Q36" s="22"/>
       <c r="R36" s="22"/>
       <c r="S36" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T36" s="30">
         <v>0.4</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20">
       <c r="A37" s="11"/>
       <c r="B37" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -13891,11 +13896,11 @@
       <c r="Q37" s="22"/>
       <c r="R37" s="22"/>
       <c r="S37" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T37" s="30"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20">
       <c r="A38" s="11"/>
       <c r="B38" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -13918,13 +13923,13 @@
       <c r="Q38" s="22"/>
       <c r="R38" s="22"/>
       <c r="S38" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T38" s="30">
         <v>0.05</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20">
       <c r="A39" s="11"/>
       <c r="B39" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -13947,13 +13952,13 @@
       <c r="Q39" s="22"/>
       <c r="R39" s="22"/>
       <c r="S39" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T39" s="30">
         <v>0.05</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20">
       <c r="A40" s="11"/>
       <c r="B40" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -13976,13 +13981,13 @@
       <c r="Q40" s="22"/>
       <c r="R40" s="22"/>
       <c r="S40" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T40" s="30">
         <v>0.05</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20">
       <c r="A41" s="11"/>
       <c r="B41" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -14005,23 +14010,23 @@
       <c r="Q41" s="22"/>
       <c r="R41" s="22"/>
       <c r="S41" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T41" s="30">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" s="18" customFormat="1">
       <c r="B43" s="6"/>
       <c r="T43" s="31"/>
     </row>
-    <row r="44" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" s="18" customFormat="1">
       <c r="B44" s="6"/>
       <c r="T44" s="31"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20">
       <c r="A45" s="19" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -14041,7 +14046,7 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20">
       <c r="A46" s="11"/>
       <c r="C46" s="12">
         <v>2000</v>
@@ -14093,10 +14098,10 @@
       </c>
       <c r="S46" s="11"/>
       <c r="T46" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" s="11"/>
       <c r="B47" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -14119,13 +14124,13 @@
       <c r="Q47" s="22"/>
       <c r="R47" s="22"/>
       <c r="S47" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T47" s="30">
         <v>0.6</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20">
       <c r="A48" s="11"/>
       <c r="B48" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -14158,11 +14163,11 @@
       <c r="Q48" s="22"/>
       <c r="R48" s="22"/>
       <c r="S48" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T48" s="30"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20">
       <c r="A49" s="11"/>
       <c r="B49" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -14185,13 +14190,13 @@
       <c r="Q49" s="22"/>
       <c r="R49" s="22"/>
       <c r="S49" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T49" s="30">
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20">
       <c r="A50" s="11"/>
       <c r="B50" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -14220,11 +14225,11 @@
       <c r="Q50" s="22"/>
       <c r="R50" s="22"/>
       <c r="S50" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T50" s="30"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20">
       <c r="A51" s="11"/>
       <c r="B51" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -14253,11 +14258,11 @@
       <c r="Q51" s="22"/>
       <c r="R51" s="22"/>
       <c r="S51" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T51" s="30"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20">
       <c r="A52" s="11"/>
       <c r="B52" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -14280,23 +14285,23 @@
       <c r="Q52" s="22"/>
       <c r="R52" s="22"/>
       <c r="S52" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T52" s="30">
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" s="18" customFormat="1">
       <c r="B54" s="6"/>
       <c r="T54" s="31"/>
     </row>
-    <row r="55" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" s="18" customFormat="1">
       <c r="B55" s="6"/>
       <c r="T55" s="31"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20">
       <c r="A56" s="19" t="s">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -14316,7 +14321,7 @@
       <c r="R56" s="11"/>
       <c r="S56" s="11"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20">
       <c r="A57" s="11"/>
       <c r="C57" s="12">
         <v>2000</v>
@@ -14368,10 +14373,10 @@
       </c>
       <c r="S57" s="11"/>
       <c r="T57" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58" s="11"/>
       <c r="B58" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -14394,13 +14399,13 @@
       <c r="Q58" s="22"/>
       <c r="R58" s="22"/>
       <c r="S58" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T58" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20">
       <c r="A59" s="11"/>
       <c r="B59" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -14433,11 +14438,11 @@
       <c r="Q59" s="22"/>
       <c r="R59" s="22"/>
       <c r="S59" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T59" s="38"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20">
       <c r="A60" s="11"/>
       <c r="B60" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -14460,13 +14465,13 @@
       <c r="Q60" s="22"/>
       <c r="R60" s="22"/>
       <c r="S60" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T60" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20">
       <c r="A61" s="11"/>
       <c r="B61" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -14489,13 +14494,13 @@
       <c r="Q61" s="22"/>
       <c r="R61" s="22"/>
       <c r="S61" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T61" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20">
       <c r="A62" s="11"/>
       <c r="B62" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -14518,13 +14523,13 @@
       <c r="Q62" s="22"/>
       <c r="R62" s="22"/>
       <c r="S62" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T62" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20">
       <c r="A63" s="11"/>
       <c r="B63" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -14557,21 +14562,21 @@
       <c r="Q63" s="22"/>
       <c r="R63" s="22"/>
       <c r="S63" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T63" s="39"/>
     </row>
-    <row r="65" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" s="18" customFormat="1">
       <c r="B65" s="6"/>
       <c r="T65" s="31"/>
     </row>
-    <row r="66" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" s="18" customFormat="1">
       <c r="B66" s="6"/>
       <c r="T66" s="31"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20">
       <c r="A67" s="12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
@@ -14591,7 +14596,7 @@
       <c r="R67" s="11"/>
       <c r="S67" s="11"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20">
       <c r="A68" s="11"/>
       <c r="C68" s="12">
         <v>2000</v>
@@ -14643,10 +14648,10 @@
       </c>
       <c r="S68" s="11"/>
       <c r="T68" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
       <c r="A69" s="11"/>
       <c r="B69" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -14669,13 +14674,13 @@
       <c r="Q69" s="22"/>
       <c r="R69" s="22"/>
       <c r="S69" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T69" s="50">
         <v>0.03</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20">
       <c r="A70" s="11"/>
       <c r="B70" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -14698,13 +14703,13 @@
       <c r="Q70" s="22"/>
       <c r="R70" s="22"/>
       <c r="S70" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T70" s="50">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20">
       <c r="A71" s="11"/>
       <c r="B71" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -14727,13 +14732,13 @@
       <c r="Q71" s="22"/>
       <c r="R71" s="22"/>
       <c r="S71" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T71" s="50">
         <v>0.03</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20">
       <c r="A72" s="11"/>
       <c r="B72" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -14756,7 +14761,7 @@
       <c r="Q72" s="22"/>
       <c r="R72" s="22"/>
       <c r="S72" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T72" s="50">
         <v>0.03</v>
@@ -14766,7 +14771,7 @@
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -14774,7 +14779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:T25"/>
   <sheetViews>
@@ -14782,15 +14787,15 @@
       <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.375" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.375" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -14810,7 +14815,7 @@
       <c r="R1" s="13"/>
       <c r="S1" s="13"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="13"/>
       <c r="C2" s="14">
         <v>2000</v>
@@ -14862,10 +14867,10 @@
       </c>
       <c r="S2" s="13"/>
       <c r="T2" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="13"/>
       <c r="B3" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -14888,13 +14893,13 @@
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
       <c r="S3" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T3" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" s="13"/>
       <c r="B4" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -14917,13 +14922,13 @@
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
       <c r="S4" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T4" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" s="13"/>
       <c r="B5" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -14946,13 +14951,13 @@
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
       <c r="S5" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T5" s="29">
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" s="13"/>
       <c r="B6" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -14975,13 +14980,13 @@
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
       <c r="S6" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T6" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" s="13"/>
       <c r="B7" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -15004,13 +15009,13 @@
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="S7" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T7" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" s="13"/>
       <c r="B8" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -15033,23 +15038,23 @@
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T8" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="18" customFormat="1">
       <c r="B10" s="6"/>
       <c r="T10" s="31"/>
     </row>
-    <row r="11" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="18" customFormat="1">
       <c r="B11" s="6"/>
       <c r="T11" s="31"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" s="19" t="s">
-        <v>46</v>
+        <v>155</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -15069,7 +15074,7 @@
       <c r="R12" s="13"/>
       <c r="S12" s="13"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="13"/>
       <c r="C13" s="14">
         <v>2000</v>
@@ -15121,10 +15126,10 @@
       </c>
       <c r="S13" s="13"/>
       <c r="T13" s="32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="18" customFormat="1">
       <c r="B14" s="4" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -15146,13 +15151,13 @@
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
       <c r="S14" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T14" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" s="18" customFormat="1">
       <c r="B15" s="4" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -15174,13 +15179,13 @@
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
       <c r="S15" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T15" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="18" customFormat="1">
       <c r="B16" s="4" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Male PWID</v>
@@ -15210,11 +15215,11 @@
       <c r="Q16" s="22"/>
       <c r="R16" s="22"/>
       <c r="S16" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T16" s="29"/>
     </row>
-    <row r="17" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="18" customFormat="1">
       <c r="B17" s="4" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Other males</v>
@@ -15236,13 +15241,13 @@
       <c r="Q17" s="22"/>
       <c r="R17" s="22"/>
       <c r="S17" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T17" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="18" customFormat="1">
       <c r="B18" s="4" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Other females</v>
@@ -15264,13 +15269,13 @@
       <c r="Q18" s="22"/>
       <c r="R18" s="22"/>
       <c r="S18" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T18" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="18" customFormat="1">
       <c r="B19" s="4" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>Clients</v>
@@ -15292,23 +15297,23 @@
       <c r="Q19" s="22"/>
       <c r="R19" s="22"/>
       <c r="S19" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T19" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="18" customFormat="1">
       <c r="B21" s="6"/>
       <c r="T21" s="31"/>
     </row>
-    <row r="22" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="18" customFormat="1">
       <c r="B22" s="6"/>
       <c r="T22" s="31"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20">
       <c r="A23" s="14" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -15328,7 +15333,7 @@
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="A24" s="13"/>
       <c r="C24" s="14">
         <v>2000</v>
@@ -15380,13 +15385,13 @@
       </c>
       <c r="S24" s="13"/>
       <c r="T24" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="13"/>
       <c r="B25" s="43" t="s">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="C25" s="38"/>
       <c r="D25" s="38">
@@ -15411,7 +15416,7 @@
       <c r="Q25" s="38"/>
       <c r="R25" s="38"/>
       <c r="S25" s="5" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="T25" s="38"/>
     </row>
@@ -15419,7 +15424,7 @@
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
